--- a/Deliverable/results/conductivity.xlsx
+++ b/Deliverable/results/conductivity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -1565,11 +1565,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97550865"/>
-        <c:axId val="1025163"/>
+        <c:axId val="43110509"/>
+        <c:axId val="70589425"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97550865"/>
+        <c:axId val="43110509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1613,12 +1613,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025163"/>
+        <c:crossAx val="70589425"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1025163"/>
+        <c:axId val="70589425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1662,7 +1662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97550865"/>
+        <c:crossAx val="43110509"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2530,11 +2530,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82147712"/>
-        <c:axId val="57198720"/>
+        <c:axId val="99615396"/>
+        <c:axId val="93277360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82147712"/>
+        <c:axId val="99615396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,12 +2576,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57198720"/>
+        <c:crossAx val="93277360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57198720"/>
+        <c:axId val="93277360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1"/>
@@ -2625,7 +2625,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82147712"/>
+        <c:crossAx val="99615396"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3492,11 +3492,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59443735"/>
-        <c:axId val="81974794"/>
+        <c:axId val="70178095"/>
+        <c:axId val="68920148"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59443735"/>
+        <c:axId val="70178095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,12 +3538,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81974794"/>
+        <c:crossAx val="68920148"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81974794"/>
+        <c:axId val="68920148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -3586,7 +3586,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59443735"/>
+        <c:crossAx val="70178095"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4453,11 +4453,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35428507"/>
-        <c:axId val="90434793"/>
+        <c:axId val="65093309"/>
+        <c:axId val="95820356"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35428507"/>
+        <c:axId val="65093309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,12 +4499,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90434793"/>
+        <c:crossAx val="95820356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90434793"/>
+        <c:axId val="95820356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -4548,7 +4548,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35428507"/>
+        <c:crossAx val="65093309"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5415,11 +5415,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71149669"/>
-        <c:axId val="12142502"/>
+        <c:axId val="89876275"/>
+        <c:axId val="93088445"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71149669"/>
+        <c:axId val="89876275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,12 +5461,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12142502"/>
+        <c:crossAx val="93088445"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12142502"/>
+        <c:axId val="93088445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -5510,7 +5510,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71149669"/>
+        <c:crossAx val="89876275"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5549,9 +5549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1154160</xdr:colOff>
+      <xdr:colOff>1153800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5560,7 +5560,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1053720" y="1648800"/>
-        <a:ext cx="4852800" cy="4476240"/>
+        <a:ext cx="4852440" cy="4475880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5579,9 +5579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>496440</xdr:colOff>
+      <xdr:colOff>496080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>195480</xdr:rowOff>
+      <xdr:rowOff>195120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5590,7 +5590,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5884560" y="1595880"/>
-        <a:ext cx="4851720" cy="4505040"/>
+        <a:ext cx="4851360" cy="4504680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5609,9 +5609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5620,7 +5620,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10732320" y="1620000"/>
-        <a:ext cx="5035320" cy="4439160"/>
+        <a:ext cx="5034960" cy="4438800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5639,9 +5639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>889560</xdr:colOff>
+      <xdr:colOff>889200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5650,7 +5650,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3364200" y="6166440"/>
-        <a:ext cx="4653720" cy="4088880"/>
+        <a:ext cx="4653360" cy="4088520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5669,9 +5669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>754920</xdr:colOff>
+      <xdr:colOff>754560</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5680,7 +5680,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8162640" y="6247800"/>
-        <a:ext cx="4667400" cy="4003200"/>
+        <a:ext cx="4667040" cy="4002840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -47504,7 +47504,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47645,5167 +47645,5137 @@
   </sheetPr>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M120" activeCellId="0" sqref="M120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <f aca="false">T1!E2</f>
         <v>-2.066983439</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <f aca="false">T1!F2</f>
         <v>-2.17069179460023</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">T2!E2</f>
         <v>-2.117342766</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">T2!F2</f>
         <v>-2.20021361014218</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">T3!E2</f>
         <v>-2.170373268</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">T3!F2</f>
         <v>-2.22570034767146</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <f aca="false">T4!E2</f>
         <v>-2.226374266</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <f aca="false">T4!F2</f>
         <v>-2.24792640423484</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <f aca="false">T5!E2</f>
         <v>-2.285698394</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <f aca="false">T5!F2</f>
         <v>-2.26747980299643</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">T1!E3</f>
         <v>-2.475420585</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <f aca="false">T1!F3</f>
         <v>-2.20334590170376</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">T2!E3</f>
         <v>-2.551946922</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">T2!F3</f>
         <v>-2.45819993403694</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">T3!E3</f>
         <v>-2.634818466</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">T3!F3</f>
         <v>-2.62909852449601</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">T4!E3</f>
         <v>-2.725183364</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">T4!F3</f>
         <v>-2.75166068790937</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">T5!E3</f>
         <v>-2.82453267</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">T5!F3</f>
         <v>-2.84385270274982</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">T1!E4</f>
         <v>-1.303412365</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <f aca="false">T1!F4</f>
         <v>-1.37420172495567</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">T2!E4</f>
         <v>-1.312626217</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">T2!F4</f>
         <v>-1.4168044834678</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">T3!E4</f>
         <v>-1.321925754</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">T3!F4</f>
         <v>-1.45340780261754</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">T4!E4</f>
         <v>-1.331312586</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">T4!F4</f>
         <v>-1.48519577677154</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false">T5!E4</f>
         <v>-1.340788365</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">T5!F4</f>
         <v>-1.51305966260763</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">T1!E5</f>
         <v>-1.995596987</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <f aca="false">T1!F5</f>
         <v>-1.97164477217687</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">T2!E5</f>
         <v>-2.097154901</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">T2!F5</f>
         <v>-2.17209027819132</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">T3!E5</f>
         <v>-2.210204929</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">T3!F5</f>
         <v>-2.29913028163179</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">T4!E5</f>
         <v>-2.337683757</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">T4!F5</f>
         <v>-2.38684709198144</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false">T5!E5</f>
         <v>-2.483820919</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">T5!F5</f>
         <v>-2.45105168054192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">T1!E6</f>
         <v>-1.896015428</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <f aca="false">T1!F6</f>
         <v>-1.99252380515933</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">T2!E6</f>
         <v>-1.956936163</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">T2!F6</f>
         <v>-2.05480077551358</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">T3!E6</f>
         <v>-2.021810384</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">T3!F6</f>
         <v>-2.10302157955785</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">T4!E6</f>
         <v>-2.091187051</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">T4!F6</f>
         <v>-2.14146262982725</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false">T5!E6</f>
         <v>-2.165738047</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">T5!F6</f>
         <v>-2.17282504584955</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">T1!E7</f>
         <v>-2.19518933</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <f aca="false">T1!F7</f>
         <v>-2.03459586784046</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">T2!E7</f>
         <v>-2.264872986</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">T2!F7</f>
         <v>-2.17513601738905</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">T3!E7</f>
         <v>-2.339778611</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">T3!F7</f>
         <v>-2.27569823844951</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">T4!E7</f>
         <v>-2.420752718</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false">T4!F7</f>
         <v>-2.35121653537898</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <f aca="false">T5!E7</f>
         <v>-2.508865959</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <f aca="false">T5!F7</f>
         <v>-2.41001022267627</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">T1!E8</f>
         <v>-1.851279157</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <f aca="false">T1!F8</f>
         <v>-1.92181784020006</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">T2!E8</f>
         <v>-1.921809721</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">T2!F8</f>
         <v>-2.08728154707374</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">T3!E8</f>
         <v>-1.997694896</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">T3!F8</f>
         <v>-2.20884351592893</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">T4!E8</f>
         <v>-2.079815008</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false">T4!F8</f>
         <v>-2.30192970426979</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <f aca="false">T5!E8</f>
         <v>-2.169287075</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false">T5!F8</f>
         <v>-2.37549667626095</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">T1!E9</f>
         <v>-1.827191649</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <f aca="false">T1!F9</f>
         <v>-1.93993648316546</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">T2!E9</f>
         <v>-1.895506946</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">T2!F9</f>
         <v>-2.02146877269803</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">T3!E9</f>
         <v>-1.968833671</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">T3!F9</f>
         <v>-2.08133289330971</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">T4!E9</f>
         <v>-2.047965694</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <f aca="false">T4!F9</f>
         <v>-2.12715361612287</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <f aca="false">T5!E9</f>
         <v>-2.133901875</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false">T5!F9</f>
         <v>-2.16335371415886</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">T1!E10</f>
         <v>-1.892888975</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <f aca="false">T1!F10</f>
         <v>-1.78033433794051</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">T2!E10</f>
         <v>-1.982530264</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">T2!F10</f>
         <v>-1.98297401945376</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">T3!E10</f>
         <v>-2.081005495</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">T3!F10</f>
         <v>-2.09711237070556</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">T4!E10</f>
         <v>-2.190248061</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <f aca="false">T4!F10</f>
         <v>-2.17033593065429</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <f aca="false">T5!E10</f>
         <v>-2.312904948</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false">T5!F10</f>
         <v>-2.22130097292586</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">T1!E11</f>
         <v>-1.626972137</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <f aca="false">T1!F11</f>
         <v>-1.69276114502818</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">T2!E11</f>
         <v>-1.705015747</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">T2!F11</f>
         <v>-1.82686126086327</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">T3!E11</f>
         <v>-1.789669695</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">T3!F11</f>
         <v>-1.91941490526882</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">T4!E11</f>
         <v>-1.882158277</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <f aca="false">T4!F11</f>
         <v>-1.98713997387432</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <f aca="false">T5!E11</f>
         <v>-1.984080949</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false">T5!F11</f>
         <v>-2.03884588070414</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">T1!E12</f>
         <v>-1.748863068</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <f aca="false">T1!F12</f>
         <v>-1.67056170651018</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">T2!E12</f>
         <v>-1.837326888</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">T2!F12</f>
         <v>-1.87317755624592</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">T3!E12</f>
         <v>-1.93438279</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">T3!F12</f>
         <v>-1.99101858362547</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <f aca="false">T4!E12</f>
         <v>-2.041881112</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <f aca="false">T4!F12</f>
         <v>-2.06808499517015</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <f aca="false">T5!E12</f>
         <v>-2.162342849</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <f aca="false">T5!F12</f>
         <v>-2.12241827315637</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">T1!E13</f>
         <v>-1.795596936</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <f aca="false">T1!F13</f>
         <v>-1.70165213594636</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">T2!E13</f>
         <v>-1.875468643</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">T2!F13</f>
         <v>-1.95559409462921</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">T3!E13</f>
         <v>-1.962277965</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">T3!F13</f>
         <v>-2.10842898088063</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">T4!E13</f>
         <v>-2.057345734</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <f aca="false">T4!F13</f>
         <v>-2.21051551017019</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <f aca="false">T5!E13</f>
         <v>-2.162410049</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false">T5!F13</f>
         <v>-2.28353075840722</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">T1!E14</f>
         <v>-1.763775985</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <f aca="false">T1!F14</f>
         <v>-1.80859955060574</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">T2!E14</f>
         <v>-1.851156524</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">T2!F14</f>
         <v>-1.95580868200843</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">T3!E14</f>
         <v>-1.946909878</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">T3!F14</f>
         <v>-2.04220083094171</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">T4!E14</f>
         <v>-2.052812319</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">T4!F14</f>
         <v>-2.09901186485687</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false">T5!E14</f>
         <v>-2.171273173</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false">T5!F14</f>
         <v>-2.13921403531867</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">T1!E15</f>
         <v>-1.737807802</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <f aca="false">T1!F15</f>
         <v>-1.81498662417728</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">T2!E15</f>
         <v>-1.867099916</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <f aca="false">T2!F15</f>
         <v>-1.89364977198875</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">T3!E15</f>
         <v>-2.006479375</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">T3!F15</f>
         <v>-1.94497492972119</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">T4!E15</f>
         <v>-2.154519139</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false">T4!F15</f>
         <v>-1.98110346125297</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false">T5!E15</f>
         <v>-2.306232204</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false">T5!F15</f>
         <v>-2.00791428631104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">T1!E16</f>
         <v>-1.741174745</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <f aca="false">T1!F16</f>
         <v>-1.70853369903882</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">T2!E16</f>
         <v>-1.85061594</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">T2!F16</f>
         <v>-1.9240172637083</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <f aca="false">T3!E16</f>
         <v>-1.973523354</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">T3!F16</f>
         <v>-2.06044450219973</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">T4!E16</f>
         <v>-2.113682054</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false">T4!F16</f>
         <v>-2.15457802213981</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false">T5!E16</f>
         <v>-2.276738025</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false">T5!F16</f>
         <v>-2.22344541633634</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false">T1!E17</f>
         <v>-1.719151712</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <f aca="false">T1!F17</f>
         <v>-1.97936764533694</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">T2!E17</f>
         <v>-1.775172561</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false">T2!F17</f>
         <v>-2.14563731771776</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <f aca="false">T3!E17</f>
         <v>-1.834518968</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <f aca="false">T3!F17</f>
         <v>-2.2461535711622</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <f aca="false">T4!E17</f>
         <v>-1.897610817</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <f aca="false">T4!F17</f>
         <v>-2.31348185589209</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <f aca="false">T5!E17</f>
         <v>-1.964952908</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <f aca="false">T5!F17</f>
         <v>-2.36172983675686</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <f aca="false">T1!E18</f>
         <v>-1.920996364</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <f aca="false">T1!F18</f>
         <v>-1.85776298549536</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false">T2!E18</f>
         <v>-2.007599636</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">T2!F18</f>
         <v>-2.07361253923155</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <f aca="false">T3!E18</f>
         <v>-2.102420309</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <f aca="false">T3!F18</f>
         <v>-2.21684276490788</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">T4!E18</f>
         <v>-2.207182864</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <f aca="false">T4!F18</f>
         <v>-2.31882428401027</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <f aca="false">T5!E18</f>
         <v>-2.324218951</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <f aca="false">T5!F18</f>
         <v>-2.39513264475028</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <f aca="false">T1!E19</f>
         <v>-1.92683665</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <f aca="false">T1!F19</f>
         <v>-1.89194545412069</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false">T2!E19</f>
         <v>-2.032374812</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">T2!F19</f>
         <v>-2.11167475657005</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false">T3!E19</f>
         <v>-2.15037995</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <f aca="false">T3!F19</f>
         <v>-2.25736189663148</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <f aca="false">T4!E19</f>
         <v>-2.284196975</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <f aca="false">T4!F19</f>
         <v>-2.36103532625996</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <f aca="false">T5!E19</f>
         <v>-2.438728626</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <f aca="false">T5!F19</f>
         <v>-2.43857900167126</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <f aca="false">T1!E20</f>
         <v>-2.146395626</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <f aca="false">T1!F20</f>
         <v>-2.05219097220211</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false">T2!E20</f>
         <v>-2.293943078</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false">T2!F20</f>
         <v>-2.27565184504427</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <f aca="false">T3!E20</f>
         <v>-2.454993163</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <f aca="false">T3!F20</f>
         <v>-2.40869848902696</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">T4!E20</f>
         <v>-2.627601897</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <f aca="false">T4!F20</f>
         <v>-2.4969711952132</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <f aca="false">T5!E20</f>
         <v>-2.802816828</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <f aca="false">T5!F20</f>
         <v>-2.55981624509348</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <f aca="false">T1!E21</f>
         <v>-1.898493531</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <f aca="false">T1!F21</f>
         <v>-1.7335399246773</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">T2!E21</f>
         <v>-2.036291893</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">T2!F21</f>
         <v>-2.08013278442269</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <f aca="false">T3!E21</f>
         <v>-2.186108905</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <f aca="false">T3!F21</f>
         <v>-2.25626820577009</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <f aca="false">T4!E21</f>
         <v>-2.346354612</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <f aca="false">T4!F21</f>
         <v>-2.36287580968185</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <f aca="false">T5!E21</f>
         <v>-2.508759362</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <f aca="false">T5!F21</f>
         <v>-2.43433761122619</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <f aca="false">T1!E22</f>
         <v>-2.275526376</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <f aca="false">T1!F22</f>
         <v>-2.13333457442677</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">T2!E22</f>
         <v>-2.382679961</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <f aca="false">T2!F22</f>
         <v>-2.34303969792459</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <f aca="false">T3!E22</f>
         <v>-2.502708864</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <f aca="false">T3!F22</f>
         <v>-2.48277321773923</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <f aca="false">T4!E22</f>
         <v>-2.639135232</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <f aca="false">T4!F22</f>
         <v>-2.58254875979382</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <f aca="false">T5!E22</f>
         <v>-2.797158962</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <f aca="false">T5!F22</f>
         <v>-2.65736168404928</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <f aca="false">T1!E23</f>
         <v>-1.95530361</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <f aca="false">T1!F23</f>
         <v>-1.87335770551641</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">T2!E23</f>
         <v>-2.041364736</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">T2!F23</f>
         <v>-2.06211321522982</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false">T3!E23</f>
         <v>-2.135535805</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <f aca="false">T3!F23</f>
         <v>-2.18433754041412</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <f aca="false">T4!E23</f>
         <v>-2.239505835</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false">T4!F23</f>
         <v>-2.26993622197398</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false">T5!E23</f>
         <v>-2.355553477</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <f aca="false">T5!F23</f>
         <v>-2.33322680031479</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <f aca="false">T1!E24</f>
         <v>-1.979079888</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <f aca="false">T1!F24</f>
         <v>-1.91772094560339</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false">T2!E24</f>
         <v>-2.052535235</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">T2!F24</f>
         <v>-2.0882755064728</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <f aca="false">T3!E24</f>
         <v>-2.131817085</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">T3!F24</f>
         <v>-2.20894723531849</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <f aca="false">T4!E24</f>
         <v>-2.217930012</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <f aca="false">T4!F24</f>
         <v>-2.29882859869712</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <f aca="false">T5!E24</f>
         <v>-2.312163116</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <f aca="false">T5!F24</f>
         <v>-2.36837066721939</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <f aca="false">T1!E25</f>
         <v>-1.991234347</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <f aca="false">T1!F25</f>
         <v>-1.89659791461998</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">T2!E25</f>
         <v>-2.075138493</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">T2!F25</f>
         <v>-2.06101583479068</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <f aca="false">T3!E25</f>
         <v>-2.166732696</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <f aca="false">T3!F25</f>
         <v>-2.17021062029332</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <f aca="false">T4!E25</f>
         <v>-2.267570135</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <f aca="false">T4!F25</f>
         <v>-2.24800361223248</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <f aca="false">T5!E25</f>
         <v>-2.379727943</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <f aca="false">T5!F25</f>
         <v>-2.30623753182159</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <f aca="false">T1!E26</f>
         <v>-1.980815531</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <f aca="false">T1!F26</f>
         <v>-1.84439376232759</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">T2!E26</f>
         <v>-2.08182403</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <f aca="false">T2!F26</f>
         <v>-2.08594194539909</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <f aca="false">T3!E26</f>
         <v>-2.194193544</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">T3!F26</f>
         <v>-2.22331087770223</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <f aca="false">T4!E26</f>
         <v>-2.320807482</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <f aca="false">T4!F26</f>
         <v>-2.31194286918564</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <f aca="false">T5!E26</f>
         <v>-2.4658087</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <f aca="false">T5!F26</f>
         <v>-2.37386703211583</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <f aca="false">T1!E27</f>
         <v>-2.07352212</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <f aca="false">T1!F27</f>
         <v>-1.96222948813642</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <f aca="false">T2!E27</f>
         <v>-2.162505014</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <f aca="false">T2!F27</f>
         <v>-2.08774545347239</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <f aca="false">T3!E27</f>
         <v>-2.260186157</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <f aca="false">T3!F27</f>
         <v>-2.17140046806132</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <f aca="false">T4!E27</f>
         <v>-2.368452171</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <f aca="false">T4!F27</f>
         <v>-2.23114294302668</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="1" t="n">
         <f aca="false">T5!E27</f>
         <v>-2.489878991</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <f aca="false">T5!F27</f>
         <v>-2.27594395918125</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <f aca="false">T1!E28</f>
         <v>-1.938617485</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <f aca="false">T1!F28</f>
         <v>-2.01729273731131</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false">T2!E28</f>
         <v>-2.007485157</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <f aca="false">T2!F28</f>
         <v>-2.0752818396383</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <f aca="false">T3!E28</f>
         <v>-2.081448687</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <f aca="false">T3!F28</f>
         <v>-2.11945137788548</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <f aca="false">T4!E28</f>
         <v>-2.161322905</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <f aca="false">T4!F28</f>
         <v>-2.15421534756728</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <f aca="false">T5!E28</f>
         <v>-2.248135194</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <f aca="false">T5!F28</f>
         <v>-2.18228905477939</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <f aca="false">T1!E29</f>
         <v>-2.057649253</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <f aca="false">T1!F29</f>
         <v>-1.89028593439647</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <f aca="false">T2!E29</f>
         <v>-2.210141283</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <f aca="false">T2!F29</f>
         <v>-2.17976352075698</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <f aca="false">T3!E29</f>
         <v>-2.378525907</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <f aca="false">T3!F29</f>
         <v>-2.33079634629646</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <f aca="false">T4!E29</f>
         <v>-2.562053794</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <f aca="false">T4!F29</f>
         <v>-2.42353594938584</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <f aca="false">T5!E29</f>
         <v>-2.753182388</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <f aca="false">T5!F29</f>
         <v>-2.48627168473316</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <f aca="false">T1!E30</f>
         <v>-2.540916447</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <f aca="false">T1!F30</f>
         <v>-2.60746693861531</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <f aca="false">T2!E30</f>
         <v>-2.630208534</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <f aca="false">T2!F30</f>
         <v>-2.70421658939643</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <f aca="false">T3!E30</f>
         <v>-2.728262449</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <f aca="false">T3!F30</f>
         <v>-2.77875901744449</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <f aca="false">T4!E30</f>
         <v>-2.836986675</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <f aca="false">T4!F30</f>
         <v>-2.8379532177209</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="1" t="n">
         <f aca="false">T5!E30</f>
         <v>-2.958990322</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <f aca="false">T5!F30</f>
         <v>-2.88609650076876</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <f aca="false">T1!E31</f>
         <v>-2.122652767</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <f aca="false">T1!F31</f>
         <v>-2.22261806541535</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <f aca="false">T2!E31</f>
         <v>-2.200767399</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <f aca="false">T2!F31</f>
         <v>-2.33916431114023</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <f aca="false">T3!E31</f>
         <v>-2.285504923</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <f aca="false">T3!F31</f>
         <v>-2.4222463502756</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <f aca="false">T4!E31</f>
         <v>-2.378093287</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <f aca="false">T4!F31</f>
         <v>-2.48446788902688</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="1" t="n">
         <f aca="false">T5!E31</f>
         <v>-2.480137168</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <f aca="false">T5!F31</f>
         <v>-2.53280870308851</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <f aca="false">T1!E32</f>
         <v>-1.945910946</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <f aca="false">T1!F32</f>
         <v>-1.96164037325483</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <f aca="false">T2!E32</f>
         <v>-2.003983452</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <f aca="false">T2!F32</f>
         <v>-2.05427037918414</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <f aca="false">T3!E32</f>
         <v>-2.065637426</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <f aca="false">T3!F32</f>
         <v>-2.12888537264885</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <f aca="false">T4!E32</f>
         <v>-2.13134383</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <f aca="false">T4!F32</f>
         <v>-2.19027466122572</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="1" t="n">
         <f aca="false">T5!E32</f>
         <v>-2.201673096</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="1" t="n">
         <f aca="false">T5!F32</f>
         <v>-2.24166856597745</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <f aca="false">T1!E33</f>
         <v>-1.846390116</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <f aca="false">T1!F33</f>
         <v>-1.8374281589122</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <f aca="false">T2!E33</f>
         <v>-1.916997167</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <f aca="false">T2!F33</f>
         <v>-1.97561187510955</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <f aca="false">T3!E33</f>
         <v>-1.992970898</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <f aca="false">T3!F33</f>
         <v>-2.07508778644846</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <f aca="false">T4!E33</f>
         <v>-2.075194732</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <f aca="false">T4!F33</f>
         <v>-2.15012174106085</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="1" t="n">
         <f aca="false">T5!E33</f>
         <v>-2.164789953</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="1" t="n">
         <f aca="false">T5!F33</f>
         <v>-2.20873706010602</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <f aca="false">T1!E34</f>
         <v>-1.982817811</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <f aca="false">T1!F34</f>
         <v>-1.91273244462151</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <f aca="false">T2!E34</f>
         <v>-2.059188025</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <f aca="false">T2!F34</f>
         <v>-2.03775930964423</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <f aca="false">T3!E34</f>
         <v>-2.145191532</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <f aca="false">T3!F34</f>
         <v>-2.11569792760228</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <f aca="false">T4!E34</f>
         <v>-2.245267919</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <f aca="false">T4!F34</f>
         <v>-2.16893466043918</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="1" t="n">
         <f aca="false">T5!E34</f>
         <v>-2.370827219</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <f aca="false">T5!F34</f>
         <v>-2.20760661883801</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <f aca="false">T1!E35</f>
         <v>-1.758581109</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <f aca="false">T1!F35</f>
         <v>-1.78002464200096</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <f aca="false">T2!E35</f>
         <v>-1.833917888</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <f aca="false">T2!F35</f>
         <v>-1.91847062828451</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <f aca="false">T3!E35</f>
         <v>-1.915396114</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <f aca="false">T3!F35</f>
         <v>-2.02066834414482</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <f aca="false">T4!E35</f>
         <v>-2.004106674</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <f aca="false">T4!F35</f>
         <v>-2.09920625758977</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="1" t="n">
         <f aca="false">T5!E35</f>
         <v>-2.101459692</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <f aca="false">T5!F35</f>
         <v>-2.16144784692627</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <f aca="false">T1!E36</f>
         <v>-1.92604344</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <f aca="false">T1!F36</f>
         <v>-1.74821516825548</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <f aca="false">T2!E36</f>
         <v>-2.004721704</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <f aca="false">T2!F36</f>
         <v>-1.95704911115715</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <f aca="false">T3!E36</f>
         <v>-2.090122953</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <f aca="false">T3!F36</f>
         <v>-2.08447415868291</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <f aca="false">T4!E36</f>
         <v>-2.183504395</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <f aca="false">T4!F36</f>
         <v>-2.17032822992582</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="1" t="n">
         <f aca="false">T5!E36</f>
         <v>-2.286512605</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <f aca="false">T5!F36</f>
         <v>-2.23210149739702</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <f aca="false">T1!E37</f>
         <v>-1.922926555</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <f aca="false">T1!F37</f>
         <v>-1.90083824569383</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <f aca="false">T2!E37</f>
         <v>-2.017183965</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <f aca="false">T2!F37</f>
         <v>-2.04180002145878</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <f aca="false">T3!E37</f>
         <v>-2.121259265</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <f aca="false">T3!F37</f>
         <v>-2.1451310252729</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <f aca="false">T4!E37</f>
         <v>-2.237438101</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <f aca="false">T4!F37</f>
         <v>-2.22412534275453</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="1" t="n">
         <f aca="false">T5!E37</f>
         <v>-2.368910725</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="1" t="n">
         <f aca="false">T5!F37</f>
         <v>-2.28647476740764</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <f aca="false">T1!E38</f>
         <v>-1.782214448</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <f aca="false">T1!F38</f>
         <v>-1.73300516850478</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false">T2!E38</f>
         <v>-1.843282769</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <f aca="false">T2!F38</f>
         <v>-1.83040406252216</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <f aca="false">T3!E38</f>
         <v>-1.908324387</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <f aca="false">T3!F38</f>
         <v>-1.90329828447177</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <f aca="false">T4!E38</f>
         <v>-1.977892537</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <f aca="false">T4!F38</f>
         <v>-1.95990230816245</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="1" t="n">
         <f aca="false">T5!E38</f>
         <v>-2.052664703</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="1" t="n">
         <f aca="false">T5!F38</f>
         <v>-2.00512799023223</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <f aca="false">T1!E39</f>
         <v>-1.887389565</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <f aca="false">T1!F39</f>
         <v>-1.97847616577885</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <f aca="false">T2!E39</f>
         <v>-1.965016914</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <f aca="false">T2!F39</f>
         <v>-2.10375300481035</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <f aca="false">T3!E39</f>
         <v>-2.049181277</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <f aca="false">T3!F39</f>
         <v>-2.18523233702351</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <f aca="false">T4!E39</f>
         <v>-2.141085705</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <f aca="false">T4!F39</f>
         <v>-2.24246456201238</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="1" t="n">
         <f aca="false">T5!E39</f>
         <v>-2.242299326</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="1" t="n">
         <f aca="false">T5!F39</f>
         <v>-2.28487123881936</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <f aca="false">T1!E40</f>
         <v>-1.92658719</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <f aca="false">T1!F40</f>
         <v>-1.94965097593584</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <f aca="false">T2!E40</f>
         <v>-1.996485131</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <f aca="false">T2!F40</f>
         <v>-2.05246563717636</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <f aca="false">T3!E40</f>
         <v>-2.071638433</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <f aca="false">T3!F40</f>
         <v>-2.12631389544362</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <f aca="false">T4!E40</f>
         <v>-2.152902075</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <f aca="false">T4!F40</f>
         <v>-2.18192562766184</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="1" t="n">
         <f aca="false">T5!E40</f>
         <v>-2.2413583</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="1" t="n">
         <f aca="false">T5!F40</f>
         <v>-2.22531351679795</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <f aca="false">T1!E41</f>
         <v>-1.937738511</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <f aca="false">T1!F41</f>
         <v>-1.93283613941262</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <f aca="false">T2!E41</f>
         <v>-2.014467034</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <f aca="false">T2!F41</f>
         <v>-2.0640751400201</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <f aca="false">T3!E41</f>
         <v>-2.097575757</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <f aca="false">T3!F41</f>
         <v>-2.15325428034215</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <f aca="false">T4!E41</f>
         <v>-2.188222768</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <f aca="false">T4!F41</f>
         <v>-2.21780033005333</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="1" t="n">
         <f aca="false">T5!E41</f>
         <v>-2.287913228</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="1" t="n">
         <f aca="false">T5!F41</f>
         <v>-2.26668095972322</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <f aca="false">T1!E42</f>
         <v>-2.010402168</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <f aca="false">T1!F42</f>
         <v>-1.92511070665188</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <f aca="false">T2!E42</f>
         <v>-2.103999198</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <f aca="false">T2!F42</f>
         <v>-2.13369349980303</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <f aca="false">T3!E42</f>
         <v>-2.207269842</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <f aca="false">T3!F42</f>
         <v>-2.25266381234935</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <f aca="false">T4!E42</f>
         <v>-2.322446666</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <f aca="false">T4!F42</f>
         <v>-2.32955937075263</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="1" t="n">
         <f aca="false">T5!E42</f>
         <v>-2.452637164</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="1" t="n">
         <f aca="false">T5!F42</f>
         <v>-2.38334657605568</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <f aca="false">T1!E43</f>
         <v>-1.754672117</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <f aca="false">T1!F43</f>
         <v>-1.73624033451731</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <f aca="false">T2!E43</f>
         <v>-1.832684078</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <f aca="false">T2!F43</f>
         <v>-1.84920915164921</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <f aca="false">T3!E43</f>
         <v>-1.917300788</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <f aca="false">T3!F43</f>
         <v>-1.92490189501572</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <f aca="false">T4!E43</f>
         <v>-2.009744915</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <f aca="false">T4!F43</f>
         <v>-1.9791556187027</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="1" t="n">
         <f aca="false">T5!E43</f>
         <v>-2.111613597</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="1" t="n">
         <f aca="false">T5!F43</f>
         <v>-2.01994900496335</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <f aca="false">T1!E44</f>
         <v>-1.967732753</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <f aca="false">T1!F44</f>
         <v>-1.80556630193907</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <f aca="false">T2!E44</f>
         <v>-2.048849703</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <f aca="false">T2!F44</f>
         <v>-1.97811237096832</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <f aca="false">T3!E44</f>
         <v>-2.137132128</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <f aca="false">T3!F44</f>
         <v>-2.09116299754295</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <f aca="false">T4!E44</f>
         <v>-2.2339697</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <f aca="false">T4!F44</f>
         <v>-2.17096501564927</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="1" t="n">
         <f aca="false">T5!E44</f>
         <v>-2.341200204</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="1" t="n">
         <f aca="false">T5!F44</f>
         <v>-2.23030572690571</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <f aca="false">T1!E45</f>
         <v>-2.0057436</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <f aca="false">T1!F45</f>
         <v>-1.9456696606438</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <f aca="false">T2!E45</f>
         <v>-2.101251858</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <f aca="false">T2!F45</f>
         <v>-2.1370189442117</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <f aca="false">T3!E45</f>
         <v>-2.206854522</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <f aca="false">T3!F45</f>
         <v>-2.24821721494839</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <f aca="false">T4!E45</f>
         <v>-2.324940325</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <f aca="false">T4!F45</f>
         <v>-2.3209034062804</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="1" t="n">
         <f aca="false">T5!E45</f>
         <v>-2.458861125</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="1" t="n">
         <f aca="false">T5!F45</f>
         <v>-2.37213182129266</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <f aca="false">T1!E46</f>
         <v>-1.768747205</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <f aca="false">T1!F46</f>
         <v>-1.80579873416675</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <f aca="false">T2!E46</f>
         <v>-1.860056545</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <f aca="false">T2!F46</f>
         <v>-1.94319205432742</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <f aca="false">T3!E46</f>
         <v>-1.970005642</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <f aca="false">T3!F46</f>
         <v>-2.03027103371538</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="1" t="n">
         <f aca="false">T4!E46</f>
         <v>-2.104363624</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <f aca="false">T4!F46</f>
         <v>-2.09039637145063</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="1" t="n">
         <f aca="false">T5!E46</f>
         <v>-2.272392163</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="1" t="n">
         <f aca="false">T5!F46</f>
         <v>-2.13440529980319</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <f aca="false">T1!E47</f>
         <v>-2.128785799</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <f aca="false">T1!F47</f>
         <v>-2.04462243498012</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <f aca="false">T2!E47</f>
         <v>-2.174191687</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <f aca="false">T2!F47</f>
         <v>-2.16824896999208</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <f aca="false">T3!E47</f>
         <v>-2.221757743</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <f aca="false">T3!F47</f>
         <v>-2.24965637190964</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="1" t="n">
         <f aca="false">T4!E47</f>
         <v>-2.271699816</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <f aca="false">T4!F47</f>
         <v>-2.30731752962417</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="1" t="n">
         <f aca="false">T5!E47</f>
         <v>-2.324267819</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="1" t="n">
         <f aca="false">T5!F47</f>
         <v>-2.35029984061409</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <f aca="false">T1!E48</f>
         <v>-1.949454123</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <f aca="false">T1!F48</f>
         <v>-1.6550819745765</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <f aca="false">T2!E48</f>
         <v>-2.016223358</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <f aca="false">T2!F48</f>
         <v>-1.78329256067624</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <f aca="false">T3!E48</f>
         <v>-2.087771726</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <f aca="false">T3!F48</f>
         <v>-1.8830900406132</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="1" t="n">
         <f aca="false">T4!E48</f>
         <v>-2.164836485</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <f aca="false">T4!F48</f>
         <v>-1.96297719203668</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="1" t="n">
         <f aca="false">T5!E48</f>
         <v>-2.248339863</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="1" t="n">
         <f aca="false">T5!F48</f>
         <v>-2.02837235540757</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <f aca="false">T1!E49</f>
         <v>-2.018109917</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <f aca="false">T1!F49</f>
         <v>-1.90536724196404</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <f aca="false">T2!E49</f>
         <v>-2.042955287</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <f aca="false">T2!F49</f>
         <v>-2.06907350574836</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <f aca="false">T3!E49</f>
         <v>-2.068433711</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <f aca="false">T3!F49</f>
         <v>-2.1772975583921</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="1" t="n">
         <f aca="false">T4!E49</f>
         <v>-2.094578294</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <f aca="false">T4!F49</f>
         <v>-2.25415805756539</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49" s="1" t="n">
         <f aca="false">T5!E49</f>
         <v>-2.12142481</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="1" t="n">
         <f aca="false">T5!F49</f>
         <v>-2.31156306715297</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <f aca="false">T1!E50</f>
         <v>-2.057872475</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <f aca="false">T1!F50</f>
         <v>-2.04528056052707</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <f aca="false">T2!E50</f>
         <v>-2.125765205</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <f aca="false">T2!F50</f>
         <v>-2.14405717531525</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <f aca="false">T3!E50</f>
         <v>-2.198605285</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <f aca="false">T3!F50</f>
         <v>-2.21964723757214</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="1" t="n">
         <f aca="false">T4!E50</f>
         <v>-2.277170814</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <f aca="false">T4!F50</f>
         <v>-2.27935754983206</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="1" t="n">
         <f aca="false">T5!E50</f>
         <v>-2.362439243</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="1" t="n">
         <f aca="false">T5!F50</f>
         <v>-2.32771637835947</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <f aca="false">T1!E51</f>
         <v>-1.931196241</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <f aca="false">T1!F51</f>
         <v>-1.76883170423396</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <f aca="false">T2!E51</f>
         <v>-2.021381748</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <f aca="false">T2!F51</f>
         <v>-2.02456926365067</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <f aca="false">T3!E51</f>
         <v>-2.12051423</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <f aca="false">T3!F51</f>
         <v>-2.17039548935715</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="1" t="n">
         <f aca="false">T4!E51</f>
         <v>-2.230566377</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <f aca="false">T4!F51</f>
         <v>-2.26463397447885</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51" s="1" t="n">
         <f aca="false">T5!E51</f>
         <v>-2.354245076</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="1" t="n">
         <f aca="false">T5!F51</f>
         <v>-2.33054511253871</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <f aca="false">T1!E52</f>
         <v>-1.971582918</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <f aca="false">T1!F52</f>
         <v>-1.9053457655088</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <f aca="false">T2!E52</f>
         <v>-2.069474111</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <f aca="false">T2!F52</f>
         <v>-2.13470375688102</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <f aca="false">T3!E52</f>
         <v>-2.177998271</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <f aca="false">T3!F52</f>
         <v>-2.26220065784443</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="1" t="n">
         <f aca="false">T4!E52</f>
         <v>-2.299749989</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="1" t="n">
         <f aca="false">T4!F52</f>
         <v>-2.34336292157361</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="1" t="n">
         <f aca="false">T5!E52</f>
         <v>-2.438407226</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="1" t="n">
         <f aca="false">T5!F52</f>
         <v>-2.39956530096375</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <f aca="false">T1!E53</f>
         <v>-1.963245649</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <f aca="false">T1!F53</f>
         <v>-1.86062302233125</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <f aca="false">T2!E53</f>
         <v>-2.025536147</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <f aca="false">T2!F53</f>
         <v>-2.01869306185961</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <f aca="false">T3!E53</f>
         <v>-2.091966023</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <f aca="false">T3!F53</f>
         <v>-2.13257081053323</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53" s="1" t="n">
         <f aca="false">T4!E53</f>
         <v>-2.163124831</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <f aca="false">T4!F53</f>
         <v>-2.21851586391277</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="1" t="n">
         <f aca="false">T5!E53</f>
         <v>-2.239737804</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="1" t="n">
         <f aca="false">T5!F53</f>
         <v>-2.28568283764448</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <f aca="false">T1!E54</f>
         <v>-1.826848159</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <f aca="false">T1!F54</f>
         <v>-1.81473444815416</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <f aca="false">T2!E54</f>
         <v>-1.864706362</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <f aca="false">T2!F54</f>
         <v>-1.90912484999304</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <f aca="false">T3!E54</f>
         <v>-1.904054396</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <f aca="false">T3!F54</f>
         <v>-1.98060777513617</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="1" t="n">
         <f aca="false">T4!E54</f>
         <v>-1.945014339</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="1" t="n">
         <f aca="false">T4!F54</f>
         <v>-2.0366197827687</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="I54" s="1" t="n">
         <f aca="false">T5!E54</f>
         <v>-1.98772392</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="1" t="n">
         <f aca="false">T5!F54</f>
         <v>-2.08169286253172</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <f aca="false">T1!E55</f>
         <v>-1.662294075</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <f aca="false">T1!F55</f>
         <v>-1.77443389590258</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <f aca="false">T2!E55</f>
         <v>-1.745925209</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <f aca="false">T2!F55</f>
         <v>-1.91987760429667</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <f aca="false">T3!E55</f>
         <v>-1.837194123</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <f aca="false">T3!F55</f>
         <v>-2.01564757164261</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="1" t="n">
         <f aca="false">T4!E55</f>
         <v>-1.93763739</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="1" t="n">
         <f aca="false">T4!F55</f>
         <v>-2.08347961717076</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="I55" s="1" t="n">
         <f aca="false">T5!E55</f>
         <v>-2.049307674</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="1" t="n">
         <f aca="false">T5!F55</f>
         <v>-2.13404265641127</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <f aca="false">T1!E56</f>
         <v>-1.58291011</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <f aca="false">T1!F56</f>
         <v>-1.76071599995371</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <f aca="false">T2!E56</f>
         <v>-1.72793054</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <f aca="false">T2!F56</f>
         <v>-1.96510260508115</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <f aca="false">T3!E56</f>
         <v>-1.886845252</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <f aca="false">T3!F56</f>
         <v>-2.08098663321604</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="1" t="n">
         <f aca="false">T4!E56</f>
         <v>-2.058616189</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="1" t="n">
         <f aca="false">T4!F56</f>
         <v>-2.15562179475991</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="1" t="n">
         <f aca="false">T5!E56</f>
         <v>-2.236635789</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="J56" s="1" t="n">
         <f aca="false">T5!F56</f>
         <v>-2.20770420371618</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <f aca="false">T1!E57</f>
         <v>-1.728812614</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <f aca="false">T1!F57</f>
         <v>-1.8020581656322</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <f aca="false">T2!E57</f>
         <v>-1.847036501</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <f aca="false">T2!F57</f>
         <v>-2.00481773160713</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <f aca="false">T3!E57</f>
         <v>-1.981134989</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <f aca="false">T3!F57</f>
         <v>-2.12320045113569</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="1" t="n">
         <f aca="false">T4!E57</f>
         <v>-2.136042295</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="1" t="n">
         <f aca="false">T4!F57</f>
         <v>-2.20080394331759</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="1" t="n">
         <f aca="false">T5!E57</f>
         <v>-2.319424092</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="1" t="n">
         <f aca="false">T5!F57</f>
         <v>-2.25560308530211</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <f aca="false">T1!E58</f>
         <v>-1.71085632</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <f aca="false">T1!F58</f>
         <v>-1.84880256670742</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <f aca="false">T2!E58</f>
         <v>-1.77949492</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <f aca="false">T2!F58</f>
         <v>-1.93656963678188</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <f aca="false">T3!E58</f>
         <v>-1.853194274</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <f aca="false">T3!F58</f>
         <v>-2.00220175955036</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="1" t="n">
         <f aca="false">T4!E58</f>
         <v>-1.932760472</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="1" t="n">
         <f aca="false">T4!F58</f>
         <v>-2.0531350724889</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="I58" s="1" t="n">
         <f aca="false">T5!E58</f>
         <v>-2.019208993</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="J58" s="1" t="n">
         <f aca="false">T5!F58</f>
         <v>-2.09380993877705</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <f aca="false">T1!E59</f>
         <v>-1.8272902</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <f aca="false">T1!F59</f>
         <v>-1.71279202033235</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <f aca="false">T2!E59</f>
         <v>-1.856573279</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <f aca="false">T2!F59</f>
         <v>-1.74686591902898</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <f aca="false">T3!E59</f>
         <v>-1.886739793</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <f aca="false">T3!F59</f>
         <v>-1.77587317940268</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="1" t="n">
         <f aca="false">T4!E59</f>
         <v>-1.917844706</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="1" t="n">
         <f aca="false">T4!F59</f>
         <v>-1.80086563299673</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="I59" s="1" t="n">
         <f aca="false">T5!E59</f>
         <v>-1.949948281</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="J59" s="1" t="n">
         <f aca="false">T5!F59</f>
         <v>-1.82262295979217</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <f aca="false">T1!E60</f>
         <v>-1.60556949</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <f aca="false">T1!F60</f>
         <v>-1.57026288173321</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <f aca="false">T2!E60</f>
         <v>-1.725120829</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <f aca="false">T2!F60</f>
         <v>-1.78046444795985</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <f aca="false">T3!E60</f>
         <v>-1.853947659</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <f aca="false">T3!F60</f>
         <v>-1.91168382470741</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="1" t="n">
         <f aca="false">T4!E60</f>
         <v>-1.991918118</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="1" t="n">
         <f aca="false">T4!F60</f>
         <v>-2.00139584493357</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="I60" s="1" t="n">
         <f aca="false">T5!E60</f>
         <v>-2.137130876</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="J60" s="1" t="n">
         <f aca="false">T5!F60</f>
         <v>-2.06660572255755</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <f aca="false">T1!E61</f>
         <v>-1.84321404</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <f aca="false">T1!F61</f>
         <v>-1.76948774591195</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <f aca="false">T2!E61</f>
         <v>-1.955571116</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <f aca="false">T2!F61</f>
         <v>-1.98615371593916</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <f aca="false">T3!E61</f>
         <v>-2.082169259</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <f aca="false">T3!F61</f>
         <v>-2.11668559118852</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="1" t="n">
         <f aca="false">T4!E61</f>
         <v>-2.227149752</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="1" t="n">
         <f aca="false">T4!F61</f>
         <v>-2.20392959787414</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="I61" s="1" t="n">
         <f aca="false">T5!E61</f>
         <v>-2.396772703</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="J61" s="1" t="n">
         <f aca="false">T5!F61</f>
         <v>-2.26635644057126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <f aca="false">T1!E62</f>
         <v>-1.917007198</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <f aca="false">T1!F62</f>
         <v>-2.01372759397639</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <f aca="false">T2!E62</f>
         <v>-1.98846996</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <f aca="false">T2!F62</f>
         <v>-2.09847754346856</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <f aca="false">T3!E62</f>
         <v>-2.065435407</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <f aca="false">T3!F62</f>
         <v>-2.16260255666815</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="1" t="n">
         <f aca="false">T4!E62</f>
         <v>-2.148822188</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="1" t="n">
         <f aca="false">T4!F62</f>
         <v>-2.21281509762214</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62" s="1" t="n">
         <f aca="false">T5!E62</f>
         <v>-2.239800124</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="J62" s="1" t="n">
         <f aca="false">T5!F62</f>
         <v>-2.25319952089047</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <f aca="false">T1!E63</f>
         <v>-1.750268166</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <f aca="false">T1!F63</f>
         <v>-1.88160002295796</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <f aca="false">T2!E63</f>
         <v>-1.810424143</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <f aca="false">T2!F63</f>
         <v>-1.94770421361973</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <f aca="false">T3!E63</f>
         <v>-1.874431799</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <f aca="false">T3!F63</f>
         <v>-2.00281390511289</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63" s="1" t="n">
         <f aca="false">T4!E63</f>
         <v>-1.942818313</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="1" t="n">
         <f aca="false">T4!F63</f>
         <v>-2.04946204885311</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63" s="1" t="n">
         <f aca="false">T5!E63</f>
         <v>-2.016227098</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="J63" s="1" t="n">
         <f aca="false">T5!F63</f>
         <v>-2.0894578578206</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <f aca="false">T1!E64</f>
         <v>-2.008225676</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <f aca="false">T1!F64</f>
         <v>-2.12952360292522</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <f aca="false">T2!E64</f>
         <v>-2.077720024</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <f aca="false">T2!F64</f>
         <v>-2.20779795665556</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <f aca="false">T3!E64</f>
         <v>-2.152406936</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <f aca="false">T3!F64</f>
         <v>-2.26770283752267</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="1" t="n">
         <f aca="false">T4!E64</f>
         <v>-2.233125497</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="1" t="n">
         <f aca="false">T4!F64</f>
         <v>-2.31502557274154</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="I64" s="1" t="n">
         <f aca="false">T5!E64</f>
         <v>-2.320936199</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="J64" s="1" t="n">
         <f aca="false">T5!F64</f>
         <v>-2.35335344225163</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <f aca="false">T1!E65</f>
         <v>-1.859198128</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <f aca="false">T1!F65</f>
         <v>-1.90331236497659</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <f aca="false">T2!E65</f>
         <v>-1.943080454</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <f aca="false">T2!F65</f>
         <v>-2.05308684437233</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <f aca="false">T3!E65</f>
         <v>-2.034648651</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <f aca="false">T3!F65</f>
         <v>-2.14564950501738</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="1" t="n">
         <f aca="false">T4!E65</f>
         <v>-2.135454567</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="1" t="n">
         <f aca="false">T4!F65</f>
         <v>-2.20852472536205</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="I65" s="1" t="n">
         <f aca="false">T5!E65</f>
         <v>-2.247573371</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="J65" s="1" t="n">
         <f aca="false">T5!F65</f>
         <v>-2.25402091316565</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <f aca="false">T1!E66</f>
         <v>-2.070309063</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <f aca="false">T1!F66</f>
         <v>-1.99792626624776</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <f aca="false">T2!E66</f>
         <v>-2.111509591</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <f aca="false">T2!F66</f>
         <v>-2.25476136703358</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <f aca="false">T3!E66</f>
         <v>-2.154480817</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <f aca="false">T3!F66</f>
         <v>-2.38235266088691</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="1" t="n">
         <f aca="false">T4!E66</f>
         <v>-2.199381804</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="1" t="n">
         <f aca="false">T4!F66</f>
         <v>-2.45864508206812</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="I66" s="1" t="n">
         <f aca="false">T5!E66</f>
         <v>-2.246394059</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="J66" s="1" t="n">
         <f aca="false">T5!F66</f>
         <v>-2.50939791228263</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <f aca="false">T1!E67</f>
         <v>-1.90107893</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <f aca="false">T1!F67</f>
         <v>-1.91769702451186</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <f aca="false">T2!E67</f>
         <v>-2.088854837</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <f aca="false">T2!F67</f>
         <v>-2.21335514553798</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <f aca="false">T3!E67</f>
         <v>-2.299897817</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <f aca="false">T3!F67</f>
         <v>-2.35760002073833</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="1" t="n">
         <f aca="false">T4!E67</f>
         <v>-2.531573108</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="1" t="n">
         <f aca="false">T4!F67</f>
         <v>-2.44303344782885</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="I67" s="1" t="n">
         <f aca="false">T5!E67</f>
         <v>-2.761040743</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="J67" s="1" t="n">
         <f aca="false">T5!F67</f>
         <v>-2.49953247768405</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <f aca="false">T1!E68</f>
         <v>-1.930565568</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <f aca="false">T1!F68</f>
         <v>-1.88671716032395</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <f aca="false">T2!E68</f>
         <v>-2.10278408</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <f aca="false">T2!F68</f>
         <v>-2.23517236408998</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <f aca="false">T3!E68</f>
         <v>-2.294606598</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <f aca="false">T3!F68</f>
         <v>-2.41278416512892</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="1" t="n">
         <f aca="false">T4!E68</f>
         <v>-2.504615097</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="1" t="n">
         <f aca="false">T4!F68</f>
         <v>-2.52045946621151</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68" s="1" t="n">
         <f aca="false">T5!E68</f>
         <v>-2.719197283</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68" s="1" t="n">
         <f aca="false">T5!F68</f>
         <v>-2.59271088149084</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <f aca="false">T1!E69</f>
         <v>-1.875797859</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <f aca="false">T1!F69</f>
         <v>-1.86213362202404</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <f aca="false">T2!E69</f>
         <v>-1.988969118</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <f aca="false">T2!F69</f>
         <v>-2.12401414731464</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <f aca="false">T3!E69</f>
         <v>-2.116602164</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <f aca="false">T3!F69</f>
         <v>-2.27174156090002</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69" s="1" t="n">
         <f aca="false">T4!E69</f>
         <v>-2.262942113</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="1" t="n">
         <f aca="false">T4!F69</f>
         <v>-2.36659840035601</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69" s="1" t="n">
         <f aca="false">T5!E69</f>
         <v>-2.434430137</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="J69" s="1" t="n">
         <f aca="false">T5!F69</f>
         <v>-2.43265915817941</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <f aca="false">T1!E70</f>
         <v>-1.956057308</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <f aca="false">T1!F70</f>
         <v>-1.91250917480532</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <f aca="false">T2!E70</f>
         <v>-2.036446309</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <f aca="false">T2!F70</f>
         <v>-2.11148397558973</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <f aca="false">T3!E70</f>
         <v>-2.123867096</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <f aca="false">T3!F70</f>
         <v>-2.24265658143919</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="1" t="n">
         <f aca="false">T4!E70</f>
         <v>-2.21966879</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="1" t="n">
         <f aca="false">T4!F70</f>
         <v>-2.33563823903034</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="I70" s="1" t="n">
         <f aca="false">T5!E70</f>
         <v>-2.325630372</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="J70" s="1" t="n">
         <f aca="false">T5!F70</f>
         <v>-2.40498825650855</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <f aca="false">T1!E71</f>
         <v>-2.052268324</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <f aca="false">T1!F71</f>
         <v>-2.01949434917543</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <f aca="false">T2!E71</f>
         <v>-2.132178279</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <f aca="false">T2!F71</f>
         <v>-2.17768308154421</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <f aca="false">T3!E71</f>
         <v>-2.219032788</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <f aca="false">T3!F71</f>
         <v>-2.2839998675734</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="1" t="n">
         <f aca="false">T4!E71</f>
         <v>-2.314154759</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="1" t="n">
         <f aca="false">T4!F71</f>
         <v>-2.3603650421979</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="I71" s="1" t="n">
         <f aca="false">T5!E71</f>
         <v>-2.419285289</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="J71" s="1" t="n">
         <f aca="false">T5!F71</f>
         <v>-2.41787283220682</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <f aca="false">T1!E72</f>
         <v>-2.023642735</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <f aca="false">T1!F72</f>
         <v>-1.98384891670007</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <f aca="false">T2!E72</f>
         <v>-2.14341734</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <f aca="false">T2!F72</f>
         <v>-2.21370060353282</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <f aca="false">T3!E72</f>
         <v>-2.279515165</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <f aca="false">T3!F72</f>
         <v>-2.34576231674893</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72" s="1" t="n">
         <f aca="false">T4!E72</f>
         <v>-2.437098031</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="1" t="n">
         <f aca="false">T4!F72</f>
         <v>-2.43149423279903</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="I72" s="1" t="n">
         <f aca="false">T5!E72</f>
         <v>-2.624244527</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="J72" s="1" t="n">
         <f aca="false">T5!F72</f>
         <v>-2.49163808867446</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <f aca="false">T1!E73</f>
         <v>-2.315824463</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <f aca="false">T1!F73</f>
         <v>-2.15802686767681</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <f aca="false">T2!E73</f>
         <v>-2.384136967</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <f aca="false">T2!F73</f>
         <v>-2.31651933430194</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <f aca="false">T3!E73</f>
         <v>-2.457460474</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <f aca="false">T3!F73</f>
         <v>-2.42288763778963</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="1" t="n">
         <f aca="false">T4!E73</f>
         <v>-2.536588749</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="1" t="n">
         <f aca="false">T4!F73</f>
         <v>-2.49921407543004</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="I73" s="1" t="n">
         <f aca="false">T5!E73</f>
         <v>-2.622520511</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="J73" s="1" t="n">
         <f aca="false">T5!F73</f>
         <v>-2.55665083147481</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <f aca="false">T1!E74</f>
         <v>-2.002195749</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <f aca="false">T1!F74</f>
         <v>-1.88261961859065</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <f aca="false">T2!E74</f>
         <v>-2.065699438</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <f aca="false">T2!F74</f>
         <v>-1.98496500641541</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <f aca="false">T3!E74</f>
         <v>-2.137142095</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="1" t="n">
         <f aca="false">T3!F74</f>
         <v>-2.06167308295892</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74" s="1" t="n">
         <f aca="false">T4!E74</f>
         <v>-2.218020642</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="1" t="n">
         <f aca="false">T4!F74</f>
         <v>-2.12130464839541</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="I74" s="1" t="n">
         <f aca="false">T5!E74</f>
         <v>-2.310337032</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="J74" s="1" t="n">
         <f aca="false">T5!F74</f>
         <v>-2.16899110487868</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <f aca="false">T1!E75</f>
         <v>-1.915786135</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <f aca="false">T1!F75</f>
         <v>-1.96373684848537</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <f aca="false">T2!E75</f>
         <v>-1.957950923</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <f aca="false">T2!F75</f>
         <v>-2.00002766346444</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="1" t="n">
         <f aca="false">T3!E75</f>
         <v>-2.001972143</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="1" t="n">
         <f aca="false">T3!F75</f>
         <v>-2.03116611978934</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="1" t="n">
         <f aca="false">T4!E75</f>
         <v>-2.048020824</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="1" t="n">
         <f aca="false">T4!F75</f>
         <v>-2.05817688157046</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="I75" s="1" t="n">
         <f aca="false">T5!E75</f>
         <v>-2.096292778</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="J75" s="1" t="n">
         <f aca="false">T5!F75</f>
         <v>-2.08182941917319</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <f aca="false">T1!E76</f>
         <v>-1.535419298</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <f aca="false">T1!F76</f>
         <v>-1.6286526890217</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <f aca="false">T2!E76</f>
         <v>-1.595766185</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <f aca="false">T2!F76</f>
         <v>-1.71512311724678</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <f aca="false">T3!E76</f>
         <v>-1.659990034</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="1" t="n">
         <f aca="false">T3!F76</f>
         <v>-1.78301584892212</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="1" t="n">
         <f aca="false">T4!E76</f>
         <v>-1.728623401</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="1" t="n">
         <f aca="false">T4!F76</f>
         <v>-1.83773739032293</v>
       </c>
-      <c r="I76" s="0" t="n">
+      <c r="I76" s="1" t="n">
         <f aca="false">T5!E76</f>
         <v>-1.802316721</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="J76" s="1" t="n">
         <f aca="false">T5!F76</f>
         <v>-1.88278131593669</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <f aca="false">T1!E77</f>
         <v>-1.770901517</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <f aca="false">T1!F77</f>
         <v>-1.63742861483178</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <f aca="false">T2!E77</f>
         <v>-1.85058191</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <f aca="false">T2!F77</f>
         <v>-1.82346416115646</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <f aca="false">T3!E77</f>
         <v>-1.937165267</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="1" t="n">
         <f aca="false">T3!F77</f>
         <v>-1.94050499778537</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77" s="1" t="n">
         <f aca="false">T4!E77</f>
         <v>-2.031962065</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="1" t="n">
         <f aca="false">T4!F77</f>
         <v>-2.0209292381267</v>
       </c>
-      <c r="I77" s="0" t="n">
+      <c r="I77" s="1" t="n">
         <f aca="false">T5!E77</f>
         <v>-2.136695471</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="J77" s="1" t="n">
         <f aca="false">T5!F77</f>
         <v>-2.07959580469412</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <f aca="false">T1!E78</f>
         <v>-1.663646758</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <f aca="false">T1!F78</f>
         <v>-1.68088653355459</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <f aca="false">T2!E78</f>
         <v>-1.772040661</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <f aca="false">T2!F78</f>
         <v>-1.88737743845913</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <f aca="false">T3!E78</f>
         <v>-1.893628416</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="1" t="n">
         <f aca="false">T3!F78</f>
         <v>-2.02292890712177</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78" s="1" t="n">
         <f aca="false">T4!E78</f>
         <v>-2.032072957</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="1" t="n">
         <f aca="false">T4!F78</f>
         <v>-2.11873876926214</v>
       </c>
-      <c r="I78" s="0" t="n">
+      <c r="I78" s="1" t="n">
         <f aca="false">T5!E78</f>
         <v>-2.192812279</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="J78" s="1" t="n">
         <f aca="false">T5!F78</f>
         <v>-2.19005009831163</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <f aca="false">T1!E79</f>
         <v>-1.672458906</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <f aca="false">T1!F79</f>
         <v>-1.75192740735011</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <f aca="false">T2!E79</f>
         <v>-1.789194597</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <f aca="false">T2!F79</f>
         <v>-1.93420605235796</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <f aca="false">T3!E79</f>
         <v>-1.921381015</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="1" t="n">
         <f aca="false">T3!F79</f>
         <v>-2.04274278364818</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="1" t="n">
         <f aca="false">T4!E79</f>
         <v>-2.073741204</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="1" t="n">
         <f aca="false">T4!F79</f>
         <v>-2.11475802387057</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="I79" s="1" t="n">
         <f aca="false">T5!E79</f>
         <v>-2.253561448</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="J79" s="1" t="n">
         <f aca="false">T5!F79</f>
         <v>-2.16603045472157</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <f aca="false">T1!E80</f>
         <v>-1.810400387</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <f aca="false">T1!F80</f>
         <v>-1.73410497278658</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <f aca="false">T2!E80</f>
         <v>-1.931067443</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <f aca="false">T2!F80</f>
         <v>-1.94407087302967</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
         <f aca="false">T3!E80</f>
         <v>-2.068319126</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="1" t="n">
         <f aca="false">T3!F80</f>
         <v>-2.06459135137111</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="1" t="n">
         <f aca="false">T4!E80</f>
         <v>-2.227451821</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="1" t="n">
         <f aca="false">T4!F80</f>
         <v>-2.14278581467221</v>
       </c>
-      <c r="I80" s="0" t="n">
+      <c r="I80" s="1" t="n">
         <f aca="false">T5!E80</f>
         <v>-2.416790162</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="J80" s="1" t="n">
         <f aca="false">T5!F80</f>
         <v>-2.19762054324567</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <f aca="false">T1!E81</f>
         <v>-1.700175922</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <f aca="false">T1!F81</f>
         <v>-1.66984736878521</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <f aca="false">T2!E81</f>
         <v>-1.774772394</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <f aca="false">T2!F81</f>
         <v>-1.85144212464423</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <f aca="false">T3!E81</f>
         <v>-1.860751293</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="1" t="n">
         <f aca="false">T3!F81</f>
         <v>-1.96929298777213</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81" s="1" t="n">
         <f aca="false">T4!E81</f>
         <v>-1.960752557</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="1" t="n">
         <f aca="false">T4!F81</f>
         <v>-2.05195217355591</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="I81" s="1" t="n">
         <f aca="false">T5!E81</f>
         <v>-2.078543993</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="J81" s="1" t="n">
         <f aca="false">T5!F81</f>
         <v>-2.11313479211344</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <f aca="false">T1!E82</f>
         <v>-2.048458007</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <f aca="false">T1!F82</f>
         <v>-2.11584148686213</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <f aca="false">T2!E82</f>
         <v>-2.125581398</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <f aca="false">T2!F82</f>
         <v>-2.23989327890194</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="1" t="n">
         <f aca="false">T3!E82</f>
         <v>-2.209153625</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="1" t="n">
         <f aca="false">T3!F82</f>
         <v>-2.33018307130855</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82" s="1" t="n">
         <f aca="false">T4!E82</f>
         <v>-2.300352376</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="1" t="n">
         <f aca="false">T4!F82</f>
         <v>-2.39884294590318</v>
       </c>
-      <c r="I82" s="0" t="n">
+      <c r="I82" s="1" t="n">
         <f aca="false">T5!E82</f>
         <v>-2.400710661</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="J82" s="1" t="n">
         <f aca="false">T5!F82</f>
         <v>-2.45281426522681</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <f aca="false">T1!E83</f>
         <v>-1.85358197</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <f aca="false">T1!F83</f>
         <v>-1.77692593408387</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <f aca="false">T2!E83</f>
         <v>-1.938373358</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <f aca="false">T2!F83</f>
         <v>-1.93856192914601</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <f aca="false">T3!E83</f>
         <v>-2.03102604</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="1" t="n">
         <f aca="false">T3!F83</f>
         <v>-2.0482214522957</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="1" t="n">
         <f aca="false">T4!E83</f>
         <v>-2.133148065</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="1" t="n">
         <f aca="false">T4!F83</f>
         <v>-2.12750252477202</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="I83" s="1" t="n">
         <f aca="false">T5!E83</f>
         <v>-2.246897679</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="J83" s="1" t="n">
         <f aca="false">T5!F83</f>
         <v>-2.18749290726627</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <f aca="false">T1!E84</f>
         <v>-1.971443465</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <f aca="false">T1!F84</f>
         <v>-1.93365490140416</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <f aca="false">T2!E84</f>
         <v>-2.121351925</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <f aca="false">T2!F84</f>
         <v>-2.2081592541703</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <f aca="false">T3!E84</f>
         <v>-2.287696108</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="1" t="n">
         <f aca="false">T3!F84</f>
         <v>-2.33893698317388</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84" s="1" t="n">
         <f aca="false">T4!E84</f>
         <v>-2.470878225</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="1" t="n">
         <f aca="false">T4!F84</f>
         <v>-2.41544802986724</v>
       </c>
-      <c r="I84" s="0" t="n">
+      <c r="I84" s="1" t="n">
         <f aca="false">T5!E84</f>
         <v>-2.666506361</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="J84" s="1" t="n">
         <f aca="false">T5!F84</f>
         <v>-2.46566591296151</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <f aca="false">T1!E85</f>
         <v>-2.049961737</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <f aca="false">T1!F85</f>
         <v>-2.01882224249333</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <f aca="false">T2!E85</f>
         <v>-2.16077997</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <f aca="false">T2!F85</f>
         <v>-2.1798584100225</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <f aca="false">T3!E85</f>
         <v>-2.28542731</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <f aca="false">T3!F85</f>
         <v>-2.2833006297896</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="1" t="n">
         <f aca="false">T4!E85</f>
         <v>-2.427854042</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="1" t="n">
         <f aca="false">T4!F85</f>
         <v>-2.35535914355417</v>
       </c>
-      <c r="I85" s="0" t="n">
+      <c r="I85" s="1" t="n">
         <f aca="false">T5!E85</f>
         <v>-2.593989616</v>
       </c>
-      <c r="J85" s="0" t="n">
+      <c r="J85" s="1" t="n">
         <f aca="false">T5!F85</f>
         <v>-2.40843523574716</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <f aca="false">T1!E86</f>
         <v>-1.898658287</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <f aca="false">T1!F86</f>
         <v>-1.98665014237348</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <f aca="false">T2!E86</f>
         <v>-1.978691792</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="1" t="n">
         <f aca="false">T2!F86</f>
         <v>-2.08348023065466</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <f aca="false">T3!E86</f>
         <v>-2.065692293</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="1" t="n">
         <f aca="false">T3!F86</f>
         <v>-2.14529422303841</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="1" t="n">
         <f aca="false">T4!E86</f>
         <v>-2.160989422</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="1" t="n">
         <f aca="false">T4!F86</f>
         <v>-2.18817758038792</v>
       </c>
-      <c r="I86" s="0" t="n">
+      <c r="I86" s="1" t="n">
         <f aca="false">T5!E86</f>
         <v>-2.266333987</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="J86" s="1" t="n">
         <f aca="false">T5!F86</f>
         <v>-2.21967179533982</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <f aca="false">T1!E87</f>
         <v>-1.813686111</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <f aca="false">T1!F87</f>
         <v>-1.85473578480955</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <f aca="false">T2!E87</f>
         <v>-1.899318697</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <f aca="false">T2!F87</f>
         <v>-1.97775645853979</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <f aca="false">T3!E87</f>
         <v>-1.992976833</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="1" t="n">
         <f aca="false">T3!F87</f>
         <v>-2.06085047149171</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87" s="1" t="n">
         <f aca="false">T4!E87</f>
         <v>-2.096321884</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="H87" s="1" t="n">
         <f aca="false">T4!F87</f>
         <v>-2.1207412988335</v>
       </c>
-      <c r="I87" s="0" t="n">
+      <c r="I87" s="1" t="n">
         <f aca="false">T5!E87</f>
         <v>-2.211591288</v>
       </c>
-      <c r="J87" s="0" t="n">
+      <c r="J87" s="1" t="n">
         <f aca="false">T5!F87</f>
         <v>-2.16595723689305</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <f aca="false">T1!E88</f>
         <v>-2.027682186</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <f aca="false">T1!F88</f>
         <v>-1.94489592888667</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <f aca="false">T2!E88</f>
         <v>-2.117751268</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <f aca="false">T2!F88</f>
         <v>-2.15888224864852</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <f aca="false">T3!E88</f>
         <v>-2.216743078</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="1" t="n">
         <f aca="false">T3!F88</f>
         <v>-2.28749143693844</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88" s="1" t="n">
         <f aca="false">T4!E88</f>
         <v>-2.326621849</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="H88" s="1" t="n">
         <f aca="false">T4!F88</f>
         <v>-2.37332175688535</v>
       </c>
-      <c r="I88" s="0" t="n">
+      <c r="I88" s="1" t="n">
         <f aca="false">T5!E88</f>
         <v>-2.450081564</v>
       </c>
-      <c r="J88" s="0" t="n">
+      <c r="J88" s="1" t="n">
         <f aca="false">T5!F88</f>
         <v>-2.43467357797135</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <f aca="false">T1!E89</f>
         <v>-1.731574426</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <f aca="false">T1!F89</f>
         <v>-1.73837181327274</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <f aca="false">T2!E89</f>
         <v>-1.821761166</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <f aca="false">T2!F89</f>
         <v>-1.91199190172045</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <f aca="false">T3!E89</f>
         <v>-1.920895139</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="1" t="n">
         <f aca="false">T3!F89</f>
         <v>-2.01837487122495</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89" s="1" t="n">
         <f aca="false">T4!E89</f>
         <v>-2.030949124</v>
       </c>
-      <c r="H89" s="0" t="n">
+      <c r="H89" s="1" t="n">
         <f aca="false">T4!F89</f>
         <v>-2.09024282328966</v>
       </c>
-      <c r="I89" s="0" t="n">
+      <c r="I89" s="1" t="n">
         <f aca="false">T5!E89</f>
         <v>-2.154630144</v>
       </c>
-      <c r="J89" s="0" t="n">
+      <c r="J89" s="1" t="n">
         <f aca="false">T5!F89</f>
         <v>-2.14204832167971</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <f aca="false">T1!E90</f>
         <v>-1.763742219</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <f aca="false">T1!F90</f>
         <v>-1.72616301734796</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <f aca="false">T2!E90</f>
         <v>-1.838388654</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <f aca="false">T2!F90</f>
         <v>-1.85921805492013</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <f aca="false">T3!E90</f>
         <v>-1.919059934</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="1" t="n">
         <f aca="false">T3!F90</f>
         <v>-1.95205475364384</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="1" t="n">
         <f aca="false">T4!E90</f>
         <v>-2.006814679</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="1" t="n">
         <f aca="false">T4!F90</f>
         <v>-2.02051449310796</v>
       </c>
-      <c r="I90" s="0" t="n">
+      <c r="I90" s="1" t="n">
         <f aca="false">T5!E90</f>
         <v>-2.10301763</v>
       </c>
-      <c r="J90" s="0" t="n">
+      <c r="J90" s="1" t="n">
         <f aca="false">T5!F90</f>
         <v>-2.07308415897702</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <f aca="false">T1!E91</f>
         <v>-1.783585095</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <f aca="false">T1!F91</f>
         <v>-1.74769338842997</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <f aca="false">T2!E91</f>
         <v>-1.863440963</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <f aca="false">T2!F91</f>
         <v>-1.889848078079</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <f aca="false">T3!E91</f>
         <v>-1.950231575</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="1" t="n">
         <f aca="false">T3!F91</f>
         <v>-1.98945050668736</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91" s="1" t="n">
         <f aca="false">T4!E91</f>
         <v>-2.045276901</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="H91" s="1" t="n">
         <f aca="false">T4!F91</f>
         <v>-2.06311972325802</v>
       </c>
-      <c r="I91" s="0" t="n">
+      <c r="I91" s="1" t="n">
         <f aca="false">T5!E91</f>
         <v>-2.150313802</v>
       </c>
-      <c r="J91" s="0" t="n">
+      <c r="J91" s="1" t="n">
         <f aca="false">T5!F91</f>
         <v>-2.11981726214898</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <f aca="false">T1!E92</f>
         <v>-1.917076464</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <f aca="false">T1!F92</f>
         <v>-1.88383630029623</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <f aca="false">T2!E92</f>
         <v>-2.021079996</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <f aca="false">T2!F92</f>
         <v>-2.06155816131596</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="1" t="n">
         <f aca="false">T3!E92</f>
         <v>-2.137169388</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="1" t="n">
         <f aca="false">T3!F92</f>
         <v>-2.18068355797667</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="1" t="n">
         <f aca="false">T4!E92</f>
         <v>-2.268527445</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="H92" s="1" t="n">
         <f aca="false">T4!F92</f>
         <v>-2.2660909298809</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="I92" s="1" t="n">
         <f aca="false">T5!E92</f>
         <v>-2.419787672</v>
       </c>
-      <c r="J92" s="0" t="n">
+      <c r="J92" s="1" t="n">
         <f aca="false">T5!F92</f>
         <v>-2.33032119428646</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <f aca="false">T1!E93</f>
         <v>-1.934728347</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <f aca="false">T1!F93</f>
         <v>-1.89536243254985</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <f aca="false">T2!E93</f>
         <v>-2.045456086</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="1" t="n">
         <f aca="false">T2!F93</f>
         <v>-2.147784731853</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="1" t="n">
         <f aca="false">T3!E93</f>
         <v>-2.169988916</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="1" t="n">
         <f aca="false">T3!F93</f>
         <v>-2.29008929036231</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93" s="1" t="n">
         <f aca="false">T4!E93</f>
         <v>-2.312266103</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="H93" s="1" t="n">
         <f aca="false">T4!F93</f>
         <v>-2.38143017454506</v>
       </c>
-      <c r="I93" s="0" t="n">
+      <c r="I93" s="1" t="n">
         <f aca="false">T5!E93</f>
         <v>-2.478198112</v>
       </c>
-      <c r="J93" s="0" t="n">
+      <c r="J93" s="1" t="n">
         <f aca="false">T5!F93</f>
         <v>-2.44502737935608</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <f aca="false">T1!E94</f>
         <v>-1.880304959</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <f aca="false">T1!F94</f>
         <v>-1.8150237732455</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <f aca="false">T2!E94</f>
         <v>-1.941011018</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <f aca="false">T2!F94</f>
         <v>-1.94222636021481</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="1" t="n">
         <f aca="false">T3!E94</f>
         <v>-1.991535365</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="1" t="n">
         <f aca="false">T3!F94</f>
         <v>-2.03050461102642</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="1" t="n">
         <f aca="false">T4!E94</f>
         <v>-2.03008393</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="H94" s="1" t="n">
         <f aca="false">T4!F94</f>
         <v>-2.09535374248025</v>
       </c>
-      <c r="I94" s="0" t="n">
+      <c r="I94" s="1" t="n">
         <f aca="false">T5!E94</f>
         <v>-2.055138434</v>
       </c>
-      <c r="J94" s="0" t="n">
+      <c r="J94" s="1" t="n">
         <f aca="false">T5!F94</f>
         <v>-2.14500833037393</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <f aca="false">T1!E95</f>
         <v>-1.830735436</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <f aca="false">T1!F95</f>
         <v>-1.79499634604986</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <f aca="false">T2!E95</f>
         <v>-1.894394111</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="1" t="n">
         <f aca="false">T2!F95</f>
         <v>-1.87808469369468</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="1" t="n">
         <f aca="false">T3!E95</f>
         <v>-1.946319182</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="1" t="n">
         <f aca="false">T3!F95</f>
         <v>-1.93580103024406</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95" s="1" t="n">
         <f aca="false">T4!E95</f>
         <v>-1.98439696</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="H95" s="1" t="n">
         <f aca="false">T4!F95</f>
         <v>-1.97822741609583</v>
       </c>
-      <c r="I95" s="0" t="n">
+      <c r="I95" s="1" t="n">
         <f aca="false">T5!E95</f>
         <v>-2.006907101</v>
       </c>
-      <c r="J95" s="0" t="n">
+      <c r="J95" s="1" t="n">
         <f aca="false">T5!F95</f>
         <v>-2.01072900892073</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <f aca="false">T1!E96</f>
         <v>-1.843072051</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <f aca="false">T1!F96</f>
         <v>-1.91944934346607</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <f aca="false">T2!E96</f>
         <v>-1.946772619</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="1" t="n">
         <f aca="false">T2!F96</f>
         <v>-2.1422261838309</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="1" t="n">
         <f aca="false">T3!E96</f>
         <v>-2.062484587</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="1" t="n">
         <f aca="false">T3!F96</f>
         <v>-2.27346320068558</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96" s="1" t="n">
         <f aca="false">T4!E96</f>
         <v>-2.193359466</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="H96" s="1" t="n">
         <f aca="false">T4!F96</f>
         <v>-2.3599655272908</v>
       </c>
-      <c r="I96" s="0" t="n">
+      <c r="I96" s="1" t="n">
         <f aca="false">T5!E96</f>
         <v>-2.343979069</v>
       </c>
-      <c r="J96" s="0" t="n">
+      <c r="J96" s="1" t="n">
         <f aca="false">T5!F96</f>
         <v>-2.42127558885362</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <f aca="false">T1!E97</f>
         <v>-1.753113152</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <f aca="false">T1!F97</f>
         <v>-1.7218287357637</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <f aca="false">T2!E97</f>
         <v>-1.854112269</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <f aca="false">T2!F97</f>
         <v>-1.91985559960323</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <f aca="false">T3!E97</f>
         <v>-1.96647017</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="1" t="n">
         <f aca="false">T3!F97</f>
         <v>-2.04139311222992</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="1" t="n">
         <f aca="false">T4!E97</f>
         <v>-2.09306936</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="H97" s="1" t="n">
         <f aca="false">T4!F97</f>
         <v>-2.12358474567647</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="I97" s="1" t="n">
         <f aca="false">T5!E97</f>
         <v>-2.238051228</v>
       </c>
-      <c r="J97" s="0" t="n">
+      <c r="J97" s="1" t="n">
         <f aca="false">T5!F97</f>
         <v>-2.18287500506549</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <f aca="false">T1!E98</f>
         <v>-2.371766782</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <f aca="false">T1!F98</f>
         <v>-1.98128480086597</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <f aca="false">T2!E98</f>
         <v>-2.447157861</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="1" t="n">
         <f aca="false">T2!F98</f>
         <v>-2.08167257359798</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="1" t="n">
         <f aca="false">T3!E98</f>
         <v>-2.528699611</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="1" t="n">
         <f aca="false">T3!F98</f>
         <v>-2.14877649609096</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98" s="1" t="n">
         <f aca="false">T4!E98</f>
         <v>-2.617485485</v>
       </c>
-      <c r="H98" s="0" t="n">
+      <c r="H98" s="1" t="n">
         <f aca="false">T4!F98</f>
         <v>-2.19679557715897</v>
       </c>
-      <c r="I98" s="0" t="n">
+      <c r="I98" s="1" t="n">
         <f aca="false">T5!E98</f>
         <v>-2.714929225</v>
       </c>
-      <c r="J98" s="0" t="n">
+      <c r="J98" s="1" t="n">
         <f aca="false">T5!F98</f>
         <v>-2.23285804211168</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <f aca="false">T1!E99</f>
         <v>-2.29613802</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <f aca="false">T1!F99</f>
         <v>-1.86279896580273</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <f aca="false">T2!E99</f>
         <v>-2.383699247</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="1" t="n">
         <f aca="false">T2!F99</f>
         <v>-2.12776020861257</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" s="1" t="n">
         <f aca="false">T3!E99</f>
         <v>-2.479669647</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="1" t="n">
         <f aca="false">T3!F99</f>
         <v>-2.27044714493068</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="1" t="n">
         <f aca="false">T4!E99</f>
         <v>-2.58583769</v>
       </c>
-      <c r="H99" s="0" t="n">
+      <c r="H99" s="1" t="n">
         <f aca="false">T4!F99</f>
         <v>-2.35963217135826</v>
       </c>
-      <c r="I99" s="0" t="n">
+      <c r="I99" s="1" t="n">
         <f aca="false">T5!E99</f>
         <v>-2.704631053</v>
       </c>
-      <c r="J99" s="0" t="n">
+      <c r="J99" s="1" t="n">
         <f aca="false">T5!F99</f>
         <v>-2.42065600293694</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <f aca="false">T1!E100</f>
         <v>-1.876987983</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <f aca="false">T1!F100</f>
         <v>-1.8891600683188</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <f aca="false">T2!E100</f>
         <v>-1.972783184</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="1" t="n">
         <f aca="false">T2!F100</f>
         <v>-2.08150349951178</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="1" t="n">
         <f aca="false">T3!E100</f>
         <v>-2.078736824</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="1" t="n">
         <f aca="false">T3!F100</f>
         <v>-2.19697150119107</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100" s="1" t="n">
         <f aca="false">T4!E100</f>
         <v>-2.197261759</v>
       </c>
-      <c r="H100" s="0" t="n">
+      <c r="H100" s="1" t="n">
         <f aca="false">T4!F100</f>
         <v>-2.27397597272385</v>
       </c>
-      <c r="I100" s="0" t="n">
+      <c r="I100" s="1" t="n">
         <f aca="false">T5!E100</f>
         <v>-2.331747832</v>
       </c>
-      <c r="J100" s="0" t="n">
+      <c r="J100" s="1" t="n">
         <f aca="false">T5!F100</f>
         <v>-2.32899172259148</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <f aca="false">T1!E101</f>
         <v>-1.589336278</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <f aca="false">T1!F101</f>
         <v>-1.50155591580486</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <f aca="false">T2!E101</f>
         <v>-1.680762722</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="1" t="n">
         <f aca="false">T2!F101</f>
         <v>-1.71916365411459</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="1" t="n">
         <f aca="false">T3!E101</f>
         <v>-1.781396843</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="1" t="n">
         <f aca="false">T3!F101</f>
         <v>-1.85034071675955</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="1" t="n">
         <f aca="false">T4!E101</f>
         <v>-1.893303126</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="1" t="n">
         <f aca="false">T4!F101</f>
         <v>-1.93804864380205</v>
       </c>
-      <c r="I101" s="0" t="n">
+      <c r="I101" s="1" t="n">
         <f aca="false">T5!E101</f>
         <v>-2.019329089</v>
       </c>
-      <c r="J101" s="0" t="n">
+      <c r="J101" s="1" t="n">
         <f aca="false">T5!F101</f>
         <v>-2.00082332512089</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <f aca="false">T1!E102</f>
         <v>-1.798919287</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <f aca="false">T1!F102</f>
         <v>-1.75253290415639</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <f aca="false">T2!E102</f>
         <v>-1.849883618</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="1" t="n">
         <f aca="false">T2!F102</f>
         <v>-1.88604863465927</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="1" t="n">
         <f aca="false">T3!E102</f>
         <v>-1.90452063</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="1" t="n">
         <f aca="false">T3!F102</f>
         <v>-1.97888177822197</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102" s="1" t="n">
         <f aca="false">T4!E102</f>
         <v>-1.963620275</v>
       </c>
-      <c r="H102" s="0" t="n">
+      <c r="H102" s="1" t="n">
         <f aca="false">T4!F102</f>
         <v>-2.04716841696972</v>
       </c>
-      <c r="I102" s="0" t="n">
+      <c r="I102" s="1" t="n">
         <f aca="false">T5!E102</f>
         <v>-2.028370113</v>
       </c>
-      <c r="J102" s="0" t="n">
+      <c r="J102" s="1" t="n">
         <f aca="false">T5!F102</f>
         <v>-2.09950712833295</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <f aca="false">T1!E103</f>
         <v>-1.967928046</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <f aca="false">T1!F103</f>
         <v>-1.82226158866831</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <f aca="false">T2!E103</f>
         <v>-2.045147282</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="1" t="n">
         <f aca="false">T2!F103</f>
         <v>-1.95705354074195</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="1" t="n">
         <f aca="false">T3!E103</f>
         <v>-2.128832075</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="1" t="n">
         <f aca="false">T3!F103</f>
         <v>-2.05552185558574</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103" s="1" t="n">
         <f aca="false">T4!E103</f>
         <v>-2.220164906</v>
       </c>
-      <c r="H103" s="0" t="n">
+      <c r="H103" s="1" t="n">
         <f aca="false">T4!F103</f>
         <v>-2.13060556563857</v>
       </c>
-      <c r="I103" s="0" t="n">
+      <c r="I103" s="1" t="n">
         <f aca="false">T5!E103</f>
         <v>-2.320685603</v>
       </c>
-      <c r="J103" s="0" t="n">
+      <c r="J103" s="1" t="n">
         <f aca="false">T5!F103</f>
         <v>-2.18975071044852</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <f aca="false">T1!E104</f>
         <v>-1.813064662</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <f aca="false">T1!F104</f>
         <v>-1.67026264575891</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <f aca="false">T2!E104</f>
         <v>-1.929270656</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="1" t="n">
         <f aca="false">T2!F104</f>
         <v>-1.92793669021659</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="1" t="n">
         <f aca="false">T3!E104</f>
         <v>-2.060778073</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="1" t="n">
         <f aca="false">T3!F104</f>
         <v>-2.08322620279179</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104" s="1" t="n">
         <f aca="false">T4!E104</f>
         <v>-2.212236474</v>
       </c>
-      <c r="H104" s="0" t="n">
+      <c r="H104" s="1" t="n">
         <f aca="false">T4!F104</f>
         <v>-2.18703962060915</v>
       </c>
-      <c r="I104" s="0" t="n">
+      <c r="I104" s="1" t="n">
         <f aca="false">T5!E104</f>
         <v>-2.390800977</v>
       </c>
-      <c r="J104" s="0" t="n">
+      <c r="J104" s="1" t="n">
         <f aca="false">T5!F104</f>
         <v>-2.26133317686321</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <f aca="false">T1!E105</f>
         <v>-1.655911262</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <f aca="false">T1!F105</f>
         <v>-1.75837837409348</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <f aca="false">T2!E105</f>
         <v>-1.7442301</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="1" t="n">
         <f aca="false">T2!F105</f>
         <v>-1.92254518088708</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" s="1" t="n">
         <f aca="false">T3!E105</f>
         <v>-1.841111491</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="1" t="n">
         <f aca="false">T3!F105</f>
         <v>-2.03552043725531</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105" s="1" t="n">
         <f aca="false">T4!E105</f>
         <v>-1.948395736</v>
       </c>
-      <c r="H105" s="0" t="n">
+      <c r="H105" s="1" t="n">
         <f aca="false">T4!F105</f>
         <v>-2.11801852419728</v>
       </c>
-      <c r="I105" s="0" t="n">
+      <c r="I105" s="1" t="n">
         <f aca="false">T5!E105</f>
         <v>-2.068588648</v>
       </c>
-      <c r="J105" s="0" t="n">
+      <c r="J105" s="1" t="n">
         <f aca="false">T5!F105</f>
         <v>-2.18090645884151</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <f aca="false">T1!E106</f>
         <v>-1.962125499</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <f aca="false">T1!F106</f>
         <v>-2.02736672585967</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <f aca="false">T2!E106</f>
         <v>-2.020862459</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" s="1" t="n">
         <f aca="false">T2!F106</f>
         <v>-2.10762059359146</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106" s="1" t="n">
         <f aca="false">T3!E106</f>
         <v>-2.083265929</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="1" t="n">
         <f aca="false">T3!F106</f>
         <v>-2.17157679838258</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106" s="1" t="n">
         <f aca="false">T4!E106</f>
         <v>-2.149824311</v>
       </c>
-      <c r="H106" s="0" t="n">
+      <c r="H106" s="1" t="n">
         <f aca="false">T4!F106</f>
         <v>-2.2237420210381</v>
       </c>
-      <c r="I106" s="0" t="n">
+      <c r="I106" s="1" t="n">
         <f aca="false">T5!E106</f>
         <v>-2.221130602</v>
       </c>
-      <c r="J106" s="0" t="n">
+      <c r="J106" s="1" t="n">
         <f aca="false">T5!F106</f>
         <v>-2.26710174545745</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <f aca="false">T1!E107</f>
         <v>-1.719949542</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <f aca="false">T1!F107</f>
         <v>-1.96144497186523</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <f aca="false">T2!E107</f>
         <v>-1.790875784</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="1" t="n">
         <f aca="false">T2!F107</f>
         <v>-2.06519039503832</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" s="1" t="n">
         <f aca="false">T3!E107</f>
         <v>-1.867219224</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="1" t="n">
         <f aca="false">T3!F107</f>
         <v>-2.13861934801437</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107" s="1" t="n">
         <f aca="false">T4!E107</f>
         <v>-1.949876308</v>
       </c>
-      <c r="H107" s="0" t="n">
+      <c r="H107" s="1" t="n">
         <f aca="false">T4!F107</f>
         <v>-2.19332614436556</v>
       </c>
-      <c r="I107" s="0" t="n">
+      <c r="I107" s="1" t="n">
         <f aca="false">T5!E107</f>
         <v>-2.039986241</v>
       </c>
-      <c r="J107" s="0" t="n">
+      <c r="J107" s="1" t="n">
         <f aca="false">T5!F107</f>
         <v>-2.23566175029488</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <f aca="false">T1!E108</f>
         <v>-2.048105396</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <f aca="false">T1!F108</f>
         <v>-2.21653903553334</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <f aca="false">T2!E108</f>
         <v>-2.095075414</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108" s="1" t="n">
         <f aca="false">T2!F108</f>
         <v>-2.2705491278153</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" s="1" t="n">
         <f aca="false">T3!E108</f>
         <v>-2.144360814</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="1" t="n">
         <f aca="false">T3!F108</f>
         <v>-2.31593053521795</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108" s="1" t="n">
         <f aca="false">T4!E108</f>
         <v>-2.19620176</v>
       </c>
-      <c r="H108" s="0" t="n">
+      <c r="H108" s="1" t="n">
         <f aca="false">T4!F108</f>
         <v>-2.35459816427134</v>
       </c>
-      <c r="I108" s="0" t="n">
+      <c r="I108" s="1" t="n">
         <f aca="false">T5!E108</f>
         <v>-2.250877835</v>
       </c>
-      <c r="J108" s="0" t="n">
+      <c r="J108" s="1" t="n">
         <f aca="false">T5!F108</f>
         <v>-2.38793921286103</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <f aca="false">T1!E109</f>
         <v>-1.902147736</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <f aca="false">T1!F109</f>
         <v>-1.91711170884411</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <f aca="false">T2!E109</f>
         <v>-1.959719678</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="1" t="n">
         <f aca="false">T2!F109</f>
         <v>-2.0558256669807</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="1" t="n">
         <f aca="false">T3!E109</f>
         <v>-2.020809724</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="1" t="n">
         <f aca="false">T3!F109</f>
         <v>-2.16402025736443</v>
       </c>
-      <c r="G109" s="0" t="n">
+      <c r="G109" s="1" t="n">
         <f aca="false">T4!E109</f>
         <v>-2.085875987</v>
       </c>
-      <c r="H109" s="0" t="n">
+      <c r="H109" s="1" t="n">
         <f aca="false">T4!F109</f>
         <v>-2.25076966730227</v>
       </c>
-      <c r="I109" s="0" t="n">
+      <c r="I109" s="1" t="n">
         <f aca="false">T5!E109</f>
         <v>-2.155472334</v>
       </c>
-      <c r="J109" s="0" t="n">
+      <c r="J109" s="1" t="n">
         <f aca="false">T5!F109</f>
         <v>-2.32187468139683</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <f aca="false">T1!E110</f>
         <v>-1.628295016</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <f aca="false">T1!F110</f>
         <v>-1.56710973170162</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <f aca="false">T2!E110</f>
         <v>-1.789520558</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110" s="1" t="n">
         <f aca="false">T2!F110</f>
         <v>-1.82163127871474</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" s="1" t="n">
         <f aca="false">T3!E110</f>
         <v>-1.967269517</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="1" t="n">
         <f aca="false">T3!F110</f>
         <v>-1.96229181975378</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110" s="1" t="n">
         <f aca="false">T4!E110</f>
         <v>-2.159318397</v>
       </c>
-      <c r="H110" s="0" t="n">
+      <c r="H110" s="1" t="n">
         <f aca="false">T4!F110</f>
         <v>-2.05152927228088</v>
       </c>
-      <c r="I110" s="0" t="n">
+      <c r="I110" s="1" t="n">
         <f aca="false">T5!E110</f>
         <v>-2.352940558</v>
       </c>
-      <c r="J110" s="0" t="n">
+      <c r="J110" s="1" t="n">
         <f aca="false">T5!F110</f>
         <v>-2.1131849141004</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <f aca="false">T1!E111</f>
         <v>-2.214217382</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <f aca="false">T1!F111</f>
         <v>-2.09678615687397</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <f aca="false">T2!E111</f>
         <v>-2.310318968</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111" s="1" t="n">
         <f aca="false">T2!F111</f>
         <v>-2.28726607407768</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" s="1" t="n">
         <f aca="false">T3!E111</f>
         <v>-2.412919771</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="1" t="n">
         <f aca="false">T3!F111</f>
         <v>-2.40294925413981</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111" s="1" t="n">
         <f aca="false">T4!E111</f>
         <v>-2.523100881</v>
       </c>
-      <c r="H111" s="0" t="n">
+      <c r="H111" s="1" t="n">
         <f aca="false">T4!F111</f>
         <v>-2.48066123259968</v>
       </c>
-      <c r="I111" s="0" t="n">
+      <c r="I111" s="1" t="n">
         <f aca="false">T5!E111</f>
         <v>-2.642251543</v>
       </c>
-      <c r="J111" s="0" t="n">
+      <c r="J111" s="1" t="n">
         <f aca="false">T5!F111</f>
         <v>-2.53646185125532</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <f aca="false">T1!E112</f>
         <v>-1.667107323</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <f aca="false">T1!F112</f>
         <v>-1.75972647584083</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <f aca="false">T2!E112</f>
         <v>-1.748348674</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112" s="1" t="n">
         <f aca="false">T2!F112</f>
         <v>-1.88073713276324</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="1" t="n">
         <f aca="false">T3!E112</f>
         <v>-1.836778484</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="1" t="n">
         <f aca="false">T3!F112</f>
         <v>-1.96599110078326</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112" s="1" t="n">
         <f aca="false">T4!E112</f>
         <v>-1.933793444</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112" s="1" t="n">
         <f aca="false">T4!F112</f>
         <v>-2.02929707818411</v>
       </c>
-      <c r="I112" s="0" t="n">
+      <c r="I112" s="1" t="n">
         <f aca="false">T5!E112</f>
         <v>-2.041241534</v>
       </c>
-      <c r="J112" s="0" t="n">
+      <c r="J112" s="1" t="n">
         <f aca="false">T5!F112</f>
         <v>-2.07816360041371</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <f aca="false">T1!E113</f>
         <v>-1.43724209</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <f aca="false">T1!F113</f>
         <v>-1.5358207035963</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <f aca="false">T2!E113</f>
         <v>-1.531605015</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" s="1" t="n">
         <f aca="false">T2!F113</f>
         <v>-1.67152522426301</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" s="1" t="n">
         <f aca="false">T3!E113</f>
         <v>-1.635808992</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="1" t="n">
         <f aca="false">T3!F113</f>
         <v>-1.75726694934802</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113" s="1" t="n">
         <f aca="false">T4!E113</f>
         <v>-1.752148232</v>
       </c>
-      <c r="H113" s="0" t="n">
+      <c r="H113" s="1" t="n">
         <f aca="false">T4!F113</f>
         <v>-1.81634867546935</v>
       </c>
-      <c r="I113" s="0" t="n">
+      <c r="I113" s="1" t="n">
         <f aca="false">T5!E113</f>
         <v>-1.883826374</v>
       </c>
-      <c r="J113" s="0" t="n">
+      <c r="J113" s="1" t="n">
         <f aca="false">T5!F113</f>
         <v>-1.85953151983201</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <f aca="false">T1!E114</f>
         <v>-1.69537399</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <f aca="false">T1!F114</f>
         <v>-1.69232826900758</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <f aca="false">T2!E114</f>
         <v>-1.79863971</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114" s="1" t="n">
         <f aca="false">T2!F114</f>
         <v>-1.88469838487923</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114" s="1" t="n">
         <f aca="false">T3!E114</f>
         <v>-1.913810407</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="1" t="n">
         <f aca="false">T3!F114</f>
         <v>-1.99969867336404</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="G114" s="1" t="n">
         <f aca="false">T4!E114</f>
         <v>-2.043993074</v>
       </c>
-      <c r="H114" s="0" t="n">
+      <c r="H114" s="1" t="n">
         <f aca="false">T4!F114</f>
         <v>-2.0761908379957</v>
       </c>
-      <c r="I114" s="0" t="n">
+      <c r="I114" s="1" t="n">
         <f aca="false">T5!E114</f>
         <v>-2.19369616</v>
       </c>
-      <c r="J114" s="0" t="n">
+      <c r="J114" s="1" t="n">
         <f aca="false">T5!F114</f>
         <v>-2.13074245422694</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <f aca="false">T1!E115</f>
         <v>-1.115420987</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <f aca="false">T1!F115</f>
         <v>-1.42468889203748</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <f aca="false">T2!E115</f>
         <v>-1.209984002</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="1" t="n">
         <f aca="false">T2!F115</f>
         <v>-1.62837821023949</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="1" t="n">
         <f aca="false">T3!E115</f>
         <v>-1.314432074</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="n">
         <f aca="false">T3!F115</f>
         <v>-1.75095774038447</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="G115" s="1" t="n">
         <f aca="false">T4!E115</f>
         <v>-1.431075725</v>
       </c>
-      <c r="H115" s="0" t="n">
+      <c r="H115" s="1" t="n">
         <f aca="false">T4!F115</f>
         <v>-1.83283038455331</v>
       </c>
-      <c r="I115" s="0" t="n">
+      <c r="I115" s="1" t="n">
         <f aca="false">T5!E115</f>
         <v>-1.5631441</v>
       </c>
-      <c r="J115" s="0" t="n">
+      <c r="J115" s="1" t="n">
         <f aca="false">T5!F115</f>
         <v>-1.89138601058804</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <f aca="false">T1!E116</f>
         <v>-1.81029401</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <f aca="false">T1!F116</f>
         <v>-1.65685724151728</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <f aca="false">T2!E116</f>
         <v>-1.876803934</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116" s="1" t="n">
         <f aca="false">T2!F116</f>
         <v>-1.83244383727762</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116" s="1" t="n">
         <f aca="false">T3!E116</f>
         <v>-1.948054607</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="1" t="n">
         <f aca="false">T3!F116</f>
         <v>-1.95880913439735</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116" s="1" t="n">
         <f aca="false">T4!E116</f>
         <v>-2.024774085</v>
       </c>
-      <c r="H116" s="0" t="n">
+      <c r="H116" s="1" t="n">
         <f aca="false">T4!F116</f>
         <v>-2.05410568538169</v>
       </c>
-      <c r="I116" s="0" t="n">
+      <c r="I116" s="1" t="n">
         <f aca="false">T5!E116</f>
         <v>-2.107872194</v>
       </c>
-      <c r="J116" s="0" t="n">
+      <c r="J116" s="1" t="n">
         <f aca="false">T5!F116</f>
         <v>-2.1285373011828</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <f aca="false">T1!E117</f>
         <v>-1.985504814</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <f aca="false">T1!F117</f>
         <v>-1.91544202357018</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <f aca="false">T2!E117</f>
         <v>-2.049930337</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117" s="1" t="n">
         <f aca="false">T2!F117</f>
         <v>-2.00199213679913</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117" s="1" t="n">
         <f aca="false">T3!E117</f>
         <v>-2.118794083</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="1" t="n">
         <f aca="false">T3!F117</f>
         <v>-2.06954225503535</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G117" s="1" t="n">
         <f aca="false">T4!E117</f>
         <v>-2.192753085</v>
       </c>
-      <c r="H117" s="0" t="n">
+      <c r="H117" s="1" t="n">
         <f aca="false">T4!F117</f>
         <v>-2.12373001893683</v>
       </c>
-      <c r="I117" s="0" t="n">
+      <c r="I117" s="1" t="n">
         <f aca="false">T5!E117</f>
         <v>-2.272622023</v>
       </c>
-      <c r="J117" s="0" t="n">
+      <c r="J117" s="1" t="n">
         <f aca="false">T5!F117</f>
         <v>-2.16816354216231</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <f aca="false">T1!E118</f>
         <v>-2.060155338</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <f aca="false">T1!F118</f>
         <v>-2.01277984578636</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <f aca="false">T2!E118</f>
         <v>-2.164171409</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" s="1" t="n">
         <f aca="false">T2!F118</f>
         <v>-2.20568748946545</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118" s="1" t="n">
         <f aca="false">T3!E118</f>
         <v>-2.280276427</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="1" t="n">
         <f aca="false">T3!F118</f>
         <v>-2.32958690958091</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118" s="1" t="n">
         <f aca="false">T4!E118</f>
         <v>-2.411654498</v>
       </c>
-      <c r="H118" s="0" t="n">
+      <c r="H118" s="1" t="n">
         <f aca="false">T4!F118</f>
         <v>-2.4158889630678</v>
       </c>
-      <c r="I118" s="0" t="n">
+      <c r="I118" s="1" t="n">
         <f aca="false">T5!E118</f>
         <v>-2.562941275</v>
       </c>
-      <c r="J118" s="0" t="n">
+      <c r="J118" s="1" t="n">
         <f aca="false">T5!F118</f>
         <v>-2.47945275008126</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <f aca="false">T1!E119</f>
         <v>-1.948979788</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <f aca="false">T1!F119</f>
         <v>-1.91862962852266</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <f aca="false">T2!E119</f>
         <v>-2.100858588</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119" s="1" t="n">
         <f aca="false">T2!F119</f>
         <v>-2.15730473826236</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119" s="1" t="n">
         <f aca="false">T3!E119</f>
         <v>-2.266595832</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="1" t="n">
         <f aca="false">T3!F119</f>
         <v>-2.30127663539414</v>
       </c>
-      <c r="G119" s="0" t="n">
+      <c r="G119" s="1" t="n">
         <f aca="false">T4!E119</f>
         <v>-2.443627524</v>
       </c>
-      <c r="H119" s="0" t="n">
+      <c r="H119" s="1" t="n">
         <f aca="false">T4!F119</f>
         <v>-2.397579585596</v>
       </c>
-      <c r="I119" s="0" t="n">
+      <c r="I119" s="1" t="n">
         <f aca="false">T5!E119</f>
         <v>-2.620888555</v>
       </c>
-      <c r="J119" s="0" t="n">
+      <c r="J119" s="1" t="n">
         <f aca="false">T5!F119</f>
         <v>-2.4665255441784</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <f aca="false">T1!E120</f>
         <v>-1.728226426</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <f aca="false">T1!F120</f>
         <v>-1.74332189922612</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <f aca="false">T2!E120</f>
         <v>-1.751485004</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" s="1" t="n">
         <f aca="false">T2!F120</f>
         <v>-1.76707008895014</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" s="1" t="n">
         <f aca="false">T3!E120</f>
         <v>-1.775297451</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="1" t="n">
         <f aca="false">T3!F120</f>
         <v>-1.78944351746325</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120" s="1" t="n">
         <f aca="false">T4!E120</f>
         <v>-1.799690791</v>
       </c>
-      <c r="H120" s="0" t="n">
+      <c r="H120" s="1" t="n">
         <f aca="false">T4!F120</f>
         <v>-1.81055909169943</v>
       </c>
-      <c r="I120" s="0" t="n">
+      <c r="I120" s="1" t="n">
         <f aca="false">T5!E120</f>
         <v>-1.824694076</v>
       </c>
-      <c r="J120" s="0" t="n">
+      <c r="J120" s="1" t="n">
         <f aca="false">T5!F120</f>
         <v>-1.83051924278649</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <f aca="false">T1!E121</f>
         <v>-2.014091863</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <f aca="false">T1!F121</f>
         <v>-1.79076460308944</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <f aca="false">T2!E121</f>
         <v>-2.092756866</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="1" t="n">
         <f aca="false">T2!F121</f>
         <v>-1.93815125403981</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="1" t="n">
         <f aca="false">T3!E121</f>
         <v>-2.17814249</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="1" t="n">
         <f aca="false">T3!F121</f>
         <v>-2.04464511288729</v>
       </c>
-      <c r="G121" s="0" t="n">
+      <c r="G121" s="1" t="n">
         <f aca="false">T4!E121</f>
         <v>-2.271505249</v>
       </c>
-      <c r="H121" s="0" t="n">
+      <c r="H121" s="1" t="n">
         <f aca="false">T4!F121</f>
         <v>-2.12519157942156</v>
       </c>
-      <c r="I121" s="0" t="n">
+      <c r="I121" s="1" t="n">
         <f aca="false">T5!E121</f>
         <v>-2.374490722</v>
       </c>
-      <c r="J121" s="0" t="n">
+      <c r="J121" s="1" t="n">
         <f aca="false">T5!F121</f>
         <v>-2.18824367540749</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <f aca="false">T1!E122</f>
         <v>-1.464379153</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <f aca="false">T1!F122</f>
         <v>-1.47572011694221</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <f aca="false">T2!E122</f>
         <v>-1.583073615</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122" s="1" t="n">
         <f aca="false">T2!F122</f>
         <v>-1.66254985044562</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122" s="1" t="n">
         <f aca="false">T3!E122</f>
         <v>-1.717778063</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="1" t="n">
         <f aca="false">T3!F122</f>
         <v>-1.77094569804682</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="G122" s="1" t="n">
         <f aca="false">T4!E122</f>
         <v>-1.87349496</v>
       </c>
-      <c r="H122" s="0" t="n">
+      <c r="H122" s="1" t="n">
         <f aca="false">T4!F122</f>
         <v>-1.84173015801939</v>
       </c>
-      <c r="I122" s="0" t="n">
+      <c r="I122" s="1" t="n">
         <f aca="false">T5!E122</f>
         <v>-2.05801335</v>
       </c>
-      <c r="J122" s="0" t="n">
+      <c r="J122" s="1" t="n">
         <f aca="false">T5!F122</f>
         <v>-1.89158501510616</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <f aca="false">T1!E123</f>
-        <v>0</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <f aca="false">T1!F123</f>
-        <v>0</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <f aca="false">T2!E123</f>
-        <v>0</v>
-      </c>
-      <c r="D123" s="0" t="n">
-        <f aca="false">T2!F123</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <f aca="false">T3!E123</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <f aca="false">T3!F123</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <f aca="false">T4!E123</f>
-        <v>0</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <f aca="false">T4!F123</f>
-        <v>0</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <f aca="false">T5!E123</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="0" t="n">
-        <f aca="false">T5!F123</f>
-        <v>0</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -52839,7 +52809,7 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Deliverable/results/conductivity.xlsx
+++ b/Deliverable/results/conductivity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="156">
   <si>
     <t xml:space="preserve">smiles</t>
   </si>
@@ -462,6 +462,9 @@
     <t xml:space="preserve">MAE</t>
   </si>
   <si>
+    <t xml:space="preserve">MAE / Scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1_true</t>
   </si>
   <si>
@@ -1565,11 +1568,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43110509"/>
-        <c:axId val="70589425"/>
+        <c:axId val="21034918"/>
+        <c:axId val="16401595"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43110509"/>
+        <c:axId val="21034918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1613,12 +1616,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70589425"/>
+        <c:crossAx val="16401595"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70589425"/>
+        <c:axId val="16401595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1662,7 +1665,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43110509"/>
+        <c:crossAx val="21034918"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2530,11 +2533,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99615396"/>
-        <c:axId val="93277360"/>
+        <c:axId val="73872413"/>
+        <c:axId val="85897479"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99615396"/>
+        <c:axId val="73872413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,12 +2579,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93277360"/>
+        <c:crossAx val="85897479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93277360"/>
+        <c:axId val="85897479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1"/>
@@ -2625,7 +2628,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99615396"/>
+        <c:crossAx val="73872413"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3492,11 +3495,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70178095"/>
-        <c:axId val="68920148"/>
+        <c:axId val="69573051"/>
+        <c:axId val="19447649"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70178095"/>
+        <c:axId val="69573051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,12 +3541,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68920148"/>
+        <c:crossAx val="19447649"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68920148"/>
+        <c:axId val="19447649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -3586,7 +3589,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70178095"/>
+        <c:crossAx val="69573051"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4453,11 +4456,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65093309"/>
-        <c:axId val="95820356"/>
+        <c:axId val="26789001"/>
+        <c:axId val="67861010"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65093309"/>
+        <c:axId val="26789001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,12 +4502,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95820356"/>
+        <c:crossAx val="67861010"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95820356"/>
+        <c:axId val="67861010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -4548,7 +4551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65093309"/>
+        <c:crossAx val="26789001"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5415,11 +5418,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89876275"/>
-        <c:axId val="93088445"/>
+        <c:axId val="69319836"/>
+        <c:axId val="95439163"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89876275"/>
+        <c:axId val="69319836"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,12 +5464,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93088445"/>
+        <c:crossAx val="95439163"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93088445"/>
+        <c:axId val="95439163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -5510,7 +5513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89876275"/>
+        <c:crossAx val="69319836"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5543,15 +5546,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1053720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:colOff>623520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1153800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:colOff>723240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5559,8 +5562,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1053720" y="1648800"/>
-        <a:ext cx="4852440" cy="4475880"/>
+        <a:off x="623520" y="2801160"/>
+        <a:ext cx="4852080" cy="4475520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5573,15 +5576,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1132200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>414720</xdr:rowOff>
+      <xdr:colOff>974520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>496080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>195120</xdr:rowOff>
+      <xdr:colOff>338040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5589,8 +5592,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5884560" y="1595880"/>
-        <a:ext cx="4851360" cy="4504680"/>
+        <a:off x="5726880" y="2883600"/>
+        <a:ext cx="4851000" cy="4504320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5603,15 +5606,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>492480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>438840</xdr:rowOff>
+      <xdr:colOff>699480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>201600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5619,8 +5622,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10732320" y="1620000"/>
-        <a:ext cx="5034960" cy="4438800"/>
+        <a:off x="10939320" y="2878920"/>
+        <a:ext cx="5034600" cy="4438440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5633,15 +5636,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>988200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:colOff>870120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>889200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5649,8 +5652,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3364200" y="6166440"/>
-        <a:ext cx="4653360" cy="4088520"/>
+        <a:off x="3246120" y="7386480"/>
+        <a:ext cx="4653000" cy="4088160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5663,15 +5666,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1034280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:colOff>1211760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5679,8 +5682,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8162640" y="6247800"/>
-        <a:ext cx="4667040" cy="4002840"/>
+        <a:off x="8340120" y="7497000"/>
+        <a:ext cx="4666680" cy="4002480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21730,7 +21733,7 @@
   </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H128" activeCellId="0" sqref="H128"/>
     </sheetView>
   </sheetViews>
@@ -47501,10 +47504,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47621,6 +47624,35 @@
       <c r="G4" s="7" t="n">
         <f aca="false">AVERAGE(B4:F4)</f>
         <v>0.0874660681533388</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <f aca="false">B4/(MAX(T1!E:E)-MIN(T1!E:E))</f>
+        <v>0.0624720572413043</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">C4/(MAX(T2!E:E)-MIN(T2!F:F))</f>
+        <v>0.0571955065719182</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <f aca="false">D4/(MAX(T3!E:E)-MIN(T3!E:E))</f>
+        <v>0.0630759555341182</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <f aca="false">E4/(MAX(T4!E:E)-MIN(T4!E:E))</f>
+        <v>0.0524382661047843</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <f aca="false">F4/(MAX(T5!E:E)-MIN(T5!E:E))</f>
+        <v>0.0585091843437944</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">AVERAGE(B5:F5)</f>
+        <v>0.0587381939591839</v>
       </c>
     </row>
   </sheetData>
@@ -47645,7 +47677,7 @@
   </sheetPr>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -47653,34 +47685,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52837,7 +52869,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>-3.3828628</v>
@@ -52860,7 +52892,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>-3.382863</v>
@@ -52883,7 +52915,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>-3.3828628</v>
@@ -52906,7 +52938,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>-3.382863</v>
@@ -52929,7 +52961,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>-3.3828633</v>

--- a/Deliverable/results/conductivity.xlsx
+++ b/Deliverable/results/conductivity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="158">
   <si>
     <t xml:space="preserve">smiles</t>
   </si>
@@ -1574,11 +1574,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44804406"/>
-        <c:axId val="41411068"/>
+        <c:axId val="77299944"/>
+        <c:axId val="79287510"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44804406"/>
+        <c:axId val="77299944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1622,12 +1622,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41411068"/>
+        <c:crossAx val="79287510"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41411068"/>
+        <c:axId val="79287510"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1671,7 +1671,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44804406"/>
+        <c:crossAx val="77299944"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2539,11 +2539,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14201094"/>
-        <c:axId val="27945386"/>
+        <c:axId val="13099486"/>
+        <c:axId val="91610237"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14201094"/>
+        <c:axId val="13099486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,12 +2585,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27945386"/>
+        <c:crossAx val="91610237"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27945386"/>
+        <c:axId val="91610237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1"/>
@@ -2634,7 +2634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14201094"/>
+        <c:crossAx val="13099486"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3501,11 +3501,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11686427"/>
-        <c:axId val="80977468"/>
+        <c:axId val="46149468"/>
+        <c:axId val="89255036"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11686427"/>
+        <c:axId val="46149468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,12 +3547,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80977468"/>
+        <c:crossAx val="89255036"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80977468"/>
+        <c:axId val="89255036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -3595,7 +3595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11686427"/>
+        <c:crossAx val="46149468"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4462,11 +4462,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7236994"/>
-        <c:axId val="50657321"/>
+        <c:axId val="88559458"/>
+        <c:axId val="46603500"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7236994"/>
+        <c:axId val="88559458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,12 +4508,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50657321"/>
+        <c:crossAx val="46603500"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50657321"/>
+        <c:axId val="46603500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -4557,7 +4557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7236994"/>
+        <c:crossAx val="88559458"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5424,11 +5424,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65170603"/>
-        <c:axId val="70371492"/>
+        <c:axId val="42904140"/>
+        <c:axId val="87882696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65170603"/>
+        <c:axId val="42904140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,12 +5470,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70371492"/>
+        <c:crossAx val="87882696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70371492"/>
+        <c:axId val="87882696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -5519,7 +5519,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65170603"/>
+        <c:crossAx val="42904140"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5558,9 +5558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>722880</xdr:colOff>
+      <xdr:colOff>722520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5569,7 +5569,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="623520" y="2801160"/>
-        <a:ext cx="4851720" cy="4475160"/>
+        <a:ext cx="4851360" cy="4474800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5588,9 +5588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>337680</xdr:colOff>
+      <xdr:colOff>337320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5599,7 +5599,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5726880" y="2883600"/>
-        <a:ext cx="4850640" cy="4503960"/>
+        <a:ext cx="4850280" cy="4503600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5618,9 +5618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>201240</xdr:rowOff>
+      <xdr:rowOff>200880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5629,7 +5629,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10939320" y="2878920"/>
-        <a:ext cx="5034240" cy="4438080"/>
+        <a:ext cx="5033880" cy="4437720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5648,9 +5648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770400</xdr:colOff>
+      <xdr:colOff>770040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5659,7 +5659,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3246120" y="7386480"/>
-        <a:ext cx="4652640" cy="4087800"/>
+        <a:ext cx="4652280" cy="4087440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5678,9 +5678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5689,7 +5689,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8340120" y="7497000"/>
-        <a:ext cx="4666320" cy="4002120"/>
+        <a:ext cx="4665960" cy="4001760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5897,14 +5897,14 @@
   <dimension ref="A1:Z1043682"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.28"/>
@@ -5916,10 +5916,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5954,10 +5954,10 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>-2.455287</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.8637114</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -5981,10 +5981,10 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>-2.455287</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.86371136</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -6002,10 +6002,10 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>-2.455287</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.86371136</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -6023,10 +6023,10 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>-2.455287</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.8637115</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -6044,10 +6044,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>-2.4552872</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.8637114</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -6065,10 +6065,10 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>-5.195746</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.92970794</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -6086,10 +6086,10 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>-5.1957455</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.92970794</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -6107,10 +6107,10 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>-5.195746</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.929708</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -6128,10 +6128,10 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>-5.195746</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.92970794</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -6149,10 +6149,10 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>-5.195746</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.92970794</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -6170,10 +6170,10 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.18806338</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.7618682</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -6191,10 +6191,10 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.18806311</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.7618683</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -6212,10 +6212,10 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.18806317</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.7618682</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -6233,10 +6233,10 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.18806323</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.76186824</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -6254,10 +6254,10 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.18806338</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.7618682</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -6275,10 +6275,10 @@
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>-2.929913</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.99102455</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -6296,10 +6296,10 @@
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>-2.9299135</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.99102455</v>
       </c>
       <c r="D18" s="1" t="n">
@@ -6317,10 +6317,10 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>-2.9299135</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.9910245</v>
       </c>
       <c r="D19" s="1" t="n">
@@ -6338,10 +6338,10 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>-2.9299135</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.9910245</v>
       </c>
       <c r="D20" s="1" t="n">
@@ -6359,10 +6359,10 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>-2.929913</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.9910245</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -6380,10 +6380,10 @@
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>-1.7539662</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.48588875</v>
       </c>
       <c r="D22" s="1" t="n">
@@ -6401,10 +6401,10 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>-1.7539662</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.48588875</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -6422,10 +6422,10 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>-1.7539662</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.48588875</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -6443,10 +6443,10 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>-1.7539662</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>0.48588872</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -6464,10 +6464,10 @@
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>-1.7539662</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.48588875</v>
       </c>
       <c r="D26" s="1" t="n">
@@ -6485,10 +6485,10 @@
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>-2.7422454</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.68801486</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -6506,10 +6506,10 @@
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>-2.7422457</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.68801486</v>
       </c>
       <c r="D28" s="1" t="n">
@@ -6527,10 +6527,10 @@
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>-2.7422454</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.6880149</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -6548,10 +6548,10 @@
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>-2.7422457</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.6880148</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -6569,10 +6569,10 @@
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>-2.7422457</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.6880148</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -6590,10 +6590,10 @@
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>-3.325308</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.776412</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -6611,10 +6611,10 @@
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>-3.3253078</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>0.776412</v>
       </c>
       <c r="D33" s="1" t="n">
@@ -6632,10 +6632,10 @@
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>-3.3253078</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0.776412</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -6653,10 +6653,10 @@
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>-3.3253078</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>0.77641207</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -6674,10 +6674,10 @@
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>-3.3253078</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.77641195</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -6695,10 +6695,10 @@
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>-1.7467897</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>0.53105253</v>
       </c>
       <c r="D37" s="1" t="n">
@@ -6716,10 +6716,10 @@
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>-1.7467898</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>0.53105253</v>
       </c>
       <c r="D38" s="1" t="n">
@@ -6737,10 +6737,10 @@
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>-1.7467897</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>0.53105253</v>
       </c>
       <c r="D39" s="1" t="n">
@@ -6758,10 +6758,10 @@
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>-1.7467897</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>0.53105253</v>
       </c>
       <c r="D40" s="1" t="n">
@@ -6779,10 +6779,10 @@
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>-1.7467897</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>0.53105253</v>
       </c>
       <c r="D41" s="1" t="n">
@@ -6800,10 +6800,10 @@
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>-1.5028408</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>0.4177163</v>
       </c>
       <c r="D42" s="1" t="n">
@@ -6821,10 +6821,10 @@
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>-1.5028409</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>0.41771632</v>
       </c>
       <c r="D43" s="1" t="n">
@@ -6842,10 +6842,10 @@
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>-1.5028408</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>0.41771632</v>
       </c>
       <c r="D44" s="1" t="n">
@@ -6863,10 +6863,10 @@
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>-1.5028408</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>0.4177163</v>
       </c>
       <c r="D45" s="1" t="n">
@@ -6884,10 +6884,10 @@
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>-1.5028406</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>0.41771632</v>
       </c>
       <c r="D46" s="1" t="n">
@@ -6905,10 +6905,10 @@
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>-1.214151</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>0.6447913</v>
       </c>
       <c r="D47" s="1" t="n">
@@ -6926,10 +6926,10 @@
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>-1.214151</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>0.64479125</v>
       </c>
       <c r="D48" s="1" t="n">
@@ -6947,10 +6947,10 @@
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>-1.214151</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>0.64479125</v>
       </c>
       <c r="D49" s="1" t="n">
@@ -6968,10 +6968,10 @@
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>-1.2141509</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>0.64479125</v>
       </c>
       <c r="D50" s="1" t="n">
@@ -6989,10 +6989,10 @@
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>-1.2141509</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>0.64479125</v>
       </c>
       <c r="D51" s="1" t="n">
@@ -7010,10 +7010,10 @@
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>-1.2844714</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>0.51587677</v>
       </c>
       <c r="D52" s="1" t="n">
@@ -7031,10 +7031,10 @@
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>-1.2844714</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>0.5158768</v>
       </c>
       <c r="D53" s="1" t="n">
@@ -7052,10 +7052,10 @@
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>-1.2844714</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>0.5158768</v>
       </c>
       <c r="D54" s="1" t="n">
@@ -7073,10 +7073,10 @@
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>-1.2844714</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>0.5158769</v>
       </c>
       <c r="D55" s="1" t="n">
@@ -7094,10 +7094,10 @@
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>-1.2844714</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>0.5158769</v>
       </c>
       <c r="D56" s="1" t="n">
@@ -7115,10 +7115,10 @@
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>-2.730539</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>0.7418689</v>
       </c>
       <c r="D57" s="1" t="n">
@@ -7136,10 +7136,10 @@
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>-2.7305393</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>0.74186885</v>
       </c>
       <c r="D58" s="1" t="n">
@@ -7157,10 +7157,10 @@
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>-2.7305396</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>0.74186885</v>
       </c>
       <c r="D59" s="1" t="n">
@@ -7178,10 +7178,10 @@
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>-2.730539</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>0.741869</v>
       </c>
       <c r="D60" s="1" t="n">
@@ -7199,10 +7199,10 @@
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>-2.7305388</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>0.74186885</v>
       </c>
       <c r="D61" s="1" t="n">
@@ -7220,10 +7220,10 @@
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>-1.3251659</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>0.46846431</v>
       </c>
       <c r="D62" s="1" t="n">
@@ -7241,10 +7241,10 @@
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>-1.3251659</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>0.46846434</v>
       </c>
       <c r="D63" s="1" t="n">
@@ -7262,10 +7262,10 @@
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>-1.325166</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>0.46846431</v>
       </c>
       <c r="D64" s="1" t="n">
@@ -7283,10 +7283,10 @@
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>-1.325166</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>0.46846434</v>
       </c>
       <c r="D65" s="1" t="n">
@@ -7304,10 +7304,10 @@
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>-1.325166</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>0.46846431</v>
       </c>
       <c r="D66" s="1" t="n">
@@ -7325,10 +7325,10 @@
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>-1.0732559</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>0.6873939</v>
       </c>
       <c r="D67" s="1" t="n">
@@ -7346,10 +7346,10 @@
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>-1.0732563</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>0.68739384</v>
       </c>
       <c r="D68" s="1" t="n">
@@ -7367,10 +7367,10 @@
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>-1.0732561</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>0.68739384</v>
       </c>
       <c r="D69" s="1" t="n">
@@ -7388,10 +7388,10 @@
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>-1.0732561</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>0.6873939</v>
       </c>
       <c r="D70" s="1" t="n">
@@ -7409,10 +7409,10 @@
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>-1.0732561</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>0.6873938</v>
       </c>
       <c r="D71" s="1" t="n">
@@ -7430,10 +7430,10 @@
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>-2.3125098</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>0.9495345</v>
       </c>
       <c r="D72" s="1" t="n">
@@ -7451,10 +7451,10 @@
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>-2.3125093</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>0.9495344</v>
       </c>
       <c r="D73" s="1" t="n">
@@ -7472,10 +7472,10 @@
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>-2.3125098</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>0.9495345</v>
       </c>
       <c r="D74" s="1" t="n">
@@ -7493,10 +7493,10 @@
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>-2.3125098</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>0.9495344</v>
       </c>
       <c r="D75" s="1" t="n">
@@ -7514,10 +7514,10 @@
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>-2.3125095</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>0.9495345</v>
       </c>
       <c r="D76" s="1" t="n">
@@ -7535,10 +7535,10 @@
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>-1.9837952</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>0.4823749</v>
       </c>
       <c r="D77" s="1" t="n">
@@ -7556,10 +7556,10 @@
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>-1.9837953</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>0.48237497</v>
       </c>
       <c r="D78" s="1" t="n">
@@ -7577,10 +7577,10 @@
       <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>-1.9837952</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>0.48237494</v>
       </c>
       <c r="D79" s="1" t="n">
@@ -7598,10 +7598,10 @@
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>-1.983795</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>0.4823749</v>
       </c>
       <c r="D80" s="1" t="n">
@@ -7619,10 +7619,10 @@
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>-1.9837954</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>0.48237494</v>
       </c>
       <c r="D81" s="1" t="n">
@@ -7640,10 +7640,10 @@
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>-3.1958275</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>1.2388364</v>
       </c>
       <c r="D82" s="1" t="n">
@@ -7661,10 +7661,10 @@
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>-3.1958275</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>1.2388364</v>
       </c>
       <c r="D83" s="1" t="n">
@@ -7682,10 +7682,10 @@
       <c r="A84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>-3.1958275</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>1.2388363</v>
       </c>
       <c r="D84" s="1" t="n">
@@ -7703,10 +7703,10 @@
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>-3.1958275</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>1.2388364</v>
       </c>
       <c r="D85" s="1" t="n">
@@ -7724,10 +7724,10 @@
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>-3.1958275</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>1.2388364</v>
       </c>
       <c r="D86" s="1" t="n">
@@ -7745,10 +7745,10 @@
       <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>-3.3194277</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>1.3539307</v>
       </c>
       <c r="D87" s="1" t="n">
@@ -7766,10 +7766,10 @@
       <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>-3.3194282</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>1.3539308</v>
       </c>
       <c r="D88" s="1" t="n">
@@ -7787,10 +7787,10 @@
       <c r="A89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>-3.3194275</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>1.3539307</v>
       </c>
       <c r="D89" s="1" t="n">
@@ -7808,10 +7808,10 @@
       <c r="A90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>-3.3194277</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>1.3539307</v>
       </c>
       <c r="D90" s="1" t="n">
@@ -7829,10 +7829,10 @@
       <c r="A91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>-3.319428</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>1.3539308</v>
       </c>
       <c r="D91" s="1" t="n">
@@ -7850,10 +7850,10 @@
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>-3.0001118</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>0.9345862</v>
       </c>
       <c r="D92" s="1" t="n">
@@ -7871,10 +7871,10 @@
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>-3.0001116</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>0.93458617</v>
       </c>
       <c r="D93" s="1" t="n">
@@ -7892,10 +7892,10 @@
       <c r="A94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>-3.000112</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>0.93458617</v>
       </c>
       <c r="D94" s="1" t="n">
@@ -7913,10 +7913,10 @@
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>-3.000112</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>0.9345863</v>
       </c>
       <c r="D95" s="1" t="n">
@@ -7934,10 +7934,10 @@
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>-3.0001118</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>0.93458635</v>
       </c>
       <c r="D96" s="1" t="n">
@@ -7955,10 +7955,10 @@
       <c r="A97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>-2.696161</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>0.80260146</v>
       </c>
       <c r="D97" s="1" t="n">
@@ -7976,10 +7976,10 @@
       <c r="A98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>-2.696161</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>0.8026014</v>
       </c>
       <c r="D98" s="1" t="n">
@@ -7997,10 +7997,10 @@
       <c r="A99" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>-2.6961608</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>0.8026014</v>
       </c>
       <c r="D99" s="1" t="n">
@@ -8018,10 +8018,10 @@
       <c r="A100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>-2.696161</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>0.80260146</v>
       </c>
       <c r="D100" s="1" t="n">
@@ -8039,10 +8039,10 @@
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>-2.696161</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>0.80260146</v>
       </c>
       <c r="D101" s="1" t="n">
@@ -8060,10 +8060,10 @@
       <c r="A102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>-4.2189083</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>1.0918368</v>
       </c>
       <c r="D102" s="1" t="n">
@@ -8081,10 +8081,10 @@
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>-4.2189083</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>1.0918369</v>
       </c>
       <c r="D103" s="1" t="n">
@@ -8102,10 +8102,10 @@
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>-4.2189083</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>1.0918368</v>
       </c>
       <c r="D104" s="1" t="n">
@@ -8123,10 +8123,10 @@
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>-4.2189083</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>1.0918367</v>
       </c>
       <c r="D105" s="1" t="n">
@@ -8144,10 +8144,10 @@
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>-4.2189083</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>1.0918368</v>
       </c>
       <c r="D106" s="1" t="n">
@@ -8165,10 +8165,10 @@
       <c r="A107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>-2.4980557</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>0.825026</v>
       </c>
       <c r="D107" s="1" t="n">
@@ -8186,10 +8186,10 @@
       <c r="A108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>-2.498056</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>0.8250259</v>
       </c>
       <c r="D108" s="1" t="n">
@@ -8207,10 +8207,10 @@
       <c r="A109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>-2.4980557</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>0.825026</v>
       </c>
       <c r="D109" s="1" t="n">
@@ -8228,10 +8228,10 @@
       <c r="A110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>-2.4980557</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>0.825026</v>
       </c>
       <c r="D110" s="1" t="n">
@@ -8249,10 +8249,10 @@
       <c r="A111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>-2.498056</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>0.8250259</v>
       </c>
       <c r="D111" s="1" t="n">
@@ -8270,10 +8270,10 @@
       <c r="A112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>-2.910052</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>0.94425803</v>
       </c>
       <c r="D112" s="1" t="n">
@@ -8291,10 +8291,10 @@
       <c r="A113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>-2.9100523</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>0.94425803</v>
       </c>
       <c r="D113" s="1" t="n">
@@ -8312,10 +8312,10 @@
       <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>-2.9100523</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>0.94425803</v>
       </c>
       <c r="D114" s="1" t="n">
@@ -8333,10 +8333,10 @@
       <c r="A115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>-2.910052</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>0.944258</v>
       </c>
       <c r="D115" s="1" t="n">
@@ -8354,10 +8354,10 @@
       <c r="A116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>-2.910052</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>0.9442581</v>
       </c>
       <c r="D116" s="1" t="n">
@@ -8375,10 +8375,10 @@
       <c r="A117" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>-2.4349425</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>0.78581</v>
       </c>
       <c r="D117" s="1" t="n">
@@ -8396,10 +8396,10 @@
       <c r="A118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>-2.4349425</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>0.78581</v>
       </c>
       <c r="D118" s="1" t="n">
@@ -8417,10 +8417,10 @@
       <c r="A119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>-2.4349425</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>0.78581005</v>
       </c>
       <c r="D119" s="1" t="n">
@@ -8438,10 +8438,10 @@
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>-2.4349425</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>0.78581</v>
       </c>
       <c r="D120" s="1" t="n">
@@ -8459,10 +8459,10 @@
       <c r="A121" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>-2.4349422</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>0.78581</v>
       </c>
       <c r="D121" s="1" t="n">
@@ -8480,10 +8480,10 @@
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>-2.5069032</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>0.7775595</v>
       </c>
       <c r="D122" s="1" t="n">
@@ -8501,10 +8501,10 @@
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>-2.506903</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>0.7775595</v>
       </c>
       <c r="D123" s="1" t="n">
@@ -8522,10 +8522,10 @@
       <c r="A124" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>-2.5069032</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>0.7775596</v>
       </c>
       <c r="D124" s="1" t="n">
@@ -8543,10 +8543,10 @@
       <c r="A125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>-2.506903</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>0.77755946</v>
       </c>
       <c r="D125" s="1" t="n">
@@ -8564,10 +8564,10 @@
       <c r="A126" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>-2.506903</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>0.77755946</v>
       </c>
       <c r="D126" s="1" t="n">
@@ -8585,10 +8585,10 @@
       <c r="A127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>-1.8006035</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>0.7106387</v>
       </c>
       <c r="D127" s="1" t="n">
@@ -8606,10 +8606,10 @@
       <c r="A128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>-1.8006034</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>0.71063876</v>
       </c>
       <c r="D128" s="1" t="n">
@@ -8627,10 +8627,10 @@
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>-1.8006035</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>0.7106387</v>
       </c>
       <c r="D129" s="1" t="n">
@@ -8648,10 +8648,10 @@
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>-1.8006035</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>0.7106387</v>
       </c>
       <c r="D130" s="1" t="n">
@@ -8669,10 +8669,10 @@
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>-1.8006035</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>0.71063876</v>
       </c>
       <c r="D131" s="1" t="n">
@@ -8690,10 +8690,10 @@
       <c r="A132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>-1.4574987</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>0.5447406</v>
       </c>
       <c r="D132" s="1" t="n">
@@ -8711,10 +8711,10 @@
       <c r="A133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>-1.4574986</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>0.5447406</v>
       </c>
       <c r="D133" s="1" t="n">
@@ -8732,10 +8732,10 @@
       <c r="A134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>-1.4574988</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>0.54474056</v>
       </c>
       <c r="D134" s="1" t="n">
@@ -8753,10 +8753,10 @@
       <c r="A135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>-1.4574984</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>0.54474056</v>
       </c>
       <c r="D135" s="1" t="n">
@@ -8774,10 +8774,10 @@
       <c r="A136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>-1.4574987</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>0.5447405</v>
       </c>
       <c r="D136" s="1" t="n">
@@ -8795,10 +8795,10 @@
       <c r="A137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>-2.7527626</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>0.9271789</v>
       </c>
       <c r="D137" s="1" t="n">
@@ -8816,10 +8816,10 @@
       <c r="A138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>-2.752763</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>0.9271789</v>
       </c>
       <c r="D138" s="1" t="n">
@@ -8837,10 +8837,10 @@
       <c r="A139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>-2.7527628</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>0.92717886</v>
       </c>
       <c r="D139" s="1" t="n">
@@ -8858,10 +8858,10 @@
       <c r="A140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>-2.7527628</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>0.9271789</v>
       </c>
       <c r="D140" s="1" t="n">
@@ -8879,10 +8879,10 @@
       <c r="A141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>-2.7527628</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>0.927179</v>
       </c>
       <c r="D141" s="1" t="n">
@@ -8900,10 +8900,10 @@
       <c r="A142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>-4.588131</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>0.7337144</v>
       </c>
       <c r="D142" s="1" t="n">
@@ -8921,10 +8921,10 @@
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>-4.5881305</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>0.7337143</v>
       </c>
       <c r="D143" s="1" t="n">
@@ -8942,10 +8942,10 @@
       <c r="A144" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>-4.5881305</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>0.73371434</v>
       </c>
       <c r="D144" s="1" t="n">
@@ -8963,10 +8963,10 @@
       <c r="A145" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>-4.588131</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>0.7337144</v>
       </c>
       <c r="D145" s="1" t="n">
@@ -8984,10 +8984,10 @@
       <c r="A146" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>-4.5881305</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>0.7337143</v>
       </c>
       <c r="D146" s="1" t="n">
@@ -9005,10 +9005,10 @@
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>-3.3556287</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>1.0160342</v>
       </c>
       <c r="D147" s="1" t="n">
@@ -9026,10 +9026,10 @@
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>-3.3556285</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>1.0160342</v>
       </c>
       <c r="D148" s="1" t="n">
@@ -9047,10 +9047,10 @@
       <c r="A149" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>-3.3556287</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>1.0160342</v>
       </c>
       <c r="D149" s="1" t="n">
@@ -9068,10 +9068,10 @@
       <c r="A150" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>-3.355629</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>1.0160342</v>
       </c>
       <c r="D150" s="1" t="n">
@@ -9089,10 +9089,10 @@
       <c r="A151" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>-3.355629</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>1.0160342</v>
       </c>
       <c r="D151" s="1" t="n">
@@ -9110,10 +9110,10 @@
       <c r="A152" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>-2.9702723</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>1.0210004</v>
       </c>
       <c r="D152" s="1" t="n">
@@ -9131,10 +9131,10 @@
       <c r="A153" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>-2.9702725</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>1.0210004</v>
       </c>
       <c r="D153" s="1" t="n">
@@ -9152,10 +9152,10 @@
       <c r="A154" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>-2.9702725</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>1.0210005</v>
       </c>
       <c r="D154" s="1" t="n">
@@ -9173,10 +9173,10 @@
       <c r="A155" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155" s="1" t="n">
         <v>-2.9702725</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>1.0210005</v>
       </c>
       <c r="D155" s="1" t="n">
@@ -9194,10 +9194,10 @@
       <c r="A156" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156" s="1" t="n">
         <v>-2.9702725</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>1.0210005</v>
       </c>
       <c r="D156" s="1" t="n">
@@ -9215,10 +9215,10 @@
       <c r="A157" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>-2.2679708</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>0.96845466</v>
       </c>
       <c r="D157" s="1" t="n">
@@ -9236,10 +9236,10 @@
       <c r="A158" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158" s="1" t="n">
         <v>-2.2679708</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>0.9684546</v>
       </c>
       <c r="D158" s="1" t="n">
@@ -9257,10 +9257,10 @@
       <c r="A159" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159" s="1" t="n">
         <v>-2.267971</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>0.96845466</v>
       </c>
       <c r="D159" s="1" t="n">
@@ -9278,10 +9278,10 @@
       <c r="A160" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160" s="1" t="n">
         <v>-2.2679708</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>0.9684546</v>
       </c>
       <c r="D160" s="1" t="n">
@@ -9299,10 +9299,10 @@
       <c r="A161" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>-2.267971</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>0.9684546</v>
       </c>
       <c r="D161" s="1" t="n">
@@ -9320,10 +9320,10 @@
       <c r="A162" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162" s="1" t="n">
         <v>-1.2519287</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="1" t="n">
         <v>0.6297602</v>
       </c>
       <c r="D162" s="1" t="n">
@@ -9341,10 +9341,10 @@
       <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163" s="1" t="n">
         <v>-1.2519286</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="1" t="n">
         <v>0.6297602</v>
       </c>
       <c r="D163" s="1" t="n">
@@ -9362,10 +9362,10 @@
       <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164" s="1" t="n">
         <v>-1.2519287</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="1" t="n">
         <v>0.6297602</v>
       </c>
       <c r="D164" s="1" t="n">
@@ -9383,10 +9383,10 @@
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>-1.2519286</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="1" t="n">
         <v>0.62976027</v>
       </c>
       <c r="D165" s="1" t="n">
@@ -9404,10 +9404,10 @@
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166" s="1" t="n">
         <v>-1.2519287</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="1" t="n">
         <v>0.62976027</v>
       </c>
       <c r="D166" s="1" t="n">
@@ -9425,10 +9425,10 @@
       <c r="A167" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167" s="1" t="n">
         <v>-2.5365736</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>1.1299747</v>
       </c>
       <c r="D167" s="1" t="n">
@@ -9446,10 +9446,10 @@
       <c r="A168" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168" s="1" t="n">
         <v>-2.536574</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" s="1" t="n">
         <v>1.1299747</v>
       </c>
       <c r="D168" s="1" t="n">
@@ -9467,10 +9467,10 @@
       <c r="A169" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>-2.5365734</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>1.1299746</v>
       </c>
       <c r="D169" s="1" t="n">
@@ -9488,10 +9488,10 @@
       <c r="A170" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170" s="1" t="n">
         <v>-2.5365736</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>1.1299747</v>
       </c>
       <c r="D170" s="1" t="n">
@@ -9509,10 +9509,10 @@
       <c r="A171" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171" s="1" t="n">
         <v>-2.536574</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>1.1299748</v>
       </c>
       <c r="D171" s="1" t="n">
@@ -9530,10 +9530,10 @@
       <c r="A172" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172" s="1" t="n">
         <v>-2.063431</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>0.8098804</v>
       </c>
       <c r="D172" s="1" t="n">
@@ -9551,10 +9551,10 @@
       <c r="A173" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>-2.063431</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>0.8098805</v>
       </c>
       <c r="D173" s="1" t="n">
@@ -9572,10 +9572,10 @@
       <c r="A174" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174" s="1" t="n">
         <v>-2.0634313</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" s="1" t="n">
         <v>0.8098804</v>
       </c>
       <c r="D174" s="1" t="n">
@@ -9593,10 +9593,10 @@
       <c r="A175" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175" s="1" t="n">
         <v>-2.063431</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" s="1" t="n">
         <v>0.8098803</v>
       </c>
       <c r="D175" s="1" t="n">
@@ -9614,10 +9614,10 @@
       <c r="A176" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176" s="1" t="n">
         <v>-2.063431</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" s="1" t="n">
         <v>0.80988044</v>
       </c>
       <c r="D176" s="1" t="n">
@@ -9635,10 +9635,10 @@
       <c r="A177" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>-2.9306567</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>1.2135917</v>
       </c>
       <c r="D177" s="1" t="n">
@@ -9656,10 +9656,10 @@
       <c r="A178" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178" s="1" t="n">
         <v>-2.930657</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>1.2135916</v>
       </c>
       <c r="D178" s="1" t="n">
@@ -9677,10 +9677,10 @@
       <c r="A179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179" s="1" t="n">
         <v>-2.9306571</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>1.2135917</v>
       </c>
       <c r="D179" s="1" t="n">
@@ -9698,10 +9698,10 @@
       <c r="A180" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180" s="1" t="n">
         <v>-2.930657</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>1.2135918</v>
       </c>
       <c r="D180" s="1" t="n">
@@ -9719,10 +9719,10 @@
       <c r="A181" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>-2.930657</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" s="1" t="n">
         <v>1.2135917</v>
       </c>
       <c r="D181" s="1" t="n">
@@ -9740,10 +9740,10 @@
       <c r="A182" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182" s="1" t="n">
         <v>-0.829875</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>0.5271662</v>
       </c>
       <c r="D182" s="1" t="n">
@@ -9761,10 +9761,10 @@
       <c r="A183" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183" s="1" t="n">
         <v>-0.8298749</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>0.5271662</v>
       </c>
       <c r="D183" s="1" t="n">
@@ -9782,10 +9782,10 @@
       <c r="A184" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184" s="1" t="n">
         <v>-0.8298749</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" s="1" t="n">
         <v>0.5271662</v>
       </c>
       <c r="D184" s="1" t="n">
@@ -9803,10 +9803,10 @@
       <c r="A185" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>-0.8298749</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" s="1" t="n">
         <v>0.5271662</v>
       </c>
       <c r="D185" s="1" t="n">
@@ -9824,10 +9824,10 @@
       <c r="A186" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186" s="1" t="n">
         <v>-0.829875</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186" s="1" t="n">
         <v>0.5271662</v>
       </c>
       <c r="D186" s="1" t="n">
@@ -9845,10 +9845,10 @@
       <c r="A187" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187" s="1" t="n">
         <v>-2.0495894</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187" s="1" t="n">
         <v>0.6686157</v>
       </c>
       <c r="D187" s="1" t="n">
@@ -9866,10 +9866,10 @@
       <c r="A188" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188" s="1" t="n">
         <v>-2.0495894</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" s="1" t="n">
         <v>0.6686156</v>
       </c>
       <c r="D188" s="1" t="n">
@@ -9887,10 +9887,10 @@
       <c r="A189" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189" s="1" t="n">
         <v>-2.0495896</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189" s="1" t="n">
         <v>0.66861564</v>
       </c>
       <c r="D189" s="1" t="n">
@@ -9908,10 +9908,10 @@
       <c r="A190" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190" s="1" t="n">
         <v>-2.0495899</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190" s="1" t="n">
         <v>0.6686157</v>
       </c>
       <c r="D190" s="1" t="n">
@@ -9929,10 +9929,10 @@
       <c r="A191" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191" s="1" t="n">
         <v>-2.0495896</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191" s="1" t="n">
         <v>0.6686157</v>
       </c>
       <c r="D191" s="1" t="n">
@@ -9950,10 +9950,10 @@
       <c r="A192" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192" s="1" t="n">
         <v>-1.7664764</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192" s="1" t="n">
         <v>0.6483633</v>
       </c>
       <c r="D192" s="1" t="n">
@@ -9971,10 +9971,10 @@
       <c r="A193" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193" s="1" t="n">
         <v>-1.7664766</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193" s="1" t="n">
         <v>0.64836323</v>
       </c>
       <c r="D193" s="1" t="n">
@@ -9992,10 +9992,10 @@
       <c r="A194" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194" s="1" t="n">
         <v>-1.7664765</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194" s="1" t="n">
         <v>0.6483632</v>
       </c>
       <c r="D194" s="1" t="n">
@@ -10013,10 +10013,10 @@
       <c r="A195" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195" s="1" t="n">
         <v>-1.7664766</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195" s="1" t="n">
         <v>0.64836323</v>
       </c>
       <c r="D195" s="1" t="n">
@@ -10034,10 +10034,10 @@
       <c r="A196" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196" s="1" t="n">
         <v>-1.7664765</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" s="1" t="n">
         <v>0.6483632</v>
       </c>
       <c r="D196" s="1" t="n">
@@ -10055,10 +10055,10 @@
       <c r="A197" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197" s="1" t="n">
         <v>-1.9454777</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" s="1" t="n">
         <v>0.696742</v>
       </c>
       <c r="D197" s="1" t="n">
@@ -10076,10 +10076,10 @@
       <c r="A198" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198" s="1" t="n">
         <v>-1.945478</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="1" t="n">
         <v>0.69674206</v>
       </c>
       <c r="D198" s="1" t="n">
@@ -10097,10 +10097,10 @@
       <c r="A199" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199" s="1" t="n">
         <v>-1.9454777</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" s="1" t="n">
         <v>0.69674194</v>
       </c>
       <c r="D199" s="1" t="n">
@@ -10118,10 +10118,10 @@
       <c r="A200" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200" s="1" t="n">
         <v>-1.9454777</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" s="1" t="n">
         <v>0.696742</v>
       </c>
       <c r="D200" s="1" t="n">
@@ -10139,10 +10139,10 @@
       <c r="A201" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201" s="1" t="n">
         <v>-1.9454777</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" s="1" t="n">
         <v>0.69674206</v>
       </c>
       <c r="D201" s="1" t="n">
@@ -10160,10 +10160,10 @@
       <c r="A202" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202" s="1" t="n">
         <v>-2.3591535</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" s="1" t="n">
         <v>0.6961221</v>
       </c>
       <c r="D202" s="1" t="n">
@@ -10181,10 +10181,10 @@
       <c r="A203" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203" s="1" t="n">
         <v>-2.3591533</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" s="1" t="n">
         <v>0.69612217</v>
       </c>
       <c r="D203" s="1" t="n">
@@ -10202,10 +10202,10 @@
       <c r="A204" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204" s="1" t="n">
         <v>-2.3591535</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" s="1" t="n">
         <v>0.6961221</v>
       </c>
       <c r="D204" s="1" t="n">
@@ -10223,10 +10223,10 @@
       <c r="A205" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205" s="1" t="n">
         <v>-2.3591537</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="1" t="n">
         <v>0.6961221</v>
       </c>
       <c r="D205" s="1" t="n">
@@ -10244,10 +10244,10 @@
       <c r="A206" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206" s="1" t="n">
         <v>-2.3591533</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206" s="1" t="n">
         <v>0.69612205</v>
       </c>
       <c r="D206" s="1" t="n">
@@ -10265,10 +10265,10 @@
       <c r="A207" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207" s="1" t="n">
         <v>-0.82219505</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207" s="1" t="n">
         <v>0.59772396</v>
       </c>
       <c r="D207" s="1" t="n">
@@ -10286,10 +10286,10 @@
       <c r="A208" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208" s="1" t="n">
         <v>-0.82219505</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208" s="1" t="n">
         <v>0.5977239</v>
       </c>
       <c r="D208" s="1" t="n">
@@ -10307,10 +10307,10 @@
       <c r="A209" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209" s="1" t="n">
         <v>-0.82219505</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209" s="1" t="n">
         <v>0.5977239</v>
       </c>
       <c r="D209" s="1" t="n">
@@ -10328,10 +10328,10 @@
       <c r="A210" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210" s="1" t="n">
         <v>-0.8221952</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210" s="1" t="n">
         <v>0.59772396</v>
       </c>
       <c r="D210" s="1" t="n">
@@ -10349,10 +10349,10 @@
       <c r="A211" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211" s="1" t="n">
         <v>-0.8221953</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211" s="1" t="n">
         <v>0.59772396</v>
       </c>
       <c r="D211" s="1" t="n">
@@ -10370,10 +10370,10 @@
       <c r="A212" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212" s="1" t="n">
         <v>-1.4118224</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212" s="1" t="n">
         <v>0.60164386</v>
       </c>
       <c r="D212" s="1" t="n">
@@ -10391,10 +10391,10 @@
       <c r="A213" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213" s="1" t="n">
         <v>-1.4118224</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213" s="1" t="n">
         <v>0.6016438</v>
       </c>
       <c r="D213" s="1" t="n">
@@ -10412,10 +10412,10 @@
       <c r="A214" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214" s="1" t="n">
         <v>-1.4118227</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214" s="1" t="n">
         <v>0.6016438</v>
       </c>
       <c r="D214" s="1" t="n">
@@ -10433,10 +10433,10 @@
       <c r="A215" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215" s="1" t="n">
         <v>-1.4118226</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215" s="1" t="n">
         <v>0.60164374</v>
       </c>
       <c r="D215" s="1" t="n">
@@ -10454,10 +10454,10 @@
       <c r="A216" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216" s="1" t="n">
         <v>-1.4118227</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216" s="1" t="n">
         <v>0.60164374</v>
       </c>
       <c r="D216" s="1" t="n">
@@ -10475,10 +10475,10 @@
       <c r="A217" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217" s="1" t="n">
         <v>-2.3061798</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217" s="1" t="n">
         <v>0.7271371</v>
       </c>
       <c r="D217" s="1" t="n">
@@ -10496,10 +10496,10 @@
       <c r="A218" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218" s="1" t="n">
         <v>-2.3061798</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218" s="1" t="n">
         <v>0.72713715</v>
       </c>
       <c r="D218" s="1" t="n">
@@ -10517,10 +10517,10 @@
       <c r="A219" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219" s="1" t="n">
         <v>-2.30618</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219" s="1" t="n">
         <v>0.72713715</v>
       </c>
       <c r="D219" s="1" t="n">
@@ -10538,10 +10538,10 @@
       <c r="A220" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220" s="1" t="n">
         <v>-2.3061798</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C220" s="1" t="n">
         <v>0.7271371</v>
       </c>
       <c r="D220" s="1" t="n">
@@ -10559,10 +10559,10 @@
       <c r="A221" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221" s="1" t="n">
         <v>-2.30618</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C221" s="1" t="n">
         <v>0.72713715</v>
       </c>
       <c r="D221" s="1" t="n">
@@ -10580,10 +10580,10 @@
       <c r="A222" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222" s="1" t="n">
         <v>-1.4904765</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C222" s="1" t="n">
         <v>0.81029177</v>
       </c>
       <c r="D222" s="1" t="n">
@@ -10601,10 +10601,10 @@
       <c r="A223" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223" s="1" t="n">
         <v>-1.4904764</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223" s="1" t="n">
         <v>0.8102917</v>
       </c>
       <c r="D223" s="1" t="n">
@@ -10622,10 +10622,10 @@
       <c r="A224" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B224" s="1" t="n">
         <v>-1.4904764</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C224" s="1" t="n">
         <v>0.8102915</v>
       </c>
       <c r="D224" s="1" t="n">
@@ -10643,10 +10643,10 @@
       <c r="A225" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B225" s="1" t="n">
         <v>-1.4904765</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C225" s="1" t="n">
         <v>0.81029165</v>
       </c>
       <c r="D225" s="1" t="n">
@@ -10664,10 +10664,10 @@
       <c r="A226" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B226" s="1" t="n">
         <v>-1.4904764</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C226" s="1" t="n">
         <v>0.8102917</v>
       </c>
       <c r="D226" s="1" t="n">
@@ -10685,10 +10685,10 @@
       <c r="A227" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227" s="1" t="n">
         <v>-2.1262121</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C227" s="1" t="n">
         <v>0.6679663</v>
       </c>
       <c r="D227" s="1" t="n">
@@ -10706,10 +10706,10 @@
       <c r="A228" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228" s="1" t="n">
         <v>-2.126212</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C228" s="1" t="n">
         <v>0.6679663</v>
       </c>
       <c r="D228" s="1" t="n">
@@ -10727,10 +10727,10 @@
       <c r="A229" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229" s="1" t="n">
         <v>-2.126212</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C229" s="1" t="n">
         <v>0.6679663</v>
       </c>
       <c r="D229" s="1" t="n">
@@ -10748,10 +10748,10 @@
       <c r="A230" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B230" s="1" t="n">
         <v>-2.126212</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C230" s="1" t="n">
         <v>0.6679663</v>
       </c>
       <c r="D230" s="1" t="n">
@@ -10769,10 +10769,10 @@
       <c r="A231" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B231" s="1" t="n">
         <v>-2.1262116</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C231" s="1" t="n">
         <v>0.6679663</v>
       </c>
       <c r="D231" s="1" t="n">
@@ -10790,10 +10790,10 @@
       <c r="A232" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B232" s="1" t="n">
         <v>-2.3837674</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C232" s="1" t="n">
         <v>1.312776</v>
       </c>
       <c r="D232" s="1" t="n">
@@ -10811,10 +10811,10 @@
       <c r="A233" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B233" s="1" t="n">
         <v>-2.3837674</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C233" s="1" t="n">
         <v>1.3127757</v>
       </c>
       <c r="D233" s="1" t="n">
@@ -10832,10 +10832,10 @@
       <c r="A234" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B234" s="1" t="n">
         <v>-2.3837674</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C234" s="1" t="n">
         <v>1.3127759</v>
       </c>
       <c r="D234" s="1" t="n">
@@ -10853,10 +10853,10 @@
       <c r="A235" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B235" s="1" t="n">
         <v>-2.383767</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C235" s="1" t="n">
         <v>1.3127757</v>
       </c>
       <c r="D235" s="1" t="n">
@@ -10874,10 +10874,10 @@
       <c r="A236" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B236" s="1" t="n">
         <v>-2.3837671</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C236" s="1" t="n">
         <v>1.3127757</v>
       </c>
       <c r="D236" s="1" t="n">
@@ -10895,10 +10895,10 @@
       <c r="A237" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B237" s="0" t="n">
+      <c r="B237" s="1" t="n">
         <v>-2.2735238</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C237" s="1" t="n">
         <v>0.81549406</v>
       </c>
       <c r="D237" s="1" t="n">
@@ -10916,10 +10916,10 @@
       <c r="A238" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B238" s="0" t="n">
+      <c r="B238" s="1" t="n">
         <v>-2.2735238</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C238" s="1" t="n">
         <v>0.81549406</v>
       </c>
       <c r="D238" s="1" t="n">
@@ -10937,10 +10937,10 @@
       <c r="A239" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B239" s="0" t="n">
+      <c r="B239" s="1" t="n">
         <v>-2.273524</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C239" s="1" t="n">
         <v>0.8154943</v>
       </c>
       <c r="D239" s="1" t="n">
@@ -10958,10 +10958,10 @@
       <c r="A240" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B240" s="0" t="n">
+      <c r="B240" s="1" t="n">
         <v>-2.273524</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C240" s="1" t="n">
         <v>0.8154941</v>
       </c>
       <c r="D240" s="1" t="n">
@@ -10979,10 +10979,10 @@
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B241" s="0" t="n">
+      <c r="B241" s="1" t="n">
         <v>-2.273524</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C241" s="1" t="n">
         <v>0.81549406</v>
       </c>
       <c r="D241" s="1" t="n">
@@ -11000,10 +11000,10 @@
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B242" s="0" t="n">
+      <c r="B242" s="1" t="n">
         <v>-2.6137974</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C242" s="1" t="n">
         <v>0.9947726</v>
       </c>
       <c r="D242" s="1" t="n">
@@ -11021,10 +11021,10 @@
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B243" s="0" t="n">
+      <c r="B243" s="1" t="n">
         <v>-2.6137977</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C243" s="1" t="n">
         <v>0.9947726</v>
       </c>
       <c r="D243" s="1" t="n">
@@ -11042,10 +11042,10 @@
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B244" s="0" t="n">
+      <c r="B244" s="1" t="n">
         <v>-2.6137977</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C244" s="1" t="n">
         <v>0.99477273</v>
       </c>
       <c r="D244" s="1" t="n">
@@ -11063,10 +11063,10 @@
       <c r="A245" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="0" t="n">
+      <c r="B245" s="1" t="n">
         <v>-2.6137977</v>
       </c>
-      <c r="C245" s="0" t="n">
+      <c r="C245" s="1" t="n">
         <v>0.99477255</v>
       </c>
       <c r="D245" s="1" t="n">
@@ -11084,10 +11084,10 @@
       <c r="A246" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B246" s="0" t="n">
+      <c r="B246" s="1" t="n">
         <v>-2.6137977</v>
       </c>
-      <c r="C246" s="0" t="n">
+      <c r="C246" s="1" t="n">
         <v>0.99477255</v>
       </c>
       <c r="D246" s="1" t="n">
@@ -11105,10 +11105,10 @@
       <c r="A247" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B247" s="0" t="n">
+      <c r="B247" s="1" t="n">
         <v>-2.5119734</v>
       </c>
-      <c r="C247" s="0" t="n">
+      <c r="C247" s="1" t="n">
         <v>0.7548717</v>
       </c>
       <c r="D247" s="1" t="n">
@@ -11126,10 +11126,10 @@
       <c r="A248" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B248" s="0" t="n">
+      <c r="B248" s="1" t="n">
         <v>-2.5119734</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C248" s="1" t="n">
         <v>0.75487185</v>
       </c>
       <c r="D248" s="1" t="n">
@@ -11147,10 +11147,10 @@
       <c r="A249" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B249" s="0" t="n">
+      <c r="B249" s="1" t="n">
         <v>-2.5119734</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C249" s="1" t="n">
         <v>0.7548717</v>
       </c>
       <c r="D249" s="1" t="n">
@@ -11168,10 +11168,10 @@
       <c r="A250" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B250" s="0" t="n">
+      <c r="B250" s="1" t="n">
         <v>-2.5119734</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C250" s="1" t="n">
         <v>0.7548717</v>
       </c>
       <c r="D250" s="1" t="n">
@@ -11189,10 +11189,10 @@
       <c r="A251" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B251" s="0" t="n">
+      <c r="B251" s="1" t="n">
         <v>-2.5119736</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C251" s="1" t="n">
         <v>0.7548717</v>
       </c>
       <c r="D251" s="1" t="n">
@@ -11210,10 +11210,10 @@
       <c r="A252" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B252" s="0" t="n">
+      <c r="B252" s="1" t="n">
         <v>-2.2970564</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252" s="1" t="n">
         <v>0.68486536</v>
       </c>
       <c r="D252" s="1" t="n">
@@ -11231,10 +11231,10 @@
       <c r="A253" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B253" s="0" t="n">
+      <c r="B253" s="1" t="n">
         <v>-2.2970567</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253" s="1" t="n">
         <v>0.6848655</v>
       </c>
       <c r="D253" s="1" t="n">
@@ -11252,10 +11252,10 @@
       <c r="A254" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B254" s="0" t="n">
+      <c r="B254" s="1" t="n">
         <v>-2.2970567</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254" s="1" t="n">
         <v>0.6848655</v>
       </c>
       <c r="D254" s="1" t="n">
@@ -11273,10 +11273,10 @@
       <c r="A255" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B255" s="0" t="n">
+      <c r="B255" s="1" t="n">
         <v>-2.297057</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255" s="1" t="n">
         <v>0.68486553</v>
       </c>
       <c r="D255" s="1" t="n">
@@ -11294,10 +11294,10 @@
       <c r="A256" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B256" s="0" t="n">
+      <c r="B256" s="1" t="n">
         <v>-2.2970567</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256" s="1" t="n">
         <v>0.6848655</v>
       </c>
       <c r="D256" s="1" t="n">
@@ -11315,10 +11315,10 @@
       <c r="A257" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B257" s="0" t="n">
+      <c r="B257" s="1" t="n">
         <v>-2.8860672</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257" s="1" t="n">
         <v>1.0078456</v>
       </c>
       <c r="D257" s="1" t="n">
@@ -11336,10 +11336,10 @@
       <c r="A258" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B258" s="0" t="n">
+      <c r="B258" s="1" t="n">
         <v>-2.8860674</v>
       </c>
-      <c r="C258" s="0" t="n">
+      <c r="C258" s="1" t="n">
         <v>1.0078456</v>
       </c>
       <c r="D258" s="1" t="n">
@@ -11357,10 +11357,10 @@
       <c r="A259" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B259" s="0" t="n">
+      <c r="B259" s="1" t="n">
         <v>-2.8860674</v>
       </c>
-      <c r="C259" s="0" t="n">
+      <c r="C259" s="1" t="n">
         <v>1.0078456</v>
       </c>
       <c r="D259" s="1" t="n">
@@ -11378,10 +11378,10 @@
       <c r="A260" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B260" s="0" t="n">
+      <c r="B260" s="1" t="n">
         <v>-2.8860672</v>
       </c>
-      <c r="C260" s="0" t="n">
+      <c r="C260" s="1" t="n">
         <v>1.0078456</v>
       </c>
       <c r="D260" s="1" t="n">
@@ -11399,10 +11399,10 @@
       <c r="A261" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B261" s="1" t="n">
         <v>-2.8860672</v>
       </c>
-      <c r="C261" s="0" t="n">
+      <c r="C261" s="1" t="n">
         <v>1.0078458</v>
       </c>
       <c r="D261" s="1" t="n">
@@ -11420,10 +11420,10 @@
       <c r="A262" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B262" s="1" t="n">
         <v>-2.0712688</v>
       </c>
-      <c r="C262" s="0" t="n">
+      <c r="C262" s="1" t="n">
         <v>1.033584</v>
       </c>
       <c r="D262" s="1" t="n">
@@ -11441,10 +11441,10 @@
       <c r="A263" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B263" s="1" t="n">
         <v>-2.0712693</v>
       </c>
-      <c r="C263" s="0" t="n">
+      <c r="C263" s="1" t="n">
         <v>1.0335841</v>
       </c>
       <c r="D263" s="1" t="n">
@@ -11462,10 +11462,10 @@
       <c r="A264" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B264" s="1" t="n">
         <v>-2.0712688</v>
       </c>
-      <c r="C264" s="0" t="n">
+      <c r="C264" s="1" t="n">
         <v>1.0335841</v>
       </c>
       <c r="D264" s="1" t="n">
@@ -11483,10 +11483,10 @@
       <c r="A265" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B265" s="0" t="n">
+      <c r="B265" s="1" t="n">
         <v>-2.0712686</v>
       </c>
-      <c r="C265" s="0" t="n">
+      <c r="C265" s="1" t="n">
         <v>1.0335841</v>
       </c>
       <c r="D265" s="1" t="n">
@@ -11504,10 +11504,10 @@
       <c r="A266" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B266" s="0" t="n">
+      <c r="B266" s="1" t="n">
         <v>-2.0712688</v>
       </c>
-      <c r="C266" s="0" t="n">
+      <c r="C266" s="1" t="n">
         <v>1.0335841</v>
       </c>
       <c r="D266" s="1" t="n">
@@ -11525,10 +11525,10 @@
       <c r="A267" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B267" s="1" t="n">
         <v>-1.9063115</v>
       </c>
-      <c r="C267" s="0" t="n">
+      <c r="C267" s="1" t="n">
         <v>0.9016698</v>
       </c>
       <c r="D267" s="1" t="n">
@@ -11546,10 +11546,10 @@
       <c r="A268" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B268" s="1" t="n">
         <v>-1.9063114</v>
       </c>
-      <c r="C268" s="0" t="n">
+      <c r="C268" s="1" t="n">
         <v>0.9016698</v>
       </c>
       <c r="D268" s="1" t="n">
@@ -11567,10 +11567,10 @@
       <c r="A269" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B269" s="0" t="n">
+      <c r="B269" s="1" t="n">
         <v>-1.9063113</v>
       </c>
-      <c r="C269" s="0" t="n">
+      <c r="C269" s="1" t="n">
         <v>0.9016698</v>
       </c>
       <c r="D269" s="1" t="n">
@@ -11588,10 +11588,10 @@
       <c r="A270" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B270" s="0" t="n">
+      <c r="B270" s="1" t="n">
         <v>-1.9063116</v>
       </c>
-      <c r="C270" s="0" t="n">
+      <c r="C270" s="1" t="n">
         <v>0.9016698</v>
       </c>
       <c r="D270" s="1" t="n">
@@ -11609,10 +11609,10 @@
       <c r="A271" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B271" s="0" t="n">
+      <c r="B271" s="1" t="n">
         <v>-1.9063118</v>
       </c>
-      <c r="C271" s="0" t="n">
+      <c r="C271" s="1" t="n">
         <v>0.9016698</v>
       </c>
       <c r="D271" s="1" t="n">
@@ -11630,10 +11630,10 @@
       <c r="A272" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B272" s="0" t="n">
+      <c r="B272" s="1" t="n">
         <v>-1.5275036</v>
       </c>
-      <c r="C272" s="0" t="n">
+      <c r="C272" s="1" t="n">
         <v>0.86597717</v>
       </c>
       <c r="D272" s="1" t="n">
@@ -11651,10 +11651,10 @@
       <c r="A273" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B273" s="0" t="n">
+      <c r="B273" s="1" t="n">
         <v>-1.527504</v>
       </c>
-      <c r="C273" s="0" t="n">
+      <c r="C273" s="1" t="n">
         <v>0.86597717</v>
       </c>
       <c r="D273" s="1" t="n">
@@ -11672,10 +11672,10 @@
       <c r="A274" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B274" s="0" t="n">
+      <c r="B274" s="1" t="n">
         <v>-1.5275035</v>
       </c>
-      <c r="C274" s="0" t="n">
+      <c r="C274" s="1" t="n">
         <v>0.8659772</v>
       </c>
       <c r="D274" s="1" t="n">
@@ -11693,10 +11693,10 @@
       <c r="A275" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B275" s="0" t="n">
+      <c r="B275" s="1" t="n">
         <v>-1.5275037</v>
       </c>
-      <c r="C275" s="0" t="n">
+      <c r="C275" s="1" t="n">
         <v>0.8659772</v>
       </c>
       <c r="D275" s="1" t="n">
@@ -11714,10 +11714,10 @@
       <c r="A276" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B276" s="0" t="n">
+      <c r="B276" s="1" t="n">
         <v>-1.5275037</v>
       </c>
-      <c r="C276" s="0" t="n">
+      <c r="C276" s="1" t="n">
         <v>0.8659771</v>
       </c>
       <c r="D276" s="1" t="n">
@@ -11735,10 +11735,10 @@
       <c r="A277" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B277" s="0" t="n">
+      <c r="B277" s="1" t="n">
         <v>-2.3007529</v>
       </c>
-      <c r="C277" s="0" t="n">
+      <c r="C277" s="1" t="n">
         <v>0.81618977</v>
       </c>
       <c r="D277" s="1" t="n">
@@ -11756,10 +11756,10 @@
       <c r="A278" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B278" s="0" t="n">
+      <c r="B278" s="1" t="n">
         <v>-2.3007529</v>
       </c>
-      <c r="C278" s="0" t="n">
+      <c r="C278" s="1" t="n">
         <v>0.81618977</v>
       </c>
       <c r="D278" s="1" t="n">
@@ -11777,10 +11777,10 @@
       <c r="A279" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B279" s="0" t="n">
+      <c r="B279" s="1" t="n">
         <v>-2.300753</v>
       </c>
-      <c r="C279" s="0" t="n">
+      <c r="C279" s="1" t="n">
         <v>0.8161896</v>
       </c>
       <c r="D279" s="1" t="n">
@@ -11798,10 +11798,10 @@
       <c r="A280" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B280" s="0" t="n">
+      <c r="B280" s="1" t="n">
         <v>-2.300753</v>
       </c>
-      <c r="C280" s="0" t="n">
+      <c r="C280" s="1" t="n">
         <v>0.81618977</v>
       </c>
       <c r="D280" s="1" t="n">
@@ -11819,10 +11819,10 @@
       <c r="A281" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B281" s="0" t="n">
+      <c r="B281" s="1" t="n">
         <v>-2.3007529</v>
       </c>
-      <c r="C281" s="0" t="n">
+      <c r="C281" s="1" t="n">
         <v>0.81618977</v>
       </c>
       <c r="D281" s="1" t="n">
@@ -11840,10 +11840,10 @@
       <c r="A282" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B282" s="0" t="n">
+      <c r="B282" s="1" t="n">
         <v>-1.5097443</v>
       </c>
-      <c r="C282" s="0" t="n">
+      <c r="C282" s="1" t="n">
         <v>0.6940465</v>
       </c>
       <c r="D282" s="1" t="n">
@@ -11861,10 +11861,10 @@
       <c r="A283" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B283" s="0" t="n">
+      <c r="B283" s="1" t="n">
         <v>-1.5097443</v>
       </c>
-      <c r="C283" s="0" t="n">
+      <c r="C283" s="1" t="n">
         <v>0.6940466</v>
       </c>
       <c r="D283" s="1" t="n">
@@ -11882,10 +11882,10 @@
       <c r="A284" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B284" s="0" t="n">
+      <c r="B284" s="1" t="n">
         <v>-1.5097443</v>
       </c>
-      <c r="C284" s="0" t="n">
+      <c r="C284" s="1" t="n">
         <v>0.6940466</v>
       </c>
       <c r="D284" s="1" t="n">
@@ -11903,10 +11903,10 @@
       <c r="A285" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B285" s="0" t="n">
+      <c r="B285" s="1" t="n">
         <v>-1.5097443</v>
       </c>
-      <c r="C285" s="0" t="n">
+      <c r="C285" s="1" t="n">
         <v>0.6940466</v>
       </c>
       <c r="D285" s="1" t="n">
@@ -11924,10 +11924,10 @@
       <c r="A286" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B286" s="0" t="n">
+      <c r="B286" s="1" t="n">
         <v>-1.5097442</v>
       </c>
-      <c r="C286" s="0" t="n">
+      <c r="C286" s="1" t="n">
         <v>0.6940465</v>
       </c>
       <c r="D286" s="1" t="n">
@@ -11945,10 +11945,10 @@
       <c r="A287" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B287" s="0" t="n">
+      <c r="B287" s="1" t="n">
         <v>-1.9166005</v>
       </c>
-      <c r="C287" s="0" t="n">
+      <c r="C287" s="1" t="n">
         <v>1.0665274</v>
       </c>
       <c r="D287" s="1" t="n">
@@ -11966,10 +11966,10 @@
       <c r="A288" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B288" s="0" t="n">
+      <c r="B288" s="1" t="n">
         <v>-1.9166001</v>
       </c>
-      <c r="C288" s="0" t="n">
+      <c r="C288" s="1" t="n">
         <v>1.0665274</v>
       </c>
       <c r="D288" s="1" t="n">
@@ -11987,10 +11987,10 @@
       <c r="A289" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B289" s="0" t="n">
+      <c r="B289" s="1" t="n">
         <v>-1.9166002</v>
       </c>
-      <c r="C289" s="0" t="n">
+      <c r="C289" s="1" t="n">
         <v>1.0665274</v>
       </c>
       <c r="D289" s="1" t="n">
@@ -12008,10 +12008,10 @@
       <c r="A290" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B290" s="0" t="n">
+      <c r="B290" s="1" t="n">
         <v>-1.9166001</v>
       </c>
-      <c r="C290" s="0" t="n">
+      <c r="C290" s="1" t="n">
         <v>1.0665274</v>
       </c>
       <c r="D290" s="1" t="n">
@@ -12029,10 +12029,10 @@
       <c r="A291" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B291" s="0" t="n">
+      <c r="B291" s="1" t="n">
         <v>-1.9166006</v>
       </c>
-      <c r="C291" s="0" t="n">
+      <c r="C291" s="1" t="n">
         <v>1.0665274</v>
       </c>
       <c r="D291" s="1" t="n">
@@ -12050,10 +12050,10 @@
       <c r="A292" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B292" s="0" t="n">
+      <c r="B292" s="1" t="n">
         <v>-1.9918847</v>
       </c>
-      <c r="C292" s="0" t="n">
+      <c r="C292" s="1" t="n">
         <v>0.8929227</v>
       </c>
       <c r="D292" s="1" t="n">
@@ -12071,10 +12071,10 @@
       <c r="A293" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B293" s="0" t="n">
+      <c r="B293" s="1" t="n">
         <v>-1.991885</v>
       </c>
-      <c r="C293" s="0" t="n">
+      <c r="C293" s="1" t="n">
         <v>0.8929227</v>
       </c>
       <c r="D293" s="1" t="n">
@@ -12092,10 +12092,10 @@
       <c r="A294" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B294" s="0" t="n">
+      <c r="B294" s="1" t="n">
         <v>-1.9918847</v>
       </c>
-      <c r="C294" s="0" t="n">
+      <c r="C294" s="1" t="n">
         <v>0.89292276</v>
       </c>
       <c r="D294" s="1" t="n">
@@ -12113,10 +12113,10 @@
       <c r="A295" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B295" s="0" t="n">
+      <c r="B295" s="1" t="n">
         <v>-1.9918847</v>
       </c>
-      <c r="C295" s="0" t="n">
+      <c r="C295" s="1" t="n">
         <v>0.8929227</v>
       </c>
       <c r="D295" s="1" t="n">
@@ -12134,10 +12134,10 @@
       <c r="A296" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B296" s="0" t="n">
+      <c r="B296" s="1" t="n">
         <v>-1.991885</v>
       </c>
-      <c r="C296" s="0" t="n">
+      <c r="C296" s="1" t="n">
         <v>0.8929227</v>
       </c>
       <c r="D296" s="1" t="n">
@@ -12155,10 +12155,10 @@
       <c r="A297" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B297" s="0" t="n">
+      <c r="B297" s="1" t="n">
         <v>-2.193052</v>
       </c>
-      <c r="C297" s="0" t="n">
+      <c r="C297" s="1" t="n">
         <v>0.7955604</v>
       </c>
       <c r="D297" s="1" t="n">
@@ -12176,10 +12176,10 @@
       <c r="A298" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B298" s="0" t="n">
+      <c r="B298" s="1" t="n">
         <v>-2.193052</v>
       </c>
-      <c r="C298" s="0" t="n">
+      <c r="C298" s="1" t="n">
         <v>0.7955604</v>
       </c>
       <c r="D298" s="1" t="n">
@@ -12197,10 +12197,10 @@
       <c r="A299" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B299" s="0" t="n">
+      <c r="B299" s="1" t="n">
         <v>-2.193052</v>
       </c>
-      <c r="C299" s="0" t="n">
+      <c r="C299" s="1" t="n">
         <v>0.79556036</v>
       </c>
       <c r="D299" s="1" t="n">
@@ -12218,10 +12218,10 @@
       <c r="A300" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B300" s="0" t="n">
+      <c r="B300" s="1" t="n">
         <v>-2.1930518</v>
       </c>
-      <c r="C300" s="0" t="n">
+      <c r="C300" s="1" t="n">
         <v>0.79556036</v>
       </c>
       <c r="D300" s="1" t="n">
@@ -12239,10 +12239,10 @@
       <c r="A301" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B301" s="0" t="n">
+      <c r="B301" s="1" t="n">
         <v>-2.193052</v>
       </c>
-      <c r="C301" s="0" t="n">
+      <c r="C301" s="1" t="n">
         <v>0.79556036</v>
       </c>
       <c r="D301" s="1" t="n">
@@ -12260,10 +12260,10 @@
       <c r="A302" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B302" s="0" t="n">
+      <c r="B302" s="1" t="n">
         <v>-2.3858192</v>
       </c>
-      <c r="C302" s="0" t="n">
+      <c r="C302" s="1" t="n">
         <v>0.9502761</v>
       </c>
       <c r="D302" s="1" t="n">
@@ -12281,10 +12281,10 @@
       <c r="A303" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B303" s="0" t="n">
+      <c r="B303" s="1" t="n">
         <v>-2.3858192</v>
       </c>
-      <c r="C303" s="0" t="n">
+      <c r="C303" s="1" t="n">
         <v>0.9502761</v>
       </c>
       <c r="D303" s="1" t="n">
@@ -12302,10 +12302,10 @@
       <c r="A304" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B304" s="0" t="n">
+      <c r="B304" s="1" t="n">
         <v>-2.3858187</v>
       </c>
-      <c r="C304" s="0" t="n">
+      <c r="C304" s="1" t="n">
         <v>0.950276</v>
       </c>
       <c r="D304" s="1" t="n">
@@ -12323,10 +12323,10 @@
       <c r="A305" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B305" s="0" t="n">
+      <c r="B305" s="1" t="n">
         <v>-2.385819</v>
       </c>
-      <c r="C305" s="0" t="n">
+      <c r="C305" s="1" t="n">
         <v>0.9502761</v>
       </c>
       <c r="D305" s="1" t="n">
@@ -12344,10 +12344,10 @@
       <c r="A306" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B306" s="0" t="n">
+      <c r="B306" s="1" t="n">
         <v>-2.385819</v>
       </c>
-      <c r="C306" s="0" t="n">
+      <c r="C306" s="1" t="n">
         <v>0.950276</v>
       </c>
       <c r="D306" s="1" t="n">
@@ -12365,10 +12365,10 @@
       <c r="A307" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B307" s="0" t="n">
+      <c r="B307" s="1" t="n">
         <v>-1.8617822</v>
       </c>
-      <c r="C307" s="0" t="n">
+      <c r="C307" s="1" t="n">
         <v>0.99183416</v>
       </c>
       <c r="D307" s="1" t="n">
@@ -12386,10 +12386,10 @@
       <c r="A308" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B308" s="0" t="n">
+      <c r="B308" s="1" t="n">
         <v>-1.8617818</v>
       </c>
-      <c r="C308" s="0" t="n">
+      <c r="C308" s="1" t="n">
         <v>0.99183416</v>
       </c>
       <c r="D308" s="1" t="n">
@@ -12407,10 +12407,10 @@
       <c r="A309" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B309" s="0" t="n">
+      <c r="B309" s="1" t="n">
         <v>-1.8617821</v>
       </c>
-      <c r="C309" s="0" t="n">
+      <c r="C309" s="1" t="n">
         <v>0.9918341</v>
       </c>
       <c r="D309" s="1" t="n">
@@ -12428,10 +12428,10 @@
       <c r="A310" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B310" s="0" t="n">
+      <c r="B310" s="1" t="n">
         <v>-1.8617824</v>
       </c>
-      <c r="C310" s="0" t="n">
+      <c r="C310" s="1" t="n">
         <v>0.9918341</v>
       </c>
       <c r="D310" s="1" t="n">
@@ -12449,10 +12449,10 @@
       <c r="A311" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B311" s="0" t="n">
+      <c r="B311" s="1" t="n">
         <v>-1.8617823</v>
       </c>
-      <c r="C311" s="0" t="n">
+      <c r="C311" s="1" t="n">
         <v>0.99183416</v>
       </c>
       <c r="D311" s="1" t="n">
@@ -12470,10 +12470,10 @@
       <c r="A312" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B312" s="0" t="n">
+      <c r="B312" s="1" t="n">
         <v>-2.3637753</v>
       </c>
-      <c r="C312" s="0" t="n">
+      <c r="C312" s="1" t="n">
         <v>0.7256991</v>
       </c>
       <c r="D312" s="1" t="n">
@@ -12491,10 +12491,10 @@
       <c r="A313" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B313" s="0" t="n">
+      <c r="B313" s="1" t="n">
         <v>-2.3637755</v>
       </c>
-      <c r="C313" s="0" t="n">
+      <c r="C313" s="1" t="n">
         <v>0.7256991</v>
       </c>
       <c r="D313" s="1" t="n">
@@ -12512,10 +12512,10 @@
       <c r="A314" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B314" s="0" t="n">
+      <c r="B314" s="1" t="n">
         <v>-2.3637755</v>
       </c>
-      <c r="C314" s="0" t="n">
+      <c r="C314" s="1" t="n">
         <v>0.72569925</v>
       </c>
       <c r="D314" s="1" t="n">
@@ -12533,10 +12533,10 @@
       <c r="A315" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B315" s="0" t="n">
+      <c r="B315" s="1" t="n">
         <v>-2.3637753</v>
       </c>
-      <c r="C315" s="0" t="n">
+      <c r="C315" s="1" t="n">
         <v>0.725699</v>
       </c>
       <c r="D315" s="1" t="n">
@@ -12554,10 +12554,10 @@
       <c r="A316" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B316" s="0" t="n">
+      <c r="B316" s="1" t="n">
         <v>-2.363775</v>
       </c>
-      <c r="C316" s="0" t="n">
+      <c r="C316" s="1" t="n">
         <v>0.7256991</v>
       </c>
       <c r="D316" s="1" t="n">
@@ -12575,10 +12575,10 @@
       <c r="A317" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B317" s="0" t="n">
+      <c r="B317" s="1" t="n">
         <v>-1.7805456</v>
       </c>
-      <c r="C317" s="0" t="n">
+      <c r="C317" s="1" t="n">
         <v>0.4750081</v>
       </c>
       <c r="D317" s="1" t="n">
@@ -12596,10 +12596,10 @@
       <c r="A318" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B318" s="0" t="n">
+      <c r="B318" s="1" t="n">
         <v>-1.7805456</v>
       </c>
-      <c r="C318" s="0" t="n">
+      <c r="C318" s="1" t="n">
         <v>0.47500807</v>
       </c>
       <c r="D318" s="1" t="n">
@@ -12617,10 +12617,10 @@
       <c r="A319" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B319" s="0" t="n">
+      <c r="B319" s="1" t="n">
         <v>-1.7805456</v>
       </c>
-      <c r="C319" s="0" t="n">
+      <c r="C319" s="1" t="n">
         <v>0.4750081</v>
       </c>
       <c r="D319" s="1" t="n">
@@ -12638,10 +12638,10 @@
       <c r="A320" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B320" s="0" t="n">
+      <c r="B320" s="1" t="n">
         <v>-1.7805457</v>
       </c>
-      <c r="C320" s="0" t="n">
+      <c r="C320" s="1" t="n">
         <v>0.47500807</v>
       </c>
       <c r="D320" s="1" t="n">
@@ -12659,10 +12659,10 @@
       <c r="A321" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B321" s="0" t="n">
+      <c r="B321" s="1" t="n">
         <v>-1.7805456</v>
       </c>
-      <c r="C321" s="0" t="n">
+      <c r="C321" s="1" t="n">
         <v>0.47500807</v>
       </c>
       <c r="D321" s="1" t="n">
@@ -12680,10 +12680,10 @@
       <c r="A322" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B322" s="0" t="n">
+      <c r="B322" s="1" t="n">
         <v>-2.9173603</v>
       </c>
-      <c r="C322" s="0" t="n">
+      <c r="C322" s="1" t="n">
         <v>1.1086222</v>
       </c>
       <c r="D322" s="1" t="n">
@@ -12701,10 +12701,10 @@
       <c r="A323" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B323" s="0" t="n">
+      <c r="B323" s="1" t="n">
         <v>-2.9173603</v>
       </c>
-      <c r="C323" s="0" t="n">
+      <c r="C323" s="1" t="n">
         <v>1.1086222</v>
       </c>
       <c r="D323" s="1" t="n">
@@ -12722,10 +12722,10 @@
       <c r="A324" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B324" s="0" t="n">
+      <c r="B324" s="1" t="n">
         <v>-2.9173603</v>
       </c>
-      <c r="C324" s="0" t="n">
+      <c r="C324" s="1" t="n">
         <v>1.1086222</v>
       </c>
       <c r="D324" s="1" t="n">
@@ -12743,10 +12743,10 @@
       <c r="A325" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B325" s="0" t="n">
+      <c r="B325" s="1" t="n">
         <v>-2.9173603</v>
       </c>
-      <c r="C325" s="0" t="n">
+      <c r="C325" s="1" t="n">
         <v>1.1086222</v>
       </c>
       <c r="D325" s="1" t="n">
@@ -12764,10 +12764,10 @@
       <c r="A326" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B326" s="0" t="n">
+      <c r="B326" s="1" t="n">
         <v>-2.9173603</v>
       </c>
-      <c r="C326" s="0" t="n">
+      <c r="C326" s="1" t="n">
         <v>1.1086222</v>
       </c>
       <c r="D326" s="1" t="n">
@@ -12785,10 +12785,10 @@
       <c r="A327" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B327" s="0" t="n">
+      <c r="B327" s="1" t="n">
         <v>-2.960839</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="C327" s="1" t="n">
         <v>0.6568902</v>
       </c>
       <c r="D327" s="1" t="n">
@@ -12806,10 +12806,10 @@
       <c r="A328" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B328" s="0" t="n">
+      <c r="B328" s="1" t="n">
         <v>-2.9608388</v>
       </c>
-      <c r="C328" s="0" t="n">
+      <c r="C328" s="1" t="n">
         <v>0.65689033</v>
       </c>
       <c r="D328" s="1" t="n">
@@ -12827,10 +12827,10 @@
       <c r="A329" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B329" s="0" t="n">
+      <c r="B329" s="1" t="n">
         <v>-2.9608388</v>
       </c>
-      <c r="C329" s="0" t="n">
+      <c r="C329" s="1" t="n">
         <v>0.6568903</v>
       </c>
       <c r="D329" s="1" t="n">
@@ -12848,10 +12848,10 @@
       <c r="A330" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B330" s="0" t="n">
+      <c r="B330" s="1" t="n">
         <v>-2.9608388</v>
       </c>
-      <c r="C330" s="0" t="n">
+      <c r="C330" s="1" t="n">
         <v>0.65689033</v>
       </c>
       <c r="D330" s="1" t="n">
@@ -12869,10 +12869,10 @@
       <c r="A331" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B331" s="0" t="n">
+      <c r="B331" s="1" t="n">
         <v>-2.960839</v>
       </c>
-      <c r="C331" s="0" t="n">
+      <c r="C331" s="1" t="n">
         <v>0.6568902</v>
       </c>
       <c r="D331" s="1" t="n">
@@ -12890,10 +12890,10 @@
       <c r="A332" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B332" s="0" t="n">
+      <c r="B332" s="1" t="n">
         <v>-3.3299966</v>
       </c>
-      <c r="C332" s="0" t="n">
+      <c r="C332" s="1" t="n">
         <v>0.7979844</v>
       </c>
       <c r="D332" s="1" t="n">
@@ -12911,10 +12911,10 @@
       <c r="A333" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B333" s="0" t="n">
+      <c r="B333" s="1" t="n">
         <v>-3.3299968</v>
       </c>
-      <c r="C333" s="0" t="n">
+      <c r="C333" s="1" t="n">
         <v>0.7979844</v>
       </c>
       <c r="D333" s="1" t="n">
@@ -12932,10 +12932,10 @@
       <c r="A334" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B334" s="0" t="n">
+      <c r="B334" s="1" t="n">
         <v>-3.3299966</v>
       </c>
-      <c r="C334" s="0" t="n">
+      <c r="C334" s="1" t="n">
         <v>0.79798454</v>
       </c>
       <c r="D334" s="1" t="n">
@@ -12953,10 +12953,10 @@
       <c r="A335" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B335" s="0" t="n">
+      <c r="B335" s="1" t="n">
         <v>-3.3299966</v>
       </c>
-      <c r="C335" s="0" t="n">
+      <c r="C335" s="1" t="n">
         <v>0.7979845</v>
       </c>
       <c r="D335" s="1" t="n">
@@ -12974,10 +12974,10 @@
       <c r="A336" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B336" s="0" t="n">
+      <c r="B336" s="1" t="n">
         <v>-3.3299966</v>
       </c>
-      <c r="C336" s="0" t="n">
+      <c r="C336" s="1" t="n">
         <v>0.7979845</v>
       </c>
       <c r="D336" s="1" t="n">
@@ -12995,10 +12995,10 @@
       <c r="A337" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B337" s="0" t="n">
+      <c r="B337" s="1" t="n">
         <v>-2.9822152</v>
       </c>
-      <c r="C337" s="0" t="n">
+      <c r="C337" s="1" t="n">
         <v>1.0550795</v>
       </c>
       <c r="D337" s="1" t="n">
@@ -13016,10 +13016,10 @@
       <c r="A338" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B338" s="0" t="n">
+      <c r="B338" s="1" t="n">
         <v>-2.9822156</v>
       </c>
-      <c r="C338" s="0" t="n">
+      <c r="C338" s="1" t="n">
         <v>1.0550795</v>
       </c>
       <c r="D338" s="1" t="n">
@@ -13037,10 +13037,10 @@
       <c r="A339" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B339" s="0" t="n">
+      <c r="B339" s="1" t="n">
         <v>-2.9822154</v>
       </c>
-      <c r="C339" s="0" t="n">
+      <c r="C339" s="1" t="n">
         <v>1.0550797</v>
       </c>
       <c r="D339" s="1" t="n">
@@ -13058,10 +13058,10 @@
       <c r="A340" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B340" s="0" t="n">
+      <c r="B340" s="1" t="n">
         <v>-2.9822156</v>
       </c>
-      <c r="C340" s="0" t="n">
+      <c r="C340" s="1" t="n">
         <v>1.0550796</v>
       </c>
       <c r="D340" s="1" t="n">
@@ -13079,10 +13079,10 @@
       <c r="A341" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B341" s="0" t="n">
+      <c r="B341" s="1" t="n">
         <v>-2.9822152</v>
       </c>
-      <c r="C341" s="0" t="n">
+      <c r="C341" s="1" t="n">
         <v>1.0550795</v>
       </c>
       <c r="D341" s="1" t="n">
@@ -13100,10 +13100,10 @@
       <c r="A342" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B342" s="0" t="n">
+      <c r="B342" s="1" t="n">
         <v>-3.1784625</v>
       </c>
-      <c r="C342" s="0" t="n">
+      <c r="C342" s="1" t="n">
         <v>1.1119778</v>
       </c>
       <c r="D342" s="1" t="n">
@@ -13121,10 +13121,10 @@
       <c r="A343" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B343" s="1" t="n">
         <v>-3.1784625</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C343" s="1" t="n">
         <v>1.1119778</v>
       </c>
       <c r="D343" s="1" t="n">
@@ -13142,10 +13142,10 @@
       <c r="A344" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B344" s="0" t="n">
+      <c r="B344" s="1" t="n">
         <v>-3.1784625</v>
       </c>
-      <c r="C344" s="0" t="n">
+      <c r="C344" s="1" t="n">
         <v>1.1119777</v>
       </c>
       <c r="D344" s="1" t="n">
@@ -13163,10 +13163,10 @@
       <c r="A345" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B345" s="0" t="n">
+      <c r="B345" s="1" t="n">
         <v>-3.1784625</v>
       </c>
-      <c r="C345" s="0" t="n">
+      <c r="C345" s="1" t="n">
         <v>1.1119778</v>
       </c>
       <c r="D345" s="1" t="n">
@@ -13184,10 +13184,10 @@
       <c r="A346" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B346" s="0" t="n">
+      <c r="B346" s="1" t="n">
         <v>-3.1784625</v>
       </c>
-      <c r="C346" s="0" t="n">
+      <c r="C346" s="1" t="n">
         <v>1.1119778</v>
       </c>
       <c r="D346" s="1" t="n">
@@ -13205,10 +13205,10 @@
       <c r="A347" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B347" s="0" t="n">
+      <c r="B347" s="1" t="n">
         <v>-2.8784137</v>
       </c>
-      <c r="C347" s="0" t="n">
+      <c r="C347" s="1" t="n">
         <v>0.77621466</v>
       </c>
       <c r="D347" s="1" t="n">
@@ -13226,10 +13226,10 @@
       <c r="A348" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B348" s="0" t="n">
+      <c r="B348" s="1" t="n">
         <v>-2.8784137</v>
       </c>
-      <c r="C348" s="0" t="n">
+      <c r="C348" s="1" t="n">
         <v>0.7762146</v>
       </c>
       <c r="D348" s="1" t="n">
@@ -13247,10 +13247,10 @@
       <c r="A349" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B349" s="0" t="n">
+      <c r="B349" s="1" t="n">
         <v>-2.8784142</v>
       </c>
-      <c r="C349" s="0" t="n">
+      <c r="C349" s="1" t="n">
         <v>0.7762146</v>
       </c>
       <c r="D349" s="1" t="n">
@@ -13268,10 +13268,10 @@
       <c r="A350" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B350" s="0" t="n">
+      <c r="B350" s="1" t="n">
         <v>-2.8784142</v>
       </c>
-      <c r="C350" s="0" t="n">
+      <c r="C350" s="1" t="n">
         <v>0.7762146</v>
       </c>
       <c r="D350" s="1" t="n">
@@ -13289,10 +13289,10 @@
       <c r="A351" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B351" s="0" t="n">
+      <c r="B351" s="1" t="n">
         <v>-2.8784137</v>
       </c>
-      <c r="C351" s="0" t="n">
+      <c r="C351" s="1" t="n">
         <v>0.77621466</v>
       </c>
       <c r="D351" s="1" t="n">
@@ -13310,10 +13310,10 @@
       <c r="A352" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B352" s="0" t="n">
+      <c r="B352" s="1" t="n">
         <v>-2.7765543</v>
       </c>
-      <c r="C352" s="0" t="n">
+      <c r="C352" s="1" t="n">
         <v>0.7454072</v>
       </c>
       <c r="D352" s="1" t="n">
@@ -13331,10 +13331,10 @@
       <c r="A353" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B353" s="0" t="n">
+      <c r="B353" s="1" t="n">
         <v>-2.7765543</v>
       </c>
-      <c r="C353" s="0" t="n">
+      <c r="C353" s="1" t="n">
         <v>0.74540716</v>
       </c>
       <c r="D353" s="1" t="n">
@@ -13352,10 +13352,10 @@
       <c r="A354" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B354" s="0" t="n">
+      <c r="B354" s="1" t="n">
         <v>-2.7765543</v>
       </c>
-      <c r="C354" s="0" t="n">
+      <c r="C354" s="1" t="n">
         <v>0.7454072</v>
       </c>
       <c r="D354" s="1" t="n">
@@ -13373,10 +13373,10 @@
       <c r="A355" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B355" s="0" t="n">
+      <c r="B355" s="1" t="n">
         <v>-2.7765543</v>
       </c>
-      <c r="C355" s="0" t="n">
+      <c r="C355" s="1" t="n">
         <v>0.7454072</v>
       </c>
       <c r="D355" s="1" t="n">
@@ -13394,10 +13394,10 @@
       <c r="A356" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B356" s="0" t="n">
+      <c r="B356" s="1" t="n">
         <v>-2.7765543</v>
       </c>
-      <c r="C356" s="0" t="n">
+      <c r="C356" s="1" t="n">
         <v>0.7454072</v>
       </c>
       <c r="D356" s="1" t="n">
@@ -13415,10 +13415,10 @@
       <c r="A357" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B357" s="0" t="n">
+      <c r="B357" s="1" t="n">
         <v>-3.3338284</v>
       </c>
-      <c r="C357" s="0" t="n">
+      <c r="C357" s="1" t="n">
         <v>0.6945675</v>
       </c>
       <c r="D357" s="1" t="n">
@@ -13436,10 +13436,10 @@
       <c r="A358" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B358" s="0" t="n">
+      <c r="B358" s="1" t="n">
         <v>-3.3338282</v>
       </c>
-      <c r="C358" s="0" t="n">
+      <c r="C358" s="1" t="n">
         <v>0.6945676</v>
       </c>
       <c r="D358" s="1" t="n">
@@ -13457,10 +13457,10 @@
       <c r="A359" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B359" s="0" t="n">
+      <c r="B359" s="1" t="n">
         <v>-3.3338284</v>
       </c>
-      <c r="C359" s="0" t="n">
+      <c r="C359" s="1" t="n">
         <v>0.6945675</v>
       </c>
       <c r="D359" s="1" t="n">
@@ -13478,10 +13478,10 @@
       <c r="A360" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B360" s="0" t="n">
+      <c r="B360" s="1" t="n">
         <v>-3.3338284</v>
       </c>
-      <c r="C360" s="0" t="n">
+      <c r="C360" s="1" t="n">
         <v>0.6945677</v>
       </c>
       <c r="D360" s="1" t="n">
@@ -13499,10 +13499,10 @@
       <c r="A361" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B361" s="0" t="n">
+      <c r="B361" s="1" t="n">
         <v>-3.3338282</v>
       </c>
-      <c r="C361" s="0" t="n">
+      <c r="C361" s="1" t="n">
         <v>0.6945675</v>
       </c>
       <c r="D361" s="1" t="n">
@@ -13520,10 +13520,10 @@
       <c r="A362" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B362" s="0" t="n">
+      <c r="B362" s="1" t="n">
         <v>-2.1828213</v>
       </c>
-      <c r="C362" s="0" t="n">
+      <c r="C362" s="1" t="n">
         <v>0.7078877</v>
       </c>
       <c r="D362" s="1" t="n">
@@ -13541,10 +13541,10 @@
       <c r="A363" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B363" s="0" t="n">
+      <c r="B363" s="1" t="n">
         <v>-2.1828215</v>
       </c>
-      <c r="C363" s="0" t="n">
+      <c r="C363" s="1" t="n">
         <v>0.70788777</v>
       </c>
       <c r="D363" s="1" t="n">
@@ -13562,10 +13562,10 @@
       <c r="A364" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B364" s="0" t="n">
+      <c r="B364" s="1" t="n">
         <v>-2.1828213</v>
       </c>
-      <c r="C364" s="0" t="n">
+      <c r="C364" s="1" t="n">
         <v>0.7078877</v>
       </c>
       <c r="D364" s="1" t="n">
@@ -13583,10 +13583,10 @@
       <c r="A365" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B365" s="0" t="n">
+      <c r="B365" s="1" t="n">
         <v>-2.1828213</v>
       </c>
-      <c r="C365" s="0" t="n">
+      <c r="C365" s="1" t="n">
         <v>0.70788777</v>
       </c>
       <c r="D365" s="1" t="n">
@@ -13604,10 +13604,10 @@
       <c r="A366" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B366" s="0" t="n">
+      <c r="B366" s="1" t="n">
         <v>-2.1828213</v>
       </c>
-      <c r="C366" s="0" t="n">
+      <c r="C366" s="1" t="n">
         <v>0.7078877</v>
       </c>
       <c r="D366" s="1" t="n">
@@ -13625,10 +13625,10 @@
       <c r="A367" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B367" s="0" t="n">
+      <c r="B367" s="1" t="n">
         <v>-1.3837706</v>
       </c>
-      <c r="C367" s="0" t="n">
+      <c r="C367" s="1" t="n">
         <v>0.58930045</v>
       </c>
       <c r="D367" s="1" t="n">
@@ -13646,10 +13646,10 @@
       <c r="A368" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B368" s="0" t="n">
+      <c r="B368" s="1" t="n">
         <v>-1.3837705</v>
       </c>
-      <c r="C368" s="0" t="n">
+      <c r="C368" s="1" t="n">
         <v>0.58930045</v>
       </c>
       <c r="D368" s="1" t="n">
@@ -13667,10 +13667,10 @@
       <c r="A369" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B369" s="0" t="n">
+      <c r="B369" s="1" t="n">
         <v>-1.3837706</v>
       </c>
-      <c r="C369" s="0" t="n">
+      <c r="C369" s="1" t="n">
         <v>0.58930045</v>
       </c>
       <c r="D369" s="1" t="n">
@@ -13688,10 +13688,10 @@
       <c r="A370" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B370" s="0" t="n">
+      <c r="B370" s="1" t="n">
         <v>-1.3837705</v>
       </c>
-      <c r="C370" s="0" t="n">
+      <c r="C370" s="1" t="n">
         <v>0.58930045</v>
       </c>
       <c r="D370" s="1" t="n">
@@ -13709,10 +13709,10 @@
       <c r="A371" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B371" s="0" t="n">
+      <c r="B371" s="1" t="n">
         <v>-1.3837706</v>
       </c>
-      <c r="C371" s="0" t="n">
+      <c r="C371" s="1" t="n">
         <v>0.5893004</v>
       </c>
       <c r="D371" s="1" t="n">
@@ -13730,10 +13730,10 @@
       <c r="A372" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B372" s="0" t="n">
+      <c r="B372" s="1" t="n">
         <v>-0.42164117</v>
       </c>
-      <c r="C372" s="0" t="n">
+      <c r="C372" s="1" t="n">
         <v>0.6606976</v>
       </c>
       <c r="D372" s="1" t="n">
@@ -13751,10 +13751,10 @@
       <c r="A373" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B373" s="0" t="n">
+      <c r="B373" s="1" t="n">
         <v>-0.42164117</v>
       </c>
-      <c r="C373" s="0" t="n">
+      <c r="C373" s="1" t="n">
         <v>0.66069764</v>
       </c>
       <c r="D373" s="1" t="n">
@@ -13772,10 +13772,10 @@
       <c r="A374" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B374" s="0" t="n">
+      <c r="B374" s="1" t="n">
         <v>-0.42164114</v>
       </c>
-      <c r="C374" s="0" t="n">
+      <c r="C374" s="1" t="n">
         <v>0.6606976</v>
       </c>
       <c r="D374" s="1" t="n">
@@ -13793,10 +13793,10 @@
       <c r="A375" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B375" s="0" t="n">
+      <c r="B375" s="1" t="n">
         <v>-0.4216412</v>
       </c>
-      <c r="C375" s="0" t="n">
+      <c r="C375" s="1" t="n">
         <v>0.6606976</v>
       </c>
       <c r="D375" s="1" t="n">
@@ -13814,10 +13814,10 @@
       <c r="A376" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B376" s="0" t="n">
+      <c r="B376" s="1" t="n">
         <v>-0.42164117</v>
       </c>
-      <c r="C376" s="0" t="n">
+      <c r="C376" s="1" t="n">
         <v>0.6606976</v>
       </c>
       <c r="D376" s="1" t="n">
@@ -13835,10 +13835,10 @@
       <c r="A377" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B377" s="0" t="n">
+      <c r="B377" s="1" t="n">
         <v>-1.1958822</v>
       </c>
-      <c r="C377" s="0" t="n">
+      <c r="C377" s="1" t="n">
         <v>0.46027508</v>
       </c>
       <c r="D377" s="1" t="n">
@@ -13856,10 +13856,10 @@
       <c r="A378" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B378" s="0" t="n">
+      <c r="B378" s="1" t="n">
         <v>-1.1958822</v>
       </c>
-      <c r="C378" s="0" t="n">
+      <c r="C378" s="1" t="n">
         <v>0.4602751</v>
       </c>
       <c r="D378" s="1" t="n">
@@ -13877,10 +13877,10 @@
       <c r="A379" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B379" s="0" t="n">
+      <c r="B379" s="1" t="n">
         <v>-1.1958822</v>
       </c>
-      <c r="C379" s="0" t="n">
+      <c r="C379" s="1" t="n">
         <v>0.4602751</v>
       </c>
       <c r="D379" s="1" t="n">
@@ -13898,10 +13898,10 @@
       <c r="A380" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B380" s="0" t="n">
+      <c r="B380" s="1" t="n">
         <v>-1.1958821</v>
       </c>
-      <c r="C380" s="0" t="n">
+      <c r="C380" s="1" t="n">
         <v>0.46027508</v>
       </c>
       <c r="D380" s="1" t="n">
@@ -13919,10 +13919,10 @@
       <c r="A381" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B381" s="0" t="n">
+      <c r="B381" s="1" t="n">
         <v>-1.1958823</v>
       </c>
-      <c r="C381" s="0" t="n">
+      <c r="C381" s="1" t="n">
         <v>0.46027514</v>
       </c>
       <c r="D381" s="1" t="n">
@@ -13940,10 +13940,10 @@
       <c r="A382" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B382" s="0" t="n">
+      <c r="B382" s="1" t="n">
         <v>-2.365572</v>
       </c>
-      <c r="C382" s="0" t="n">
+      <c r="C382" s="1" t="n">
         <v>0.93962634</v>
       </c>
       <c r="D382" s="1" t="n">
@@ -13961,10 +13961,10 @@
       <c r="A383" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B383" s="0" t="n">
+      <c r="B383" s="1" t="n">
         <v>-2.3655722</v>
       </c>
-      <c r="C383" s="0" t="n">
+      <c r="C383" s="1" t="n">
         <v>0.9396262</v>
       </c>
       <c r="D383" s="1" t="n">
@@ -13982,10 +13982,10 @@
       <c r="A384" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B384" s="0" t="n">
+      <c r="B384" s="1" t="n">
         <v>-2.3655717</v>
       </c>
-      <c r="C384" s="0" t="n">
+      <c r="C384" s="1" t="n">
         <v>0.9396262</v>
       </c>
       <c r="D384" s="1" t="n">
@@ -14003,10 +14003,10 @@
       <c r="A385" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B385" s="0" t="n">
+      <c r="B385" s="1" t="n">
         <v>-2.365572</v>
       </c>
-      <c r="C385" s="0" t="n">
+      <c r="C385" s="1" t="n">
         <v>0.9396262</v>
       </c>
       <c r="D385" s="1" t="n">
@@ -14024,10 +14024,10 @@
       <c r="A386" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B386" s="0" t="n">
+      <c r="B386" s="1" t="n">
         <v>-2.365572</v>
       </c>
-      <c r="C386" s="0" t="n">
+      <c r="C386" s="1" t="n">
         <v>0.9396263</v>
       </c>
       <c r="D386" s="1" t="n">
@@ -14045,10 +14045,10 @@
       <c r="A387" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B387" s="0" t="n">
+      <c r="B387" s="1" t="n">
         <v>-1.5394726</v>
       </c>
-      <c r="C387" s="0" t="n">
+      <c r="C387" s="1" t="n">
         <v>0.75583565</v>
       </c>
       <c r="D387" s="1" t="n">
@@ -14066,10 +14066,10 @@
       <c r="A388" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B388" s="0" t="n">
+      <c r="B388" s="1" t="n">
         <v>-1.5394728</v>
       </c>
-      <c r="C388" s="0" t="n">
+      <c r="C388" s="1" t="n">
         <v>0.7558358</v>
       </c>
       <c r="D388" s="1" t="n">
@@ -14087,10 +14087,10 @@
       <c r="A389" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B389" s="0" t="n">
+      <c r="B389" s="1" t="n">
         <v>-1.539473</v>
       </c>
-      <c r="C389" s="0" t="n">
+      <c r="C389" s="1" t="n">
         <v>0.7558358</v>
       </c>
       <c r="D389" s="1" t="n">
@@ -14108,10 +14108,10 @@
       <c r="A390" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B390" s="0" t="n">
+      <c r="B390" s="1" t="n">
         <v>-1.5394726</v>
       </c>
-      <c r="C390" s="0" t="n">
+      <c r="C390" s="1" t="n">
         <v>0.7558357</v>
       </c>
       <c r="D390" s="1" t="n">
@@ -14129,10 +14129,10 @@
       <c r="A391" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B391" s="0" t="n">
+      <c r="B391" s="1" t="n">
         <v>-1.539473</v>
       </c>
-      <c r="C391" s="0" t="n">
+      <c r="C391" s="1" t="n">
         <v>0.75583583</v>
       </c>
       <c r="D391" s="1" t="n">
@@ -14150,10 +14150,10 @@
       <c r="A392" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B392" s="0" t="n">
+      <c r="B392" s="1" t="n">
         <v>-1.822568</v>
       </c>
-      <c r="C392" s="0" t="n">
+      <c r="C392" s="1" t="n">
         <v>0.76140696</v>
       </c>
       <c r="D392" s="1" t="n">
@@ -14171,10 +14171,10 @@
       <c r="A393" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B393" s="0" t="n">
+      <c r="B393" s="1" t="n">
         <v>-1.822568</v>
       </c>
-      <c r="C393" s="0" t="n">
+      <c r="C393" s="1" t="n">
         <v>0.76140696</v>
       </c>
       <c r="D393" s="1" t="n">
@@ -14192,10 +14192,10 @@
       <c r="A394" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B394" s="0" t="n">
+      <c r="B394" s="1" t="n">
         <v>-1.822568</v>
       </c>
-      <c r="C394" s="0" t="n">
+      <c r="C394" s="1" t="n">
         <v>0.76140696</v>
       </c>
       <c r="D394" s="1" t="n">
@@ -14213,10 +14213,10 @@
       <c r="A395" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B395" s="0" t="n">
+      <c r="B395" s="1" t="n">
         <v>-1.822568</v>
       </c>
-      <c r="C395" s="0" t="n">
+      <c r="C395" s="1" t="n">
         <v>0.76140696</v>
       </c>
       <c r="D395" s="1" t="n">
@@ -14234,10 +14234,10 @@
       <c r="A396" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B396" s="0" t="n">
+      <c r="B396" s="1" t="n">
         <v>-1.822568</v>
       </c>
-      <c r="C396" s="0" t="n">
+      <c r="C396" s="1" t="n">
         <v>0.76140696</v>
       </c>
       <c r="D396" s="1" t="n">
@@ -14255,10 +14255,10 @@
       <c r="A397" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B397" s="0" t="n">
+      <c r="B397" s="1" t="n">
         <v>-1.135392</v>
       </c>
-      <c r="C397" s="0" t="n">
+      <c r="C397" s="1" t="n">
         <v>0.58783376</v>
       </c>
       <c r="D397" s="1" t="n">
@@ -14276,10 +14276,10 @@
       <c r="A398" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B398" s="0" t="n">
+      <c r="B398" s="1" t="n">
         <v>-1.1353918</v>
       </c>
-      <c r="C398" s="0" t="n">
+      <c r="C398" s="1" t="n">
         <v>0.58783376</v>
       </c>
       <c r="D398" s="1" t="n">
@@ -14297,10 +14297,10 @@
       <c r="A399" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B399" s="0" t="n">
+      <c r="B399" s="1" t="n">
         <v>-1.1353918</v>
       </c>
-      <c r="C399" s="0" t="n">
+      <c r="C399" s="1" t="n">
         <v>0.58783376</v>
       </c>
       <c r="D399" s="1" t="n">
@@ -14318,10 +14318,10 @@
       <c r="A400" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B400" s="0" t="n">
+      <c r="B400" s="1" t="n">
         <v>-1.135392</v>
       </c>
-      <c r="C400" s="0" t="n">
+      <c r="C400" s="1" t="n">
         <v>0.58783376</v>
       </c>
       <c r="D400" s="1" t="n">
@@ -14339,10 +14339,10 @@
       <c r="A401" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B401" s="0" t="n">
+      <c r="B401" s="1" t="n">
         <v>-1.135392</v>
       </c>
-      <c r="C401" s="0" t="n">
+      <c r="C401" s="1" t="n">
         <v>0.58783376</v>
       </c>
       <c r="D401" s="1" t="n">
@@ -14360,10 +14360,10 @@
       <c r="A402" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B402" s="0" t="n">
+      <c r="B402" s="1" t="n">
         <v>-2.960448</v>
       </c>
-      <c r="C402" s="0" t="n">
+      <c r="C402" s="1" t="n">
         <v>0.7621381</v>
       </c>
       <c r="D402" s="1" t="n">
@@ -14381,10 +14381,10 @@
       <c r="A403" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B403" s="0" t="n">
+      <c r="B403" s="1" t="n">
         <v>-2.9604485</v>
       </c>
-      <c r="C403" s="0" t="n">
+      <c r="C403" s="1" t="n">
         <v>0.7621382</v>
       </c>
       <c r="D403" s="1" t="n">
@@ -14402,10 +14402,10 @@
       <c r="A404" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B404" s="0" t="n">
+      <c r="B404" s="1" t="n">
         <v>-2.9604485</v>
       </c>
-      <c r="C404" s="0" t="n">
+      <c r="C404" s="1" t="n">
         <v>0.7621382</v>
       </c>
       <c r="D404" s="1" t="n">
@@ -14423,10 +14423,10 @@
       <c r="A405" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B405" s="0" t="n">
+      <c r="B405" s="1" t="n">
         <v>-2.960448</v>
       </c>
-      <c r="C405" s="0" t="n">
+      <c r="C405" s="1" t="n">
         <v>0.7621381</v>
       </c>
       <c r="D405" s="1" t="n">
@@ -14444,10 +14444,10 @@
       <c r="A406" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B406" s="0" t="n">
+      <c r="B406" s="1" t="n">
         <v>-2.9604485</v>
       </c>
-      <c r="C406" s="0" t="n">
+      <c r="C406" s="1" t="n">
         <v>0.7621381</v>
       </c>
       <c r="D406" s="1" t="n">
@@ -14465,10 +14465,10 @@
       <c r="A407" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B407" s="0" t="n">
+      <c r="B407" s="1" t="n">
         <v>-2.1363559</v>
       </c>
-      <c r="C407" s="0" t="n">
+      <c r="C407" s="1" t="n">
         <v>0.86941653</v>
       </c>
       <c r="D407" s="1" t="n">
@@ -14486,10 +14486,10 @@
       <c r="A408" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B408" s="0" t="n">
+      <c r="B408" s="1" t="n">
         <v>-2.136356</v>
       </c>
-      <c r="C408" s="0" t="n">
+      <c r="C408" s="1" t="n">
         <v>0.86941653</v>
       </c>
       <c r="D408" s="1" t="n">
@@ -14507,10 +14507,10 @@
       <c r="A409" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B409" s="0" t="n">
+      <c r="B409" s="1" t="n">
         <v>-2.1363559</v>
       </c>
-      <c r="C409" s="0" t="n">
+      <c r="C409" s="1" t="n">
         <v>0.8694166</v>
       </c>
       <c r="D409" s="1" t="n">
@@ -14528,10 +14528,10 @@
       <c r="A410" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B410" s="0" t="n">
+      <c r="B410" s="1" t="n">
         <v>-2.136356</v>
       </c>
-      <c r="C410" s="0" t="n">
+      <c r="C410" s="1" t="n">
         <v>0.8694166</v>
       </c>
       <c r="D410" s="1" t="n">
@@ -14549,10 +14549,10 @@
       <c r="A411" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B411" s="0" t="n">
+      <c r="B411" s="1" t="n">
         <v>-2.136356</v>
       </c>
-      <c r="C411" s="0" t="n">
+      <c r="C411" s="1" t="n">
         <v>0.8694166</v>
       </c>
       <c r="D411" s="1" t="n">
@@ -14570,10 +14570,10 @@
       <c r="A412" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B412" s="0" t="n">
+      <c r="B412" s="1" t="n">
         <v>-2.3398705</v>
       </c>
-      <c r="C412" s="0" t="n">
+      <c r="C412" s="1" t="n">
         <v>0.6735938</v>
       </c>
       <c r="D412" s="1" t="n">
@@ -14591,10 +14591,10 @@
       <c r="A413" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B413" s="0" t="n">
+      <c r="B413" s="1" t="n">
         <v>-2.3398707</v>
       </c>
-      <c r="C413" s="0" t="n">
+      <c r="C413" s="1" t="n">
         <v>0.6735939</v>
       </c>
       <c r="D413" s="1" t="n">
@@ -14612,10 +14612,10 @@
       <c r="A414" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B414" s="0" t="n">
+      <c r="B414" s="1" t="n">
         <v>-2.3398707</v>
       </c>
-      <c r="C414" s="0" t="n">
+      <c r="C414" s="1" t="n">
         <v>0.6735939</v>
       </c>
       <c r="D414" s="1" t="n">
@@ -14633,10 +14633,10 @@
       <c r="A415" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B415" s="0" t="n">
+      <c r="B415" s="1" t="n">
         <v>-2.3398705</v>
       </c>
-      <c r="C415" s="0" t="n">
+      <c r="C415" s="1" t="n">
         <v>0.6735939</v>
       </c>
       <c r="D415" s="1" t="n">
@@ -14654,10 +14654,10 @@
       <c r="A416" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B416" s="0" t="n">
+      <c r="B416" s="1" t="n">
         <v>-2.3398707</v>
       </c>
-      <c r="C416" s="0" t="n">
+      <c r="C416" s="1" t="n">
         <v>0.6735938</v>
       </c>
       <c r="D416" s="1" t="n">
@@ -14675,10 +14675,10 @@
       <c r="A417" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B417" s="0" t="n">
+      <c r="B417" s="1" t="n">
         <v>-2.533623</v>
       </c>
-      <c r="C417" s="0" t="n">
+      <c r="C417" s="1" t="n">
         <v>0.80431813</v>
       </c>
       <c r="D417" s="1" t="n">
@@ -14696,10 +14696,10 @@
       <c r="A418" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B418" s="0" t="n">
+      <c r="B418" s="1" t="n">
         <v>-2.5336235</v>
       </c>
-      <c r="C418" s="0" t="n">
+      <c r="C418" s="1" t="n">
         <v>0.8043181</v>
       </c>
       <c r="D418" s="1" t="n">
@@ -14717,10 +14717,10 @@
       <c r="A419" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B419" s="0" t="n">
+      <c r="B419" s="1" t="n">
         <v>-2.5336232</v>
       </c>
-      <c r="C419" s="0" t="n">
+      <c r="C419" s="1" t="n">
         <v>0.8043181</v>
       </c>
       <c r="D419" s="1" t="n">
@@ -14738,10 +14738,10 @@
       <c r="A420" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B420" s="0" t="n">
+      <c r="B420" s="1" t="n">
         <v>-2.533623</v>
       </c>
-      <c r="C420" s="0" t="n">
+      <c r="C420" s="1" t="n">
         <v>0.8043181</v>
       </c>
       <c r="D420" s="1" t="n">
@@ -14759,10 +14759,10 @@
       <c r="A421" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B421" s="0" t="n">
+      <c r="B421" s="1" t="n">
         <v>-2.533623</v>
       </c>
-      <c r="C421" s="0" t="n">
+      <c r="C421" s="1" t="n">
         <v>0.80431813</v>
       </c>
       <c r="D421" s="1" t="n">
@@ -14780,10 +14780,10 @@
       <c r="A422" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B422" s="0" t="n">
+      <c r="B422" s="1" t="n">
         <v>-1.5910729</v>
       </c>
-      <c r="C422" s="0" t="n">
+      <c r="C422" s="1" t="n">
         <v>0.53964764</v>
       </c>
       <c r="D422" s="1" t="n">
@@ -14801,10 +14801,10 @@
       <c r="A423" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B423" s="0" t="n">
+      <c r="B423" s="1" t="n">
         <v>-1.591073</v>
       </c>
-      <c r="C423" s="0" t="n">
+      <c r="C423" s="1" t="n">
         <v>0.53964764</v>
       </c>
       <c r="D423" s="1" t="n">
@@ -14822,10 +14822,10 @@
       <c r="A424" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B424" s="0" t="n">
+      <c r="B424" s="1" t="n">
         <v>-1.5910732</v>
       </c>
-      <c r="C424" s="0" t="n">
+      <c r="C424" s="1" t="n">
         <v>0.5396476</v>
       </c>
       <c r="D424" s="1" t="n">
@@ -14843,10 +14843,10 @@
       <c r="A425" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B425" s="0" t="n">
+      <c r="B425" s="1" t="n">
         <v>-1.591073</v>
       </c>
-      <c r="C425" s="0" t="n">
+      <c r="C425" s="1" t="n">
         <v>0.5396477</v>
       </c>
       <c r="D425" s="1" t="n">
@@ -14864,10 +14864,10 @@
       <c r="A426" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B426" s="0" t="n">
+      <c r="B426" s="1" t="n">
         <v>-1.591073</v>
       </c>
-      <c r="C426" s="0" t="n">
+      <c r="C426" s="1" t="n">
         <v>0.5396476</v>
       </c>
       <c r="D426" s="1" t="n">
@@ -14885,10 +14885,10 @@
       <c r="A427" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B427" s="0" t="n">
+      <c r="B427" s="1" t="n">
         <v>-1.4542632</v>
       </c>
-      <c r="C427" s="0" t="n">
+      <c r="C427" s="1" t="n">
         <v>0.5796069</v>
       </c>
       <c r="D427" s="1" t="n">
@@ -14906,10 +14906,10 @@
       <c r="A428" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B428" s="0" t="n">
+      <c r="B428" s="1" t="n">
         <v>-1.4542631</v>
       </c>
-      <c r="C428" s="0" t="n">
+      <c r="C428" s="1" t="n">
         <v>0.5796068</v>
       </c>
       <c r="D428" s="1" t="n">
@@ -14927,10 +14927,10 @@
       <c r="A429" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B429" s="0" t="n">
+      <c r="B429" s="1" t="n">
         <v>-1.4542632</v>
       </c>
-      <c r="C429" s="0" t="n">
+      <c r="C429" s="1" t="n">
         <v>0.57960683</v>
       </c>
       <c r="D429" s="1" t="n">
@@ -14948,10 +14948,10 @@
       <c r="A430" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B430" s="0" t="n">
+      <c r="B430" s="1" t="n">
         <v>-1.4542632</v>
       </c>
-      <c r="C430" s="0" t="n">
+      <c r="C430" s="1" t="n">
         <v>0.5796069</v>
       </c>
       <c r="D430" s="1" t="n">
@@ -14969,10 +14969,10 @@
       <c r="A431" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B431" s="0" t="n">
+      <c r="B431" s="1" t="n">
         <v>-1.4542631</v>
       </c>
-      <c r="C431" s="0" t="n">
+      <c r="C431" s="1" t="n">
         <v>0.57960683</v>
       </c>
       <c r="D431" s="1" t="n">
@@ -14990,10 +14990,10 @@
       <c r="A432" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B432" s="0" t="n">
+      <c r="B432" s="1" t="n">
         <v>-2.6770353</v>
       </c>
-      <c r="C432" s="0" t="n">
+      <c r="C432" s="1" t="n">
         <v>0.59224707</v>
       </c>
       <c r="D432" s="1" t="n">
@@ -15011,10 +15011,10 @@
       <c r="A433" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B433" s="0" t="n">
+      <c r="B433" s="1" t="n">
         <v>-2.6770353</v>
       </c>
-      <c r="C433" s="0" t="n">
+      <c r="C433" s="1" t="n">
         <v>0.592247</v>
       </c>
       <c r="D433" s="1" t="n">
@@ -15032,10 +15032,10 @@
       <c r="A434" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B434" s="0" t="n">
+      <c r="B434" s="1" t="n">
         <v>-2.6770356</v>
       </c>
-      <c r="C434" s="0" t="n">
+      <c r="C434" s="1" t="n">
         <v>0.5922471</v>
       </c>
       <c r="D434" s="1" t="n">
@@ -15053,10 +15053,10 @@
       <c r="A435" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B435" s="0" t="n">
+      <c r="B435" s="1" t="n">
         <v>-2.6770356</v>
       </c>
-      <c r="C435" s="0" t="n">
+      <c r="C435" s="1" t="n">
         <v>0.59224707</v>
       </c>
       <c r="D435" s="1" t="n">
@@ -15074,10 +15074,10 @@
       <c r="A436" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B436" s="0" t="n">
+      <c r="B436" s="1" t="n">
         <v>-2.6770356</v>
       </c>
-      <c r="C436" s="0" t="n">
+      <c r="C436" s="1" t="n">
         <v>0.592247</v>
       </c>
       <c r="D436" s="1" t="n">
@@ -15095,10 +15095,10 @@
       <c r="A437" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B437" s="0" t="n">
+      <c r="B437" s="1" t="n">
         <v>-1.2903568</v>
       </c>
-      <c r="C437" s="0" t="n">
+      <c r="C437" s="1" t="n">
         <v>0.6279077</v>
       </c>
       <c r="D437" s="1" t="n">
@@ -15116,10 +15116,10 @@
       <c r="A438" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B438" s="0" t="n">
+      <c r="B438" s="1" t="n">
         <v>-1.290357</v>
       </c>
-      <c r="C438" s="0" t="n">
+      <c r="C438" s="1" t="n">
         <v>0.6279077</v>
       </c>
       <c r="D438" s="1" t="n">
@@ -15137,10 +15137,10 @@
       <c r="A439" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B439" s="0" t="n">
+      <c r="B439" s="1" t="n">
         <v>-1.2903569</v>
       </c>
-      <c r="C439" s="0" t="n">
+      <c r="C439" s="1" t="n">
         <v>0.6279077</v>
       </c>
       <c r="D439" s="1" t="n">
@@ -15158,10 +15158,10 @@
       <c r="A440" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B440" s="0" t="n">
+      <c r="B440" s="1" t="n">
         <v>-1.2903568</v>
       </c>
-      <c r="C440" s="0" t="n">
+      <c r="C440" s="1" t="n">
         <v>0.6279077</v>
       </c>
       <c r="D440" s="1" t="n">
@@ -15179,10 +15179,10 @@
       <c r="A441" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B441" s="0" t="n">
+      <c r="B441" s="1" t="n">
         <v>-1.2903568</v>
       </c>
-      <c r="C441" s="0" t="n">
+      <c r="C441" s="1" t="n">
         <v>0.62790775</v>
       </c>
       <c r="D441" s="1" t="n">
@@ -15200,10 +15200,10 @@
       <c r="A442" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B442" s="0" t="n">
+      <c r="B442" s="1" t="n">
         <v>-1.6688926</v>
       </c>
-      <c r="C442" s="0" t="n">
+      <c r="C442" s="1" t="n">
         <v>0.78896236</v>
       </c>
       <c r="D442" s="1" t="n">
@@ -15221,10 +15221,10 @@
       <c r="A443" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B443" s="0" t="n">
+      <c r="B443" s="1" t="n">
         <v>-1.6688926</v>
       </c>
-      <c r="C443" s="0" t="n">
+      <c r="C443" s="1" t="n">
         <v>0.78896236</v>
       </c>
       <c r="D443" s="1" t="n">
@@ -15242,10 +15242,10 @@
       <c r="A444" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B444" s="0" t="n">
+      <c r="B444" s="1" t="n">
         <v>-1.6688926</v>
       </c>
-      <c r="C444" s="0" t="n">
+      <c r="C444" s="1" t="n">
         <v>0.78896236</v>
       </c>
       <c r="D444" s="1" t="n">
@@ -15263,10 +15263,10 @@
       <c r="A445" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B445" s="0" t="n">
+      <c r="B445" s="1" t="n">
         <v>-1.6688929</v>
       </c>
-      <c r="C445" s="0" t="n">
+      <c r="C445" s="1" t="n">
         <v>0.7889624</v>
       </c>
       <c r="D445" s="1" t="n">
@@ -15284,10 +15284,10 @@
       <c r="A446" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B446" s="0" t="n">
+      <c r="B446" s="1" t="n">
         <v>-1.6688929</v>
       </c>
-      <c r="C446" s="0" t="n">
+      <c r="C446" s="1" t="n">
         <v>0.78896236</v>
       </c>
       <c r="D446" s="1" t="n">
@@ -15305,10 +15305,10 @@
       <c r="A447" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B447" s="0" t="n">
+      <c r="B447" s="1" t="n">
         <v>-2.0111654</v>
       </c>
-      <c r="C447" s="0" t="n">
+      <c r="C447" s="1" t="n">
         <v>0.8929473</v>
       </c>
       <c r="D447" s="1" t="n">
@@ -15326,10 +15326,10 @@
       <c r="A448" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B448" s="0" t="n">
+      <c r="B448" s="1" t="n">
         <v>-2.0111651</v>
       </c>
-      <c r="C448" s="0" t="n">
+      <c r="C448" s="1" t="n">
         <v>0.8929472</v>
       </c>
       <c r="D448" s="1" t="n">
@@ -15347,10 +15347,10 @@
       <c r="A449" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B449" s="0" t="n">
+      <c r="B449" s="1" t="n">
         <v>-2.0111651</v>
       </c>
-      <c r="C449" s="0" t="n">
+      <c r="C449" s="1" t="n">
         <v>0.8929473</v>
       </c>
       <c r="D449" s="1" t="n">
@@ -15368,10 +15368,10 @@
       <c r="A450" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B450" s="0" t="n">
+      <c r="B450" s="1" t="n">
         <v>-2.0111651</v>
       </c>
-      <c r="C450" s="0" t="n">
+      <c r="C450" s="1" t="n">
         <v>0.8929473</v>
       </c>
       <c r="D450" s="1" t="n">
@@ -15389,10 +15389,10 @@
       <c r="A451" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B451" s="0" t="n">
+      <c r="B451" s="1" t="n">
         <v>-2.011165</v>
       </c>
-      <c r="C451" s="0" t="n">
+      <c r="C451" s="1" t="n">
         <v>0.8929473</v>
       </c>
       <c r="D451" s="1" t="n">
@@ -15410,10 +15410,10 @@
       <c r="A452" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B452" s="0" t="n">
+      <c r="B452" s="1" t="n">
         <v>-2.615767</v>
       </c>
-      <c r="C452" s="0" t="n">
+      <c r="C452" s="1" t="n">
         <v>1.0855607</v>
       </c>
       <c r="D452" s="1" t="n">
@@ -15431,10 +15431,10 @@
       <c r="A453" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B453" s="0" t="n">
+      <c r="B453" s="1" t="n">
         <v>-2.6157668</v>
       </c>
-      <c r="C453" s="0" t="n">
+      <c r="C453" s="1" t="n">
         <v>1.0855608</v>
       </c>
       <c r="D453" s="1" t="n">
@@ -15452,10 +15452,10 @@
       <c r="A454" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B454" s="0" t="n">
+      <c r="B454" s="1" t="n">
         <v>-2.6157668</v>
       </c>
-      <c r="C454" s="0" t="n">
+      <c r="C454" s="1" t="n">
         <v>1.0855608</v>
       </c>
       <c r="D454" s="1" t="n">
@@ -15473,10 +15473,10 @@
       <c r="A455" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B455" s="0" t="n">
+      <c r="B455" s="1" t="n">
         <v>-2.615767</v>
       </c>
-      <c r="C455" s="0" t="n">
+      <c r="C455" s="1" t="n">
         <v>1.0855608</v>
       </c>
       <c r="D455" s="1" t="n">
@@ -15494,10 +15494,10 @@
       <c r="A456" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B456" s="0" t="n">
+      <c r="B456" s="1" t="n">
         <v>-2.615767</v>
       </c>
-      <c r="C456" s="0" t="n">
+      <c r="C456" s="1" t="n">
         <v>1.0855608</v>
       </c>
       <c r="D456" s="1" t="n">
@@ -15515,10 +15515,10 @@
       <c r="A457" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B457" s="0" t="n">
+      <c r="B457" s="1" t="n">
         <v>-2.7529333</v>
       </c>
-      <c r="C457" s="0" t="n">
+      <c r="C457" s="1" t="n">
         <v>1.0908011</v>
       </c>
       <c r="D457" s="1" t="n">
@@ -15536,10 +15536,10 @@
       <c r="A458" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B458" s="0" t="n">
+      <c r="B458" s="1" t="n">
         <v>-2.752933</v>
       </c>
-      <c r="C458" s="0" t="n">
+      <c r="C458" s="1" t="n">
         <v>1.090801</v>
       </c>
       <c r="D458" s="1" t="n">
@@ -15557,10 +15557,10 @@
       <c r="A459" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B459" s="0" t="n">
+      <c r="B459" s="1" t="n">
         <v>-2.7529333</v>
       </c>
-      <c r="C459" s="0" t="n">
+      <c r="C459" s="1" t="n">
         <v>1.0908011</v>
       </c>
       <c r="D459" s="1" t="n">
@@ -15578,10 +15578,10 @@
       <c r="A460" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B460" s="0" t="n">
+      <c r="B460" s="1" t="n">
         <v>-2.7529333</v>
       </c>
-      <c r="C460" s="0" t="n">
+      <c r="C460" s="1" t="n">
         <v>1.0908011</v>
       </c>
       <c r="D460" s="1" t="n">
@@ -15599,10 +15599,10 @@
       <c r="A461" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B461" s="0" t="n">
+      <c r="B461" s="1" t="n">
         <v>-2.7529333</v>
       </c>
-      <c r="C461" s="0" t="n">
+      <c r="C461" s="1" t="n">
         <v>1.0908011</v>
       </c>
       <c r="D461" s="1" t="n">
@@ -15620,10 +15620,10 @@
       <c r="A462" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B462" s="0" t="n">
+      <c r="B462" s="1" t="n">
         <v>-1.587971</v>
       </c>
-      <c r="C462" s="0" t="n">
+      <c r="C462" s="1" t="n">
         <v>0.90430117</v>
       </c>
       <c r="D462" s="1" t="n">
@@ -15641,10 +15641,10 @@
       <c r="A463" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B463" s="0" t="n">
+      <c r="B463" s="1" t="n">
         <v>-1.5879707</v>
       </c>
-      <c r="C463" s="0" t="n">
+      <c r="C463" s="1" t="n">
         <v>0.90430117</v>
       </c>
       <c r="D463" s="1" t="n">
@@ -15662,10 +15662,10 @@
       <c r="A464" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B464" s="0" t="n">
+      <c r="B464" s="1" t="n">
         <v>-1.5879711</v>
       </c>
-      <c r="C464" s="0" t="n">
+      <c r="C464" s="1" t="n">
         <v>0.9043012</v>
       </c>
       <c r="D464" s="1" t="n">
@@ -15683,10 +15683,10 @@
       <c r="A465" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B465" s="0" t="n">
+      <c r="B465" s="1" t="n">
         <v>-1.5879712</v>
       </c>
-      <c r="C465" s="0" t="n">
+      <c r="C465" s="1" t="n">
         <v>0.9043013</v>
       </c>
       <c r="D465" s="1" t="n">
@@ -15704,10 +15704,10 @@
       <c r="A466" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B466" s="0" t="n">
+      <c r="B466" s="1" t="n">
         <v>-1.587971</v>
       </c>
-      <c r="C466" s="0" t="n">
+      <c r="C466" s="1" t="n">
         <v>0.9043012</v>
       </c>
       <c r="D466" s="1" t="n">
@@ -15725,10 +15725,10 @@
       <c r="A467" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B467" s="0" t="n">
+      <c r="B467" s="1" t="n">
         <v>-0.6012428</v>
       </c>
-      <c r="C467" s="0" t="n">
+      <c r="C467" s="1" t="n">
         <v>0.49043283</v>
       </c>
       <c r="D467" s="1" t="n">
@@ -15746,10 +15746,10 @@
       <c r="A468" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B468" s="0" t="n">
+      <c r="B468" s="1" t="n">
         <v>-0.6012428</v>
       </c>
-      <c r="C468" s="0" t="n">
+      <c r="C468" s="1" t="n">
         <v>0.49043283</v>
       </c>
       <c r="D468" s="1" t="n">
@@ -15767,10 +15767,10 @@
       <c r="A469" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B469" s="0" t="n">
+      <c r="B469" s="1" t="n">
         <v>-0.6012428</v>
       </c>
-      <c r="C469" s="0" t="n">
+      <c r="C469" s="1" t="n">
         <v>0.49043283</v>
       </c>
       <c r="D469" s="1" t="n">
@@ -15788,10 +15788,10 @@
       <c r="A470" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B470" s="0" t="n">
+      <c r="B470" s="1" t="n">
         <v>-0.6012429</v>
       </c>
-      <c r="C470" s="0" t="n">
+      <c r="C470" s="1" t="n">
         <v>0.4904329</v>
       </c>
       <c r="D470" s="1" t="n">
@@ -15809,10 +15809,10 @@
       <c r="A471" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B471" s="0" t="n">
+      <c r="B471" s="1" t="n">
         <v>-0.6012428</v>
       </c>
-      <c r="C471" s="0" t="n">
+      <c r="C471" s="1" t="n">
         <v>0.49043283</v>
       </c>
       <c r="D471" s="1" t="n">
@@ -15830,10 +15830,10 @@
       <c r="A472" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B472" s="0" t="n">
+      <c r="B472" s="1" t="n">
         <v>-2.5884159</v>
       </c>
-      <c r="C472" s="0" t="n">
+      <c r="C472" s="1" t="n">
         <v>0.98649776</v>
       </c>
       <c r="D472" s="1" t="n">
@@ -15851,10 +15851,10 @@
       <c r="A473" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B473" s="0" t="n">
+      <c r="B473" s="1" t="n">
         <v>-2.5884156</v>
       </c>
-      <c r="C473" s="0" t="n">
+      <c r="C473" s="1" t="n">
         <v>0.9864978</v>
       </c>
       <c r="D473" s="1" t="n">
@@ -15872,10 +15872,10 @@
       <c r="A474" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B474" s="0" t="n">
+      <c r="B474" s="1" t="n">
         <v>-2.5884159</v>
       </c>
-      <c r="C474" s="0" t="n">
+      <c r="C474" s="1" t="n">
         <v>0.9864978</v>
       </c>
       <c r="D474" s="1" t="n">
@@ -15893,10 +15893,10 @@
       <c r="A475" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B475" s="0" t="n">
+      <c r="B475" s="1" t="n">
         <v>-2.5884156</v>
       </c>
-      <c r="C475" s="0" t="n">
+      <c r="C475" s="1" t="n">
         <v>0.98649776</v>
       </c>
       <c r="D475" s="1" t="n">
@@ -15914,10 +15914,10 @@
       <c r="A476" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B476" s="0" t="n">
+      <c r="B476" s="1" t="n">
         <v>-2.5884159</v>
       </c>
-      <c r="C476" s="0" t="n">
+      <c r="C476" s="1" t="n">
         <v>0.9864978</v>
       </c>
       <c r="D476" s="1" t="n">
@@ -15935,10 +15935,10 @@
       <c r="A477" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B477" s="0" t="n">
+      <c r="B477" s="1" t="n">
         <v>-1.7676187</v>
       </c>
-      <c r="C477" s="0" t="n">
+      <c r="C477" s="1" t="n">
         <v>0.8974357</v>
       </c>
       <c r="D477" s="1" t="n">
@@ -15956,10 +15956,10 @@
       <c r="A478" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B478" s="0" t="n">
+      <c r="B478" s="1" t="n">
         <v>-1.7676188</v>
       </c>
-      <c r="C478" s="0" t="n">
+      <c r="C478" s="1" t="n">
         <v>0.89743567</v>
       </c>
       <c r="D478" s="1" t="n">
@@ -15977,10 +15977,10 @@
       <c r="A479" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B479" s="0" t="n">
+      <c r="B479" s="1" t="n">
         <v>-1.7676187</v>
       </c>
-      <c r="C479" s="0" t="n">
+      <c r="C479" s="1" t="n">
         <v>0.89743567</v>
       </c>
       <c r="D479" s="1" t="n">
@@ -15998,10 +15998,10 @@
       <c r="A480" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B480" s="0" t="n">
+      <c r="B480" s="1" t="n">
         <v>-1.7676188</v>
       </c>
-      <c r="C480" s="0" t="n">
+      <c r="C480" s="1" t="n">
         <v>0.89743567</v>
       </c>
       <c r="D480" s="1" t="n">
@@ -16019,10 +16019,10 @@
       <c r="A481" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B481" s="0" t="n">
+      <c r="B481" s="1" t="n">
         <v>-1.7676189</v>
       </c>
-      <c r="C481" s="0" t="n">
+      <c r="C481" s="1" t="n">
         <v>0.8974357</v>
       </c>
       <c r="D481" s="1" t="n">
@@ -16040,10 +16040,10 @@
       <c r="A482" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B482" s="0" t="n">
+      <c r="B482" s="1" t="n">
         <v>-1.7020503</v>
       </c>
-      <c r="C482" s="0" t="n">
+      <c r="C482" s="1" t="n">
         <v>0.7166235</v>
       </c>
       <c r="D482" s="1" t="n">
@@ -16061,10 +16061,10 @@
       <c r="A483" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B483" s="0" t="n">
+      <c r="B483" s="1" t="n">
         <v>-1.7020503</v>
       </c>
-      <c r="C483" s="0" t="n">
+      <c r="C483" s="1" t="n">
         <v>0.71662337</v>
       </c>
       <c r="D483" s="1" t="n">
@@ -16082,10 +16082,10 @@
       <c r="A484" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B484" s="0" t="n">
+      <c r="B484" s="1" t="n">
         <v>-1.7020503</v>
       </c>
-      <c r="C484" s="0" t="n">
+      <c r="C484" s="1" t="n">
         <v>0.7166234</v>
       </c>
       <c r="D484" s="1" t="n">
@@ -16103,10 +16103,10 @@
       <c r="A485" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B485" s="0" t="n">
+      <c r="B485" s="1" t="n">
         <v>-1.7020503</v>
       </c>
-      <c r="C485" s="0" t="n">
+      <c r="C485" s="1" t="n">
         <v>0.71662337</v>
       </c>
       <c r="D485" s="1" t="n">
@@ -16124,10 +16124,10 @@
       <c r="A486" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B486" s="0" t="n">
+      <c r="B486" s="1" t="n">
         <v>-1.7020503</v>
       </c>
-      <c r="C486" s="0" t="n">
+      <c r="C486" s="1" t="n">
         <v>0.7166234</v>
       </c>
       <c r="D486" s="1" t="n">
@@ -16145,10 +16145,10 @@
       <c r="A487" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B487" s="0" t="n">
+      <c r="B487" s="1" t="n">
         <v>-2.732099</v>
       </c>
-      <c r="C487" s="0" t="n">
+      <c r="C487" s="1" t="n">
         <v>0.7525686</v>
       </c>
       <c r="D487" s="1" t="n">
@@ -16166,10 +16166,10 @@
       <c r="A488" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B488" s="0" t="n">
+      <c r="B488" s="1" t="n">
         <v>-2.732099</v>
       </c>
-      <c r="C488" s="0" t="n">
+      <c r="C488" s="1" t="n">
         <v>0.75256854</v>
       </c>
       <c r="D488" s="1" t="n">
@@ -16187,10 +16187,10 @@
       <c r="A489" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B489" s="0" t="n">
+      <c r="B489" s="1" t="n">
         <v>-2.732099</v>
       </c>
-      <c r="C489" s="0" t="n">
+      <c r="C489" s="1" t="n">
         <v>0.75256866</v>
       </c>
       <c r="D489" s="1" t="n">
@@ -16208,10 +16208,10 @@
       <c r="A490" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B490" s="0" t="n">
+      <c r="B490" s="1" t="n">
         <v>-2.732099</v>
       </c>
-      <c r="C490" s="0" t="n">
+      <c r="C490" s="1" t="n">
         <v>0.7525686</v>
       </c>
       <c r="D490" s="1" t="n">
@@ -16229,10 +16229,10 @@
       <c r="A491" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B491" s="0" t="n">
+      <c r="B491" s="1" t="n">
         <v>-2.732099</v>
       </c>
-      <c r="C491" s="0" t="n">
+      <c r="C491" s="1" t="n">
         <v>0.7525686</v>
       </c>
       <c r="D491" s="1" t="n">
@@ -16250,10 +16250,10 @@
       <c r="A492" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B492" s="0" t="n">
+      <c r="B492" s="1" t="n">
         <v>-2.0971239</v>
       </c>
-      <c r="C492" s="0" t="n">
+      <c r="C492" s="1" t="n">
         <v>0.6370488</v>
       </c>
       <c r="D492" s="1" t="n">
@@ -16271,10 +16271,10 @@
       <c r="A493" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B493" s="0" t="n">
+      <c r="B493" s="1" t="n">
         <v>-2.0971239</v>
       </c>
-      <c r="C493" s="0" t="n">
+      <c r="C493" s="1" t="n">
         <v>0.6370488</v>
       </c>
       <c r="D493" s="1" t="n">
@@ -16292,10 +16292,10 @@
       <c r="A494" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B494" s="0" t="n">
+      <c r="B494" s="1" t="n">
         <v>-2.0971239</v>
       </c>
-      <c r="C494" s="0" t="n">
+      <c r="C494" s="1" t="n">
         <v>0.6370488</v>
       </c>
       <c r="D494" s="1" t="n">
@@ -16313,10 +16313,10 @@
       <c r="A495" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B495" s="0" t="n">
+      <c r="B495" s="1" t="n">
         <v>-2.0971239</v>
       </c>
-      <c r="C495" s="0" t="n">
+      <c r="C495" s="1" t="n">
         <v>0.63704884</v>
       </c>
       <c r="D495" s="1" t="n">
@@ -16334,10 +16334,10 @@
       <c r="A496" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B496" s="0" t="n">
+      <c r="B496" s="1" t="n">
         <v>-2.097124</v>
       </c>
-      <c r="C496" s="0" t="n">
+      <c r="C496" s="1" t="n">
         <v>0.6370488</v>
       </c>
       <c r="D496" s="1" t="n">
@@ -16355,10 +16355,10 @@
       <c r="A497" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B497" s="0" t="n">
+      <c r="B497" s="1" t="n">
         <v>-1.1006057</v>
       </c>
-      <c r="C497" s="0" t="n">
+      <c r="C497" s="1" t="n">
         <v>0.74271494</v>
       </c>
       <c r="D497" s="1" t="n">
@@ -16376,10 +16376,10 @@
       <c r="A498" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B498" s="0" t="n">
+      <c r="B498" s="1" t="n">
         <v>-1.1006057</v>
       </c>
-      <c r="C498" s="0" t="n">
+      <c r="C498" s="1" t="n">
         <v>0.74271506</v>
       </c>
       <c r="D498" s="1" t="n">
@@ -16397,10 +16397,10 @@
       <c r="A499" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B499" s="0" t="n">
+      <c r="B499" s="1" t="n">
         <v>-1.1006058</v>
       </c>
-      <c r="C499" s="0" t="n">
+      <c r="C499" s="1" t="n">
         <v>0.742715</v>
       </c>
       <c r="D499" s="1" t="n">
@@ -16418,10 +16418,10 @@
       <c r="A500" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B500" s="0" t="n">
+      <c r="B500" s="1" t="n">
         <v>-1.1006057</v>
       </c>
-      <c r="C500" s="0" t="n">
+      <c r="C500" s="1" t="n">
         <v>0.742715</v>
       </c>
       <c r="D500" s="1" t="n">
@@ -16439,10 +16439,10 @@
       <c r="A501" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B501" s="0" t="n">
+      <c r="B501" s="1" t="n">
         <v>-1.1006055</v>
       </c>
-      <c r="C501" s="0" t="n">
+      <c r="C501" s="1" t="n">
         <v>0.74271494</v>
       </c>
       <c r="D501" s="1" t="n">
@@ -16460,10 +16460,10 @@
       <c r="A502" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B502" s="0" t="n">
+      <c r="B502" s="1" t="n">
         <v>-1.9303142</v>
       </c>
-      <c r="C502" s="0" t="n">
+      <c r="C502" s="1" t="n">
         <v>0.94539154</v>
       </c>
       <c r="D502" s="1" t="n">
@@ -16481,10 +16481,10 @@
       <c r="A503" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B503" s="0" t="n">
+      <c r="B503" s="1" t="n">
         <v>-1.9303142</v>
       </c>
-      <c r="C503" s="0" t="n">
+      <c r="C503" s="1" t="n">
         <v>0.94539136</v>
       </c>
       <c r="D503" s="1" t="n">
@@ -16502,10 +16502,10 @@
       <c r="A504" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B504" s="0" t="n">
+      <c r="B504" s="1" t="n">
         <v>-1.9303142</v>
       </c>
-      <c r="C504" s="0" t="n">
+      <c r="C504" s="1" t="n">
         <v>0.94539154</v>
       </c>
       <c r="D504" s="1" t="n">
@@ -16523,10 +16523,10 @@
       <c r="A505" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B505" s="0" t="n">
+      <c r="B505" s="1" t="n">
         <v>-1.9303143</v>
       </c>
-      <c r="C505" s="0" t="n">
+      <c r="C505" s="1" t="n">
         <v>0.9453915</v>
       </c>
       <c r="D505" s="1" t="n">
@@ -16544,10 +16544,10 @@
       <c r="A506" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B506" s="0" t="n">
+      <c r="B506" s="1" t="n">
         <v>-1.9303142</v>
       </c>
-      <c r="C506" s="0" t="n">
+      <c r="C506" s="1" t="n">
         <v>0.9453915</v>
       </c>
       <c r="D506" s="1" t="n">
@@ -16565,10 +16565,10 @@
       <c r="A507" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B507" s="0" t="n">
+      <c r="B507" s="1" t="n">
         <v>-2.2598076</v>
       </c>
-      <c r="C507" s="0" t="n">
+      <c r="C507" s="1" t="n">
         <v>0.85565305</v>
       </c>
       <c r="D507" s="1" t="n">
@@ -16586,10 +16586,10 @@
       <c r="A508" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B508" s="0" t="n">
+      <c r="B508" s="1" t="n">
         <v>-2.2598078</v>
       </c>
-      <c r="C508" s="0" t="n">
+      <c r="C508" s="1" t="n">
         <v>0.85565305</v>
       </c>
       <c r="D508" s="1" t="n">
@@ -16607,10 +16607,10 @@
       <c r="A509" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B509" s="0" t="n">
+      <c r="B509" s="1" t="n">
         <v>-2.2598078</v>
       </c>
-      <c r="C509" s="0" t="n">
+      <c r="C509" s="1" t="n">
         <v>0.85565305</v>
       </c>
       <c r="D509" s="1" t="n">
@@ -16628,10 +16628,10 @@
       <c r="A510" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B510" s="0" t="n">
+      <c r="B510" s="1" t="n">
         <v>-2.259808</v>
       </c>
-      <c r="C510" s="0" t="n">
+      <c r="C510" s="1" t="n">
         <v>0.8556531</v>
       </c>
       <c r="D510" s="1" t="n">
@@ -16649,10 +16649,10 @@
       <c r="A511" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B511" s="0" t="n">
+      <c r="B511" s="1" t="n">
         <v>-2.2598078</v>
       </c>
-      <c r="C511" s="0" t="n">
+      <c r="C511" s="1" t="n">
         <v>0.85565305</v>
       </c>
       <c r="D511" s="1" t="n">
@@ -16670,10 +16670,10 @@
       <c r="A512" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B512" s="0" t="n">
+      <c r="B512" s="1" t="n">
         <v>-2.3314877</v>
       </c>
-      <c r="C512" s="0" t="n">
+      <c r="C512" s="1" t="n">
         <v>1.0049258</v>
       </c>
       <c r="D512" s="1" t="n">
@@ -16691,10 +16691,10 @@
       <c r="A513" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B513" s="0" t="n">
+      <c r="B513" s="1" t="n">
         <v>-2.3314877</v>
       </c>
-      <c r="C513" s="0" t="n">
+      <c r="C513" s="1" t="n">
         <v>1.0049261</v>
       </c>
       <c r="D513" s="1" t="n">
@@ -16712,10 +16712,10 @@
       <c r="A514" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B514" s="0" t="n">
+      <c r="B514" s="1" t="n">
         <v>-2.3314877</v>
       </c>
-      <c r="C514" s="0" t="n">
+      <c r="C514" s="1" t="n">
         <v>1.0049261</v>
       </c>
       <c r="D514" s="1" t="n">
@@ -16733,10 +16733,10 @@
       <c r="A515" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B515" s="0" t="n">
+      <c r="B515" s="1" t="n">
         <v>-2.3314877</v>
       </c>
-      <c r="C515" s="0" t="n">
+      <c r="C515" s="1" t="n">
         <v>1.0049261</v>
       </c>
       <c r="D515" s="1" t="n">
@@ -16754,10 +16754,10 @@
       <c r="A516" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B516" s="0" t="n">
+      <c r="B516" s="1" t="n">
         <v>-2.3314877</v>
       </c>
-      <c r="C516" s="0" t="n">
+      <c r="C516" s="1" t="n">
         <v>1.004926</v>
       </c>
       <c r="D516" s="1" t="n">
@@ -16775,10 +16775,10 @@
       <c r="A517" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B517" s="0" t="n">
+      <c r="B517" s="1" t="n">
         <v>-1.9304795</v>
       </c>
-      <c r="C517" s="0" t="n">
+      <c r="C517" s="1" t="n">
         <v>0.69099885</v>
       </c>
       <c r="D517" s="1" t="n">
@@ -16796,10 +16796,10 @@
       <c r="A518" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B518" s="0" t="n">
+      <c r="B518" s="1" t="n">
         <v>-1.9304795</v>
       </c>
-      <c r="C518" s="0" t="n">
+      <c r="C518" s="1" t="n">
         <v>0.6909989</v>
       </c>
       <c r="D518" s="1" t="n">
@@ -16817,10 +16817,10 @@
       <c r="A519" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B519" s="0" t="n">
+      <c r="B519" s="1" t="n">
         <v>-1.9304794</v>
       </c>
-      <c r="C519" s="0" t="n">
+      <c r="C519" s="1" t="n">
         <v>0.69099885</v>
       </c>
       <c r="D519" s="1" t="n">
@@ -16838,10 +16838,10 @@
       <c r="A520" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B520" s="0" t="n">
+      <c r="B520" s="1" t="n">
         <v>-1.9304798</v>
       </c>
-      <c r="C520" s="0" t="n">
+      <c r="C520" s="1" t="n">
         <v>0.69099885</v>
       </c>
       <c r="D520" s="1" t="n">
@@ -16859,10 +16859,10 @@
       <c r="A521" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B521" s="0" t="n">
+      <c r="B521" s="1" t="n">
         <v>-1.9304794</v>
       </c>
-      <c r="C521" s="0" t="n">
+      <c r="C521" s="1" t="n">
         <v>0.69099885</v>
       </c>
       <c r="D521" s="1" t="n">
@@ -16880,10 +16880,10 @@
       <c r="A522" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B522" s="0" t="n">
+      <c r="B522" s="1" t="n">
         <v>-2.1894739</v>
       </c>
-      <c r="C522" s="0" t="n">
+      <c r="C522" s="1" t="n">
         <v>0.7566844</v>
       </c>
       <c r="D522" s="1" t="n">
@@ -16901,10 +16901,10 @@
       <c r="A523" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B523" s="0" t="n">
+      <c r="B523" s="1" t="n">
         <v>-2.1894739</v>
       </c>
-      <c r="C523" s="0" t="n">
+      <c r="C523" s="1" t="n">
         <v>0.75668436</v>
       </c>
       <c r="D523" s="1" t="n">
@@ -16922,10 +16922,10 @@
       <c r="A524" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B524" s="0" t="n">
+      <c r="B524" s="1" t="n">
         <v>-2.189474</v>
       </c>
-      <c r="C524" s="0" t="n">
+      <c r="C524" s="1" t="n">
         <v>0.75668436</v>
       </c>
       <c r="D524" s="1" t="n">
@@ -16943,10 +16943,10 @@
       <c r="A525" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B525" s="0" t="n">
+      <c r="B525" s="1" t="n">
         <v>-2.1894739</v>
       </c>
-      <c r="C525" s="0" t="n">
+      <c r="C525" s="1" t="n">
         <v>0.7566844</v>
       </c>
       <c r="D525" s="1" t="n">
@@ -16964,10 +16964,10 @@
       <c r="A526" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B526" s="0" t="n">
+      <c r="B526" s="1" t="n">
         <v>-2.1894739</v>
       </c>
-      <c r="C526" s="0" t="n">
+      <c r="C526" s="1" t="n">
         <v>0.7566844</v>
       </c>
       <c r="D526" s="1" t="n">
@@ -16985,10 +16985,10 @@
       <c r="A527" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B527" s="0" t="n">
+      <c r="B527" s="1" t="n">
         <v>-1.9907867</v>
       </c>
-      <c r="C527" s="0" t="n">
+      <c r="C527" s="1" t="n">
         <v>0.487218</v>
       </c>
       <c r="D527" s="1" t="n">
@@ -17006,10 +17006,10 @@
       <c r="A528" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B528" s="0" t="n">
+      <c r="B528" s="1" t="n">
         <v>-1.9907867</v>
       </c>
-      <c r="C528" s="0" t="n">
+      <c r="C528" s="1" t="n">
         <v>0.487218</v>
       </c>
       <c r="D528" s="1" t="n">
@@ -17027,10 +17027,10 @@
       <c r="A529" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B529" s="0" t="n">
+      <c r="B529" s="1" t="n">
         <v>-1.9907867</v>
       </c>
-      <c r="C529" s="0" t="n">
+      <c r="C529" s="1" t="n">
         <v>0.487218</v>
       </c>
       <c r="D529" s="1" t="n">
@@ -17048,10 +17048,10 @@
       <c r="A530" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B530" s="0" t="n">
+      <c r="B530" s="1" t="n">
         <v>-1.9907867</v>
       </c>
-      <c r="C530" s="0" t="n">
+      <c r="C530" s="1" t="n">
         <v>0.487218</v>
       </c>
       <c r="D530" s="1" t="n">
@@ -17069,10 +17069,10 @@
       <c r="A531" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B531" s="0" t="n">
+      <c r="B531" s="1" t="n">
         <v>-1.9907867</v>
       </c>
-      <c r="C531" s="0" t="n">
+      <c r="C531" s="1" t="n">
         <v>0.48721793</v>
       </c>
       <c r="D531" s="1" t="n">
@@ -17090,10 +17090,10 @@
       <c r="A532" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B532" s="0" t="n">
+      <c r="B532" s="1" t="n">
         <v>-1.9973347</v>
       </c>
-      <c r="C532" s="0" t="n">
+      <c r="C532" s="1" t="n">
         <v>0.4997354</v>
       </c>
       <c r="D532" s="1" t="n">
@@ -17111,10 +17111,10 @@
       <c r="A533" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B533" s="0" t="n">
+      <c r="B533" s="1" t="n">
         <v>-1.9973346</v>
       </c>
-      <c r="C533" s="0" t="n">
+      <c r="C533" s="1" t="n">
         <v>0.49973544</v>
       </c>
       <c r="D533" s="1" t="n">
@@ -17132,10 +17132,10 @@
       <c r="A534" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B534" s="0" t="n">
+      <c r="B534" s="1" t="n">
         <v>-1.997335</v>
       </c>
-      <c r="C534" s="0" t="n">
+      <c r="C534" s="1" t="n">
         <v>0.49973544</v>
       </c>
       <c r="D534" s="1" t="n">
@@ -17153,10 +17153,10 @@
       <c r="A535" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B535" s="0" t="n">
+      <c r="B535" s="1" t="n">
         <v>-1.9973348</v>
       </c>
-      <c r="C535" s="0" t="n">
+      <c r="C535" s="1" t="n">
         <v>0.49973541</v>
       </c>
       <c r="D535" s="1" t="n">
@@ -17174,10 +17174,10 @@
       <c r="A536" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B536" s="0" t="n">
+      <c r="B536" s="1" t="n">
         <v>-1.9973348</v>
       </c>
-      <c r="C536" s="0" t="n">
+      <c r="C536" s="1" t="n">
         <v>0.49973544</v>
       </c>
       <c r="D536" s="1" t="n">
@@ -17195,10 +17195,10 @@
       <c r="A537" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B537" s="0" t="n">
+      <c r="B537" s="1" t="n">
         <v>-3.9273274</v>
       </c>
-      <c r="C537" s="0" t="n">
+      <c r="C537" s="1" t="n">
         <v>1.173715</v>
       </c>
       <c r="D537" s="1" t="n">
@@ -17216,10 +17216,10 @@
       <c r="A538" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B538" s="0" t="n">
+      <c r="B538" s="1" t="n">
         <v>-3.9273274</v>
       </c>
-      <c r="C538" s="0" t="n">
+      <c r="C538" s="1" t="n">
         <v>1.173715</v>
       </c>
       <c r="D538" s="1" t="n">
@@ -17237,10 +17237,10 @@
       <c r="A539" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B539" s="0" t="n">
+      <c r="B539" s="1" t="n">
         <v>-3.9273274</v>
       </c>
-      <c r="C539" s="0" t="n">
+      <c r="C539" s="1" t="n">
         <v>1.1737149</v>
       </c>
       <c r="D539" s="1" t="n">
@@ -17258,10 +17258,10 @@
       <c r="A540" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B540" s="0" t="n">
+      <c r="B540" s="1" t="n">
         <v>-3.9273274</v>
       </c>
-      <c r="C540" s="0" t="n">
+      <c r="C540" s="1" t="n">
         <v>1.1737149</v>
       </c>
       <c r="D540" s="1" t="n">
@@ -17279,10 +17279,10 @@
       <c r="A541" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B541" s="0" t="n">
+      <c r="B541" s="1" t="n">
         <v>-3.9273279</v>
       </c>
-      <c r="C541" s="0" t="n">
+      <c r="C541" s="1" t="n">
         <v>1.173715</v>
       </c>
       <c r="D541" s="1" t="n">
@@ -17300,10 +17300,10 @@
       <c r="A542" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B542" s="0" t="n">
+      <c r="B542" s="1" t="n">
         <v>-2.0732236</v>
       </c>
-      <c r="C542" s="0" t="n">
+      <c r="C542" s="1" t="n">
         <v>0.7449448</v>
       </c>
       <c r="D542" s="1" t="n">
@@ -17321,10 +17321,10 @@
       <c r="A543" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B543" s="0" t="n">
+      <c r="B543" s="1" t="n">
         <v>-2.0732236</v>
       </c>
-      <c r="C543" s="0" t="n">
+      <c r="C543" s="1" t="n">
         <v>0.7449447</v>
       </c>
       <c r="D543" s="1" t="n">
@@ -17342,10 +17342,10 @@
       <c r="A544" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B544" s="0" t="n">
+      <c r="B544" s="1" t="n">
         <v>-2.0732236</v>
       </c>
-      <c r="C544" s="0" t="n">
+      <c r="C544" s="1" t="n">
         <v>0.74494463</v>
       </c>
       <c r="D544" s="1" t="n">
@@ -17363,10 +17363,10 @@
       <c r="A545" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B545" s="0" t="n">
+      <c r="B545" s="1" t="n">
         <v>-2.0732236</v>
       </c>
-      <c r="C545" s="0" t="n">
+      <c r="C545" s="1" t="n">
         <v>0.7449447</v>
       </c>
       <c r="D545" s="1" t="n">
@@ -17384,10 +17384,10 @@
       <c r="A546" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B546" s="0" t="n">
+      <c r="B546" s="1" t="n">
         <v>-2.0732236</v>
       </c>
-      <c r="C546" s="0" t="n">
+      <c r="C546" s="1" t="n">
         <v>0.7449447</v>
       </c>
       <c r="D546" s="1" t="n">
@@ -17405,10 +17405,10 @@
       <c r="A547" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B547" s="0" t="n">
+      <c r="B547" s="1" t="n">
         <v>-2.919679</v>
       </c>
-      <c r="C547" s="0" t="n">
+      <c r="C547" s="1" t="n">
         <v>0.7218943</v>
       </c>
       <c r="D547" s="1" t="n">
@@ -17426,10 +17426,10 @@
       <c r="A548" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B548" s="0" t="n">
+      <c r="B548" s="1" t="n">
         <v>-2.9196787</v>
       </c>
-      <c r="C548" s="0" t="n">
+      <c r="C548" s="1" t="n">
         <v>0.7218944</v>
       </c>
       <c r="D548" s="1" t="n">
@@ -17447,10 +17447,10 @@
       <c r="A549" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B549" s="0" t="n">
+      <c r="B549" s="1" t="n">
         <v>-2.919679</v>
       </c>
-      <c r="C549" s="0" t="n">
+      <c r="C549" s="1" t="n">
         <v>0.7218944</v>
       </c>
       <c r="D549" s="1" t="n">
@@ -17468,10 +17468,10 @@
       <c r="A550" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B550" s="0" t="n">
+      <c r="B550" s="1" t="n">
         <v>-2.9196787</v>
       </c>
-      <c r="C550" s="0" t="n">
+      <c r="C550" s="1" t="n">
         <v>0.72189444</v>
       </c>
       <c r="D550" s="1" t="n">
@@ -17489,10 +17489,10 @@
       <c r="A551" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B551" s="0" t="n">
+      <c r="B551" s="1" t="n">
         <v>-2.919679</v>
       </c>
-      <c r="C551" s="0" t="n">
+      <c r="C551" s="1" t="n">
         <v>0.72189444</v>
       </c>
       <c r="D551" s="1" t="n">
@@ -17510,10 +17510,10 @@
       <c r="A552" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B552" s="0" t="n">
+      <c r="B552" s="1" t="n">
         <v>-1.1465143</v>
       </c>
-      <c r="C552" s="0" t="n">
+      <c r="C552" s="1" t="n">
         <v>0.7994484</v>
       </c>
       <c r="D552" s="1" t="n">
@@ -17531,10 +17531,10 @@
       <c r="A553" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B553" s="0" t="n">
+      <c r="B553" s="1" t="n">
         <v>-1.146514</v>
       </c>
-      <c r="C553" s="0" t="n">
+      <c r="C553" s="1" t="n">
         <v>0.7994484</v>
       </c>
       <c r="D553" s="1" t="n">
@@ -17552,10 +17552,10 @@
       <c r="A554" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B554" s="0" t="n">
+      <c r="B554" s="1" t="n">
         <v>-1.1465142</v>
       </c>
-      <c r="C554" s="0" t="n">
+      <c r="C554" s="1" t="n">
         <v>0.7994484</v>
       </c>
       <c r="D554" s="1" t="n">
@@ -17573,10 +17573,10 @@
       <c r="A555" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B555" s="0" t="n">
+      <c r="B555" s="1" t="n">
         <v>-1.1465142</v>
       </c>
-      <c r="C555" s="0" t="n">
+      <c r="C555" s="1" t="n">
         <v>0.7994483</v>
       </c>
       <c r="D555" s="1" t="n">
@@ -17594,10 +17594,10 @@
       <c r="A556" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B556" s="0" t="n">
+      <c r="B556" s="1" t="n">
         <v>-1.1465142</v>
       </c>
-      <c r="C556" s="0" t="n">
+      <c r="C556" s="1" t="n">
         <v>0.7994484</v>
       </c>
       <c r="D556" s="1" t="n">
@@ -17615,10 +17615,10 @@
       <c r="A557" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B557" s="0" t="n">
+      <c r="B557" s="1" t="n">
         <v>0.15614483</v>
       </c>
-      <c r="C557" s="0" t="n">
+      <c r="C557" s="1" t="n">
         <v>0.6697583</v>
       </c>
       <c r="D557" s="1" t="n">
@@ -17636,10 +17636,10 @@
       <c r="A558" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B558" s="0" t="n">
+      <c r="B558" s="1" t="n">
         <v>0.15614483</v>
       </c>
-      <c r="C558" s="0" t="n">
+      <c r="C558" s="1" t="n">
         <v>0.66975826</v>
       </c>
       <c r="D558" s="1" t="n">
@@ -17657,10 +17657,10 @@
       <c r="A559" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B559" s="0" t="n">
+      <c r="B559" s="1" t="n">
         <v>0.15614484</v>
       </c>
-      <c r="C559" s="0" t="n">
+      <c r="C559" s="1" t="n">
         <v>0.6697583</v>
       </c>
       <c r="D559" s="1" t="n">
@@ -17678,10 +17678,10 @@
       <c r="A560" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B560" s="0" t="n">
+      <c r="B560" s="1" t="n">
         <v>0.15614484</v>
       </c>
-      <c r="C560" s="0" t="n">
+      <c r="C560" s="1" t="n">
         <v>0.66975826</v>
       </c>
       <c r="D560" s="1" t="n">
@@ -17699,10 +17699,10 @@
       <c r="A561" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B561" s="0" t="n">
+      <c r="B561" s="1" t="n">
         <v>0.1561448</v>
       </c>
-      <c r="C561" s="0" t="n">
+      <c r="C561" s="1" t="n">
         <v>0.66975826</v>
       </c>
       <c r="D561" s="1" t="n">
@@ -17720,10 +17720,10 @@
       <c r="A562" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B562" s="0" t="n">
+      <c r="B562" s="1" t="n">
         <v>-1.4802169</v>
       </c>
-      <c r="C562" s="0" t="n">
+      <c r="C562" s="1" t="n">
         <v>0.90982026</v>
       </c>
       <c r="D562" s="1" t="n">
@@ -17741,10 +17741,10 @@
       <c r="A563" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B563" s="0" t="n">
+      <c r="B563" s="1" t="n">
         <v>-1.4802167</v>
       </c>
-      <c r="C563" s="0" t="n">
+      <c r="C563" s="1" t="n">
         <v>0.90982026</v>
       </c>
       <c r="D563" s="1" t="n">
@@ -17762,10 +17762,10 @@
       <c r="A564" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B564" s="0" t="n">
+      <c r="B564" s="1" t="n">
         <v>-1.4802167</v>
       </c>
-      <c r="C564" s="0" t="n">
+      <c r="C564" s="1" t="n">
         <v>0.90982026</v>
       </c>
       <c r="D564" s="1" t="n">
@@ -17783,10 +17783,10 @@
       <c r="A565" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B565" s="0" t="n">
+      <c r="B565" s="1" t="n">
         <v>-1.4802169</v>
       </c>
-      <c r="C565" s="0" t="n">
+      <c r="C565" s="1" t="n">
         <v>0.90982026</v>
       </c>
       <c r="D565" s="1" t="n">
@@ -17804,10 +17804,10 @@
       <c r="A566" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B566" s="0" t="n">
+      <c r="B566" s="1" t="n">
         <v>-1.4802167</v>
       </c>
-      <c r="C566" s="0" t="n">
+      <c r="C566" s="1" t="n">
         <v>0.90982026</v>
       </c>
       <c r="D566" s="1" t="n">
@@ -17825,10 +17825,10 @@
       <c r="A567" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B567" s="0" t="n">
+      <c r="B567" s="1" t="n">
         <v>-0.674068</v>
       </c>
-      <c r="C567" s="0" t="n">
+      <c r="C567" s="1" t="n">
         <v>0.891292</v>
       </c>
       <c r="D567" s="1" t="n">
@@ -17846,10 +17846,10 @@
       <c r="A568" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B568" s="0" t="n">
+      <c r="B568" s="1" t="n">
         <v>-0.67406785</v>
       </c>
-      <c r="C568" s="0" t="n">
+      <c r="C568" s="1" t="n">
         <v>0.89129204</v>
       </c>
       <c r="D568" s="1" t="n">
@@ -17867,10 +17867,10 @@
       <c r="A569" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B569" s="0" t="n">
+      <c r="B569" s="1" t="n">
         <v>-0.674068</v>
       </c>
-      <c r="C569" s="0" t="n">
+      <c r="C569" s="1" t="n">
         <v>0.891292</v>
       </c>
       <c r="D569" s="1" t="n">
@@ -17888,10 +17888,10 @@
       <c r="A570" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B570" s="0" t="n">
+      <c r="B570" s="1" t="n">
         <v>-0.674068</v>
       </c>
-      <c r="C570" s="0" t="n">
+      <c r="C570" s="1" t="n">
         <v>0.891292</v>
       </c>
       <c r="D570" s="1" t="n">
@@ -17909,10 +17909,10 @@
       <c r="A571" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B571" s="0" t="n">
+      <c r="B571" s="1" t="n">
         <v>-0.674068</v>
       </c>
-      <c r="C571" s="0" t="n">
+      <c r="C571" s="1" t="n">
         <v>0.89129204</v>
       </c>
       <c r="D571" s="1" t="n">
@@ -17930,10 +17930,10 @@
       <c r="A572" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B572" s="0" t="n">
+      <c r="B572" s="1" t="n">
         <v>-2.1205177</v>
       </c>
-      <c r="C572" s="0" t="n">
+      <c r="C572" s="1" t="n">
         <v>0.8995028</v>
       </c>
       <c r="D572" s="1" t="n">
@@ -17951,10 +17951,10 @@
       <c r="A573" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B573" s="0" t="n">
+      <c r="B573" s="1" t="n">
         <v>-2.1205177</v>
       </c>
-      <c r="C573" s="0" t="n">
+      <c r="C573" s="1" t="n">
         <v>0.8995029</v>
       </c>
       <c r="D573" s="1" t="n">
@@ -17972,10 +17972,10 @@
       <c r="A574" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B574" s="0" t="n">
+      <c r="B574" s="1" t="n">
         <v>-2.120518</v>
       </c>
-      <c r="C574" s="0" t="n">
+      <c r="C574" s="1" t="n">
         <v>0.8995028</v>
       </c>
       <c r="D574" s="1" t="n">
@@ -17993,10 +17993,10 @@
       <c r="A575" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B575" s="0" t="n">
+      <c r="B575" s="1" t="n">
         <v>-2.1205177</v>
       </c>
-      <c r="C575" s="0" t="n">
+      <c r="C575" s="1" t="n">
         <v>0.8995028</v>
       </c>
       <c r="D575" s="1" t="n">
@@ -18014,10 +18014,10 @@
       <c r="A576" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B576" s="0" t="n">
+      <c r="B576" s="1" t="n">
         <v>-2.120518</v>
       </c>
-      <c r="C576" s="0" t="n">
+      <c r="C576" s="1" t="n">
         <v>0.8995028</v>
       </c>
       <c r="D576" s="1" t="n">
@@ -18035,10 +18035,10 @@
       <c r="A577" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B577" s="0" t="n">
+      <c r="B577" s="1" t="n">
         <v>-1.9714543</v>
       </c>
-      <c r="C577" s="0" t="n">
+      <c r="C577" s="1" t="n">
         <v>0.8373382</v>
       </c>
       <c r="D577" s="1" t="n">
@@ -18056,10 +18056,10 @@
       <c r="A578" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B578" s="0" t="n">
+      <c r="B578" s="1" t="n">
         <v>-1.9714544</v>
       </c>
-      <c r="C578" s="0" t="n">
+      <c r="C578" s="1" t="n">
         <v>0.8373382</v>
       </c>
       <c r="D578" s="1" t="n">
@@ -18077,10 +18077,10 @@
       <c r="A579" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B579" s="0" t="n">
+      <c r="B579" s="1" t="n">
         <v>-1.9714541</v>
       </c>
-      <c r="C579" s="0" t="n">
+      <c r="C579" s="1" t="n">
         <v>0.83733827</v>
       </c>
       <c r="D579" s="1" t="n">
@@ -18098,10 +18098,10 @@
       <c r="A580" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B580" s="0" t="n">
+      <c r="B580" s="1" t="n">
         <v>-1.9714544</v>
       </c>
-      <c r="C580" s="0" t="n">
+      <c r="C580" s="1" t="n">
         <v>0.8373382</v>
       </c>
       <c r="D580" s="1" t="n">
@@ -18119,10 +18119,10 @@
       <c r="A581" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B581" s="0" t="n">
+      <c r="B581" s="1" t="n">
         <v>-1.9714544</v>
       </c>
-      <c r="C581" s="0" t="n">
+      <c r="C581" s="1" t="n">
         <v>0.8373382</v>
       </c>
       <c r="D581" s="1" t="n">
@@ -18140,10 +18140,10 @@
       <c r="A582" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B582" s="0" t="n">
+      <c r="B582" s="1" t="n">
         <v>-3.2617962</v>
       </c>
-      <c r="C582" s="0" t="n">
+      <c r="C582" s="1" t="n">
         <v>1.1564779</v>
       </c>
       <c r="D582" s="1" t="n">
@@ -18161,10 +18161,10 @@
       <c r="A583" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B583" s="0" t="n">
+      <c r="B583" s="1" t="n">
         <v>-3.2617962</v>
       </c>
-      <c r="C583" s="0" t="n">
+      <c r="C583" s="1" t="n">
         <v>1.1564779</v>
       </c>
       <c r="D583" s="1" t="n">
@@ -18182,10 +18182,10 @@
       <c r="A584" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B584" s="0" t="n">
+      <c r="B584" s="1" t="n">
         <v>-3.2617962</v>
       </c>
-      <c r="C584" s="0" t="n">
+      <c r="C584" s="1" t="n">
         <v>1.1564779</v>
       </c>
       <c r="D584" s="1" t="n">
@@ -18203,10 +18203,10 @@
       <c r="A585" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B585" s="0" t="n">
+      <c r="B585" s="1" t="n">
         <v>-3.2617962</v>
       </c>
-      <c r="C585" s="0" t="n">
+      <c r="C585" s="1" t="n">
         <v>1.156478</v>
       </c>
       <c r="D585" s="1" t="n">
@@ -18224,10 +18224,10 @@
       <c r="A586" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B586" s="0" t="n">
+      <c r="B586" s="1" t="n">
         <v>-3.2617962</v>
       </c>
-      <c r="C586" s="0" t="n">
+      <c r="C586" s="1" t="n">
         <v>1.1564779</v>
       </c>
       <c r="D586" s="1" t="n">
@@ -18245,10 +18245,10 @@
       <c r="A587" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B587" s="0" t="n">
+      <c r="B587" s="1" t="n">
         <v>-2.9023998</v>
       </c>
-      <c r="C587" s="0" t="n">
+      <c r="C587" s="1" t="n">
         <v>1.2143023</v>
       </c>
       <c r="D587" s="1" t="n">
@@ -18266,10 +18266,10 @@
       <c r="A588" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B588" s="0" t="n">
+      <c r="B588" s="1" t="n">
         <v>-2.9023995</v>
       </c>
-      <c r="C588" s="0" t="n">
+      <c r="C588" s="1" t="n">
         <v>1.2143022</v>
       </c>
       <c r="D588" s="1" t="n">
@@ -18287,10 +18287,10 @@
       <c r="A589" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B589" s="0" t="n">
+      <c r="B589" s="1" t="n">
         <v>-2.9023995</v>
       </c>
-      <c r="C589" s="0" t="n">
+      <c r="C589" s="1" t="n">
         <v>1.2143022</v>
       </c>
       <c r="D589" s="1" t="n">
@@ -18308,10 +18308,10 @@
       <c r="A590" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B590" s="0" t="n">
+      <c r="B590" s="1" t="n">
         <v>-2.9024</v>
       </c>
-      <c r="C590" s="0" t="n">
+      <c r="C590" s="1" t="n">
         <v>1.2143022</v>
       </c>
       <c r="D590" s="1" t="n">
@@ -18329,10 +18329,10 @@
       <c r="A591" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B591" s="0" t="n">
+      <c r="B591" s="1" t="n">
         <v>-2.9024</v>
       </c>
-      <c r="C591" s="0" t="n">
+      <c r="C591" s="1" t="n">
         <v>1.2143023</v>
       </c>
       <c r="D591" s="1" t="n">
@@ -18350,10 +18350,10 @@
       <c r="A592" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B592" s="0" t="n">
+      <c r="B592" s="1" t="n">
         <v>-2.27479</v>
       </c>
-      <c r="C592" s="0" t="n">
+      <c r="C592" s="1" t="n">
         <v>1.2051818</v>
       </c>
       <c r="D592" s="1" t="n">
@@ -18371,10 +18371,10 @@
       <c r="A593" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B593" s="0" t="n">
+      <c r="B593" s="1" t="n">
         <v>-2.27479</v>
       </c>
-      <c r="C593" s="0" t="n">
+      <c r="C593" s="1" t="n">
         <v>1.2051817</v>
       </c>
       <c r="D593" s="1" t="n">
@@ -18392,10 +18392,10 @@
       <c r="A594" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B594" s="0" t="n">
+      <c r="B594" s="1" t="n">
         <v>-2.27479</v>
       </c>
-      <c r="C594" s="0" t="n">
+      <c r="C594" s="1" t="n">
         <v>1.2051818</v>
       </c>
       <c r="D594" s="1" t="n">
@@ -18413,10 +18413,10 @@
       <c r="A595" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B595" s="0" t="n">
+      <c r="B595" s="1" t="n">
         <v>-2.2747903</v>
       </c>
-      <c r="C595" s="0" t="n">
+      <c r="C595" s="1" t="n">
         <v>1.2051817</v>
       </c>
       <c r="D595" s="1" t="n">
@@ -18434,10 +18434,10 @@
       <c r="A596" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B596" s="0" t="n">
+      <c r="B596" s="1" t="n">
         <v>-2.27479</v>
       </c>
-      <c r="C596" s="0" t="n">
+      <c r="C596" s="1" t="n">
         <v>1.2051817</v>
       </c>
       <c r="D596" s="1" t="n">
@@ -18455,10 +18455,10 @@
       <c r="A597" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B597" s="0" t="n">
+      <c r="B597" s="1" t="n">
         <v>-2.0683105</v>
       </c>
-      <c r="C597" s="0" t="n">
+      <c r="C597" s="1" t="n">
         <v>1.0047561</v>
       </c>
       <c r="D597" s="1" t="n">
@@ -18476,10 +18476,10 @@
       <c r="A598" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B598" s="0" t="n">
+      <c r="B598" s="1" t="n">
         <v>-2.0683103</v>
       </c>
-      <c r="C598" s="0" t="n">
+      <c r="C598" s="1" t="n">
         <v>1.0047561</v>
       </c>
       <c r="D598" s="1" t="n">
@@ -18497,10 +18497,10 @@
       <c r="A599" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B599" s="0" t="n">
+      <c r="B599" s="1" t="n">
         <v>-2.0683105</v>
       </c>
-      <c r="C599" s="0" t="n">
+      <c r="C599" s="1" t="n">
         <v>1.004756</v>
       </c>
       <c r="D599" s="1" t="n">
@@ -18518,10 +18518,10 @@
       <c r="A600" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B600" s="0" t="n">
+      <c r="B600" s="1" t="n">
         <v>-2.0683105</v>
       </c>
-      <c r="C600" s="0" t="n">
+      <c r="C600" s="1" t="n">
         <v>1.004756</v>
       </c>
       <c r="D600" s="1" t="n">
@@ -18539,10 +18539,10 @@
       <c r="A601" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B601" s="0" t="n">
+      <c r="B601" s="1" t="n">
         <v>-2.0683103</v>
       </c>
-      <c r="C601" s="0" t="n">
+      <c r="C601" s="1" t="n">
         <v>1.004756</v>
       </c>
       <c r="D601" s="1" t="n">
@@ -18560,10 +18560,10 @@
       <c r="A602" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B602" s="0" t="n">
+      <c r="B602" s="1" t="n">
         <v>-0.6863872</v>
       </c>
-      <c r="C602" s="0" t="n">
+      <c r="C602" s="1" t="n">
         <v>1.2069161</v>
       </c>
       <c r="D602" s="1" t="n">
@@ -18581,10 +18581,10 @@
       <c r="A603" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B603" s="0" t="n">
+      <c r="B603" s="1" t="n">
         <v>-0.6863872</v>
       </c>
-      <c r="C603" s="0" t="n">
+      <c r="C603" s="1" t="n">
         <v>1.2069161</v>
       </c>
       <c r="D603" s="1" t="n">
@@ -18602,10 +18602,10 @@
       <c r="A604" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B604" s="0" t="n">
+      <c r="B604" s="1" t="n">
         <v>-0.6863872</v>
       </c>
-      <c r="C604" s="0" t="n">
+      <c r="C604" s="1" t="n">
         <v>1.2069161</v>
       </c>
       <c r="D604" s="1" t="n">
@@ -18623,10 +18623,10 @@
       <c r="A605" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B605" s="0" t="n">
+      <c r="B605" s="1" t="n">
         <v>-0.6863872</v>
       </c>
-      <c r="C605" s="0" t="n">
+      <c r="C605" s="1" t="n">
         <v>1.2069161</v>
       </c>
       <c r="D605" s="1" t="n">
@@ -18644,10 +18644,10 @@
       <c r="A606" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B606" s="0" t="n">
+      <c r="B606" s="1" t="n">
         <v>-0.6863872</v>
       </c>
-      <c r="C606" s="0" t="n">
+      <c r="C606" s="1" t="n">
         <v>1.2069161</v>
       </c>
       <c r="D606" s="1" t="n">
@@ -47507,7 +47507,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -52842,8 +52842,8 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52872,10 +52872,10 @@
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>-3.485576</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.8268139</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -52885,8 +52885,14 @@
         <v>-1.746948724</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">B2+C2*D2</f>
-        <v>-0.689641572660191</v>
+        <f aca="false">(B2+C2*D2)*$J$3+$J$2</f>
+        <v>-2.27909433102287</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>-2.099614069</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -52896,10 +52902,10 @@
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>-3.485576</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.8268139</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -52909,8 +52915,14 @@
         <v>-1.808627127</v>
       </c>
       <c r="F3" s="1" t="n">
-        <f aca="false">B3+C3*D3</f>
-        <v>-1.02293805557923</v>
+        <f aca="false">(B3+C3*D3)*$J$3+$J$2</f>
+        <v>-2.36583524464683</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.260251512</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -52920,10 +52932,10 @@
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>-3.485576</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.82681376</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -52933,8 +52945,8 @@
         <v>-1.874361277</v>
       </c>
       <c r="F4" s="1" t="n">
-        <f aca="false">B4+C4*D4</f>
-        <v>-1.28523575249932</v>
+        <f aca="false">(B4+C4*D4)*$J$3+$J$2</f>
+        <v>-2.43409861686441</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -52944,10 +52956,10 @@
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>-3.485576</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.8268139</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -52957,8 +52969,8 @@
         <v>-1.944722334</v>
       </c>
       <c r="F5" s="1" t="n">
-        <f aca="false">B5+C5*D5</f>
-        <v>-1.49703631288917</v>
+        <f aca="false">(B5+C5*D5)*$J$3+$J$2</f>
+        <v>-2.48922003294831</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -52968,10 +52980,10 @@
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>-3.485576</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.82681406</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -52981,8 +52993,8 @@
         <v>-2.020411312</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="false">B6+C6*D6</f>
-        <v>-1.67164185592334</v>
+        <f aca="false">(B6+C6*D6)*$J$3+$J$2</f>
+        <v>-2.53466138952654</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
